--- a/2. 기능정리 취합/Project06 - 요구사항 정의서 - 복사본.xlsx
+++ b/2. 기능정리 취합/Project06 - 요구사항 정의서 - 복사본.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HYEONTAE\Desktop\project06\2. 기능정리 취합\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항정의서" sheetId="1" r:id="rId1"/>
@@ -12,7 +17,7 @@
     <sheet name="조원 역할 분배" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$B$7:$O$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$B$7:$N$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'요구사항정의서(기존 프로젝트와 비교)'!$A$7:$P$51</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -33,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="152">
   <si>
     <t>현태</t>
   </si>
@@ -314,14 +319,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>회원정보변경</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원탈퇴</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>나의 계좌</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -398,10 +395,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>프로젝트 수정</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>프로젝트 정산</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -457,10 +450,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>나의 펀딩</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>관심 프로젝트</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -478,10 +467,6 @@
   </si>
   <si>
     <t>고객센터</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>메이커 목록</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -542,10 +527,6 @@
   </si>
   <si>
     <t>신청된 상품들과 판매되는 상품 목록</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>FAQ</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -721,7 +702,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
@@ -877,7 +858,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1215,15 +1196,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -1233,30 +1205,6 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -1276,65 +1224,11 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -1342,41 +1236,51 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="double">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1385,7 +1289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1457,9 +1361,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1467,9 +1368,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -1520,9 +1418,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1597,37 +1492,52 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1646,11 +1556,44 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1661,124 +1604,46 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1996,30 +1861,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AF1015"/>
+  <dimension ref="B1:AE983"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R51" sqref="R51"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" customWidth="1"/>
-    <col min="4" max="4" width="62.28515625" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" customWidth="1"/>
-    <col min="6" max="6" width="19" hidden="1" customWidth="1"/>
-    <col min="7" max="8" width="24.140625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="19" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="26.85546875" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="44" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" hidden="1" customWidth="1"/>
-    <col min="14" max="15" width="20" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="37.88671875" customWidth="1"/>
+    <col min="3" max="3" width="24.21875" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="5" max="5" width="19" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="24.109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="19" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="26.88671875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="44" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="13.88671875" hidden="1" customWidth="1"/>
+    <col min="13" max="14" width="20" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B1" s="1"/>
+    <row r="1" spans="2:31" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2"/>
@@ -2027,7 +1891,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -2049,24 +1913,23 @@
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-    </row>
-    <row r="2" spans="2:32" ht="19.5" customHeight="1">
-      <c r="B2" s="1"/>
-      <c r="C2" s="82" t="s">
+    </row>
+    <row r="2" spans="2:31" ht="19.5" customHeight="1">
+      <c r="B2" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="84"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -2084,22 +1947,21 @@
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
-    </row>
-    <row r="3" spans="2:32" ht="19.5" customHeight="1" thickBot="1">
-      <c r="B3" s="1"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="87"/>
+    </row>
+    <row r="3" spans="2:31" ht="19.5" customHeight="1" thickBot="1">
+      <c r="B3" s="125"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -2117,10 +1979,9 @@
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
-    </row>
-    <row r="4" spans="2:32" ht="19.5" hidden="1" customHeight="1">
-      <c r="B4" s="1"/>
+    </row>
+    <row r="4" spans="2:31" ht="19.5" hidden="1" customHeight="1">
+      <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="1"/>
       <c r="E4" s="2"/>
@@ -2128,7 +1989,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -2150,22 +2011,19 @@
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
-    </row>
-    <row r="5" spans="2:32" ht="50.25" hidden="1" customHeight="1">
-      <c r="B5" s="1"/>
-      <c r="C5" s="3">
+    </row>
+    <row r="5" spans="2:31" ht="50.25" hidden="1" customHeight="1">
+      <c r="B5" s="3">
         <v>43860</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="1"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -2187,10 +2045,9 @@
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
-    </row>
-    <row r="6" spans="2:32" ht="19.5" customHeight="1">
-      <c r="B6" s="1"/>
+    </row>
+    <row r="6" spans="2:31" ht="19.5" customHeight="1">
+      <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="1"/>
       <c r="E6" s="2"/>
@@ -2198,7 +2055,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -2220,43 +2077,40 @@
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
-    </row>
-    <row r="7" spans="2:32" ht="32.25" customHeight="1" thickBot="1">
-      <c r="B7" s="135" t="s">
+    </row>
+    <row r="7" spans="2:31" ht="32.25" customHeight="1" thickBot="1">
+      <c r="B7" s="82" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="82" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="135" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="135" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="135" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="88" t="s">
+      <c r="E7" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="90"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="K7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="L7" s="6" t="s">
         <v>21</v>
       </c>
+      <c r="M7" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="N7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O7" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -2273,35 +2127,34 @@
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
-    </row>
-    <row r="8" spans="2:32" ht="20.25" customHeight="1">
-      <c r="B8" s="75" t="s">
+    </row>
+    <row r="8" spans="2:31" ht="22.2" customHeight="1">
+      <c r="B8" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="100" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="121" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="122"/>
-      <c r="E8" s="124" t="s">
-        <v>130</v>
-      </c>
+      <c r="E8" s="22"/>
       <c r="F8" s="22"/>
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
+      <c r="J8" s="23"/>
       <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="12">
+      <c r="L8" s="12">
         <v>1</v>
       </c>
+      <c r="M8" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="N8" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="O8" s="11" t="s">
         <v>25</v>
       </c>
+      <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -2318,33 +2171,30 @@
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
-      <c r="AF8" s="1"/>
-    </row>
-    <row r="9" spans="2:32" ht="20.25" customHeight="1">
-      <c r="B9" s="75"/>
-      <c r="C9" s="91" t="s">
+    </row>
+    <row r="9" spans="2:31" ht="22.2" customHeight="1">
+      <c r="B9" s="117" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="97"/>
+      <c r="C9" s="121"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="22"/>
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
       <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="17">
+      <c r="J9" s="23"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="17">
         <v>1</v>
       </c>
+      <c r="M9" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="N9" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="O9" s="10" t="s">
         <v>27</v>
       </c>
+      <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -2361,25 +2211,26 @@
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
-    </row>
-    <row r="10" spans="2:32" ht="20.25" customHeight="1">
-      <c r="B10" s="75"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="97"/>
+    </row>
+    <row r="10" spans="2:31" ht="22.2" customHeight="1">
+      <c r="B10" s="118" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="116"/>
+      <c r="E10" s="22"/>
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="17"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="10"/>
       <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
+      <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -2396,25 +2247,32 @@
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
-    </row>
-    <row r="11" spans="2:32" ht="20.25" customHeight="1" thickBot="1">
-      <c r="B11" s="75"/>
-      <c r="C11" s="125"/>
-      <c r="D11" s="126" t="s">
-        <v>88</v>
-      </c>
-      <c r="E11" s="127"/>
+    </row>
+    <row r="11" spans="2:31" ht="22.2" customHeight="1">
+      <c r="B11" s="118" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="116"/>
+      <c r="E11" s="22"/>
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="17">
+        <v>2</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -2431,29 +2289,26 @@
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
-      <c r="AF11" s="1"/>
-    </row>
-    <row r="12" spans="2:32" ht="20.25" customHeight="1" thickTop="1">
-      <c r="B12" s="75"/>
-      <c r="C12" s="128" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="129" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="130" t="s">
-        <v>131</v>
-      </c>
+    </row>
+    <row r="12" spans="2:31" ht="22.2" customHeight="1">
+      <c r="B12" s="118" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="116"/>
+      <c r="E12" s="22"/>
       <c r="F12" s="22"/>
       <c r="G12" s="22"/>
       <c r="H12" s="22"/>
       <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="17"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="10"/>
       <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
+      <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -2470,25 +2325,26 @@
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
-      <c r="AF12" s="1"/>
-    </row>
-    <row r="13" spans="2:32" ht="20.25" customHeight="1">
-      <c r="B13" s="75"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="99"/>
+    </row>
+    <row r="13" spans="2:31" ht="22.2" customHeight="1">
+      <c r="B13" s="118" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" s="116"/>
+      <c r="E13" s="22"/>
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
       <c r="H13" s="22"/>
       <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="17"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="10"/>
       <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
+      <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -2505,25 +2361,26 @@
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
-      <c r="AF13" s="1"/>
-    </row>
-    <row r="14" spans="2:32" ht="20.25" customHeight="1">
-      <c r="B14" s="75"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="99"/>
+    </row>
+    <row r="14" spans="2:31" ht="22.2" customHeight="1" thickBot="1">
+      <c r="B14" s="120" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" s="119"/>
+      <c r="E14" s="22"/>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
       <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="17"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="10"/>
       <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
+      <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -2540,25 +2397,30 @@
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
-      <c r="AF14" s="1"/>
-    </row>
-    <row r="15" spans="2:32" ht="20.25" customHeight="1">
-      <c r="B15" s="75"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="E15" s="99"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="17"/>
+    </row>
+    <row r="15" spans="2:31" ht="22.2" customHeight="1">
+      <c r="B15" s="79" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="83" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" s="101" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="17">
+        <v>3</v>
+      </c>
+      <c r="M15" s="10"/>
       <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
+      <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -2575,25 +2437,24 @@
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
-      <c r="AF15" s="1"/>
-    </row>
-    <row r="16" spans="2:32" ht="20.25" customHeight="1">
-      <c r="B16" s="75"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="E16" s="99"/>
+    </row>
+    <row r="16" spans="2:31" ht="22.2" customHeight="1">
+      <c r="B16" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="84"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="22"/>
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
       <c r="H16" s="22"/>
       <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -2610,25 +2471,24 @@
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
-      <c r="AF16" s="1"/>
-    </row>
-    <row r="17" spans="2:32" ht="20.25" customHeight="1" thickBot="1">
-      <c r="B17" s="75"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="132" t="s">
-        <v>90</v>
-      </c>
-      <c r="E17" s="133"/>
+    </row>
+    <row r="17" spans="2:31" ht="22.2" customHeight="1">
+      <c r="B17" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="85"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="22"/>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -2645,35 +2505,26 @@
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
-      <c r="AF17" s="1"/>
-    </row>
-    <row r="18" spans="2:32" ht="20.25" customHeight="1" thickTop="1">
-      <c r="B18" s="75"/>
-      <c r="C18" s="128" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" s="134" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="130" t="s">
-        <v>132</v>
-      </c>
+    </row>
+    <row r="18" spans="2:31" ht="22.2" customHeight="1">
+      <c r="B18" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="78" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" s="86"/>
+      <c r="E18" s="22"/>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
       <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="17">
-        <v>2</v>
-      </c>
-      <c r="N18" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="O18" s="10" t="s">
-        <v>29</v>
-      </c>
+      <c r="J18" s="26"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -2690,25 +2541,30 @@
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
-      <c r="AF18" s="1"/>
-    </row>
-    <row r="19" spans="2:32" ht="20.25" customHeight="1">
-      <c r="B19" s="75"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="99"/>
+    </row>
+    <row r="19" spans="2:31" ht="22.2" customHeight="1">
+      <c r="B19" s="69" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="77" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="86"/>
+      <c r="E19" s="22"/>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
       <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="17"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="17">
+        <v>3</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
+      <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -2725,25 +2581,30 @@
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
-      <c r="AF19" s="1"/>
-    </row>
-    <row r="20" spans="2:32" ht="20.25" customHeight="1">
-      <c r="B20" s="75"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="99"/>
+    </row>
+    <row r="20" spans="2:31" ht="22.2" customHeight="1" thickBot="1">
+      <c r="B20" s="80" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" s="102"/>
+      <c r="E20" s="22"/>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
       <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="17">
+        <v>3</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="N20" s="15"/>
+      <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -2760,31 +2621,18 @@
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
-      <c r="AF20" s="1"/>
-    </row>
-    <row r="21" spans="2:32" ht="20.25" customHeight="1">
-      <c r="B21" s="75"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="99"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="17">
-        <v>1</v>
-      </c>
-      <c r="N21" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="O21" s="10" t="s">
-        <v>31</v>
-      </c>
+    </row>
+    <row r="21" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B21" s="2"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -2801,25 +2649,18 @@
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
-      <c r="AF21" s="1"/>
-    </row>
-    <row r="22" spans="2:32" ht="20.25" customHeight="1">
-      <c r="B22" s="75"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="99"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
+    </row>
+    <row r="22" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B22" s="2"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
@@ -2836,31 +2677,19 @@
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
-      <c r="AF22" s="1"/>
-    </row>
-    <row r="23" spans="2:32" ht="20.25" customHeight="1" thickBot="1">
-      <c r="B23" s="75"/>
-      <c r="C23" s="131"/>
-      <c r="D23" s="126" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="133"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="17">
-        <v>1</v>
-      </c>
-      <c r="N23" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="O23" s="10" t="s">
-        <v>33</v>
-      </c>
+    </row>
+    <row r="23" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -2877,29 +2706,22 @@
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
-      <c r="AF23" s="1"/>
-    </row>
-    <row r="24" spans="2:32" ht="20.25" customHeight="1" thickTop="1">
-      <c r="B24" s="75"/>
-      <c r="C24" s="128" t="s">
-        <v>99</v>
-      </c>
-      <c r="D24" s="129" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="130" t="s">
-        <v>133</v>
-      </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
+    </row>
+    <row r="24" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -2916,25 +2738,20 @@
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
-      <c r="AF24" s="1"/>
-    </row>
-    <row r="25" spans="2:32" ht="20.25" customHeight="1">
-      <c r="B25" s="75"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" s="99"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
+    </row>
+    <row r="25" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
@@ -2951,25 +2768,24 @@
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
-      <c r="AF25" s="1"/>
-    </row>
-    <row r="26" spans="2:32" ht="20.25" customHeight="1">
-      <c r="B26" s="75"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" s="99"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
+    </row>
+    <row r="26" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
@@ -2986,25 +2802,24 @@
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
-      <c r="AF26" s="1"/>
-    </row>
-    <row r="27" spans="2:32" ht="20.25" customHeight="1" thickBot="1">
-      <c r="B27" s="75"/>
-      <c r="C27" s="131"/>
-      <c r="D27" s="132" t="s">
-        <v>73</v>
-      </c>
-      <c r="E27" s="133"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
+    </row>
+    <row r="27" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
@@ -3021,29 +2836,24 @@
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
-      <c r="AF27" s="1"/>
-    </row>
-    <row r="28" spans="2:32" ht="20.25" customHeight="1" thickTop="1">
-      <c r="B28" s="75"/>
-      <c r="C28" s="128" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="129" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" s="130" t="s">
-        <v>134</v>
-      </c>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
+    </row>
+    <row r="28" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
@@ -3060,25 +2870,24 @@
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
-      <c r="AF28" s="1"/>
-    </row>
-    <row r="29" spans="2:32" ht="20.25" customHeight="1">
-      <c r="B29" s="75"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="E29" s="99"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
+    </row>
+    <row r="29" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -3095,25 +2904,24 @@
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
-      <c r="AF29" s="1"/>
-    </row>
-    <row r="30" spans="2:32" ht="20.25" customHeight="1">
-      <c r="B30" s="75"/>
-      <c r="C30" s="78"/>
-      <c r="D30" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="E30" s="99"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
+    </row>
+    <row r="30" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -3130,25 +2938,22 @@
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
-      <c r="AF30" s="1"/>
-    </row>
-    <row r="31" spans="2:32" ht="20.25" customHeight="1">
-      <c r="B31" s="75"/>
-      <c r="C31" s="78"/>
-      <c r="D31" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="E31" s="99"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
+    </row>
+    <row r="31" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
@@ -3165,25 +2970,22 @@
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
-      <c r="AF31" s="1"/>
-    </row>
-    <row r="32" spans="2:32" ht="20.25" customHeight="1">
-      <c r="B32" s="75"/>
-      <c r="C32" s="78"/>
-      <c r="D32" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="E32" s="99"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
+    </row>
+    <row r="32" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
@@ -3200,25 +3002,22 @@
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
-      <c r="AF32" s="1"/>
-    </row>
-    <row r="33" spans="2:32" ht="20.25" customHeight="1" thickBot="1">
-      <c r="B33" s="75"/>
-      <c r="C33" s="131"/>
-      <c r="D33" s="132" t="s">
-        <v>98</v>
-      </c>
-      <c r="E33" s="133"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
+    </row>
+    <row r="33" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
@@ -3235,29 +3034,22 @@
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
-      <c r="AF33" s="1"/>
-    </row>
-    <row r="34" spans="2:32" ht="20.25" customHeight="1" thickTop="1">
-      <c r="B34" s="75"/>
-      <c r="C34" s="80" t="s">
-        <v>101</v>
-      </c>
-      <c r="D34" s="123" t="s">
-        <v>128</v>
-      </c>
-      <c r="E34" s="99" t="s">
-        <v>135</v>
-      </c>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
+    </row>
+    <row r="34" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
@@ -3274,31 +3066,22 @@
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
-      <c r="AF34" s="1"/>
-    </row>
-    <row r="35" spans="2:32" ht="20.25" customHeight="1">
-      <c r="B35" s="75"/>
-      <c r="C35" s="80"/>
-      <c r="D35" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="E35" s="99"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="17">
-        <v>2</v>
-      </c>
-      <c r="N35" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="O35" s="10" t="s">
-        <v>35</v>
-      </c>
+    </row>
+    <row r="35" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
@@ -3315,31 +3098,22 @@
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
-      <c r="AF35" s="1"/>
-    </row>
-    <row r="36" spans="2:32" ht="20.25" customHeight="1" thickBot="1">
-      <c r="B36" s="76"/>
-      <c r="C36" s="81"/>
-      <c r="D36" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="E36" s="101"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="48"/>
-      <c r="K36" s="50"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="17">
-        <v>1</v>
-      </c>
-      <c r="N36" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="O36" s="10" t="s">
-        <v>37</v>
-      </c>
+    </row>
+    <row r="36" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
@@ -3356,23 +3130,22 @@
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
       <c r="AE36" s="1"/>
-      <c r="AF36" s="1"/>
-    </row>
-    <row r="37" spans="2:32" ht="20.25" customHeight="1">
-      <c r="B37" s="117"/>
-      <c r="C37" s="118"/>
-      <c r="D37" s="119"/>
-      <c r="E37" s="120"/>
-      <c r="F37" s="116"/>
-      <c r="G37" s="113"/>
-      <c r="H37" s="114"/>
-      <c r="I37" s="113"/>
-      <c r="J37" s="113"/>
-      <c r="K37" s="115"/>
-      <c r="L37" s="108"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
+    </row>
+    <row r="37" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -3389,31 +3162,22 @@
       <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
       <c r="AE37" s="1"/>
-      <c r="AF37" s="1"/>
-    </row>
-    <row r="38" spans="2:32" ht="34.5" customHeight="1" thickBot="1">
-      <c r="B38" s="136" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="136" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="136" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" s="136" t="s">
-        <v>17</v>
-      </c>
-      <c r="F38" s="116"/>
-      <c r="G38" s="113"/>
-      <c r="H38" s="114"/>
-      <c r="I38" s="113"/>
-      <c r="J38" s="113"/>
-      <c r="K38" s="115"/>
-      <c r="L38" s="108"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
+    </row>
+    <row r="38" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
@@ -3430,33 +3194,22 @@
       <c r="AC38" s="1"/>
       <c r="AD38" s="1"/>
       <c r="AE38" s="1"/>
-      <c r="AF38" s="1"/>
-    </row>
-    <row r="39" spans="2:32" ht="20.25" customHeight="1">
-      <c r="B39" s="107" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" s="109" t="s">
-        <v>77</v>
-      </c>
-      <c r="D39" s="110" t="s">
-        <v>79</v>
-      </c>
-      <c r="E39" s="103" t="s">
-        <v>138</v>
-      </c>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="28"/>
-      <c r="M39" s="17">
-        <v>3</v>
-      </c>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
+    </row>
+    <row r="39" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
@@ -3473,31 +3226,22 @@
       <c r="AC39" s="1"/>
       <c r="AD39" s="1"/>
       <c r="AE39" s="1"/>
-      <c r="AF39" s="1"/>
-    </row>
-    <row r="40" spans="2:32" ht="20.25" customHeight="1">
-      <c r="B40" s="106"/>
-      <c r="C40" s="73"/>
-      <c r="D40" s="71" t="s">
-        <v>80</v>
-      </c>
-      <c r="E40" s="104"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="17">
-        <v>1</v>
-      </c>
-      <c r="N40" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="O40" s="11" t="s">
-        <v>39</v>
-      </c>
+    </row>
+    <row r="40" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
@@ -3514,27 +3258,22 @@
       <c r="AC40" s="1"/>
       <c r="AD40" s="1"/>
       <c r="AE40" s="1"/>
-      <c r="AF40" s="1"/>
-    </row>
-    <row r="41" spans="2:32" ht="20.25" customHeight="1">
-      <c r="B41" s="106"/>
-      <c r="C41" s="71" t="s">
-        <v>102</v>
-      </c>
-      <c r="D41" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="E41" s="104"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="25"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="11"/>
+    </row>
+    <row r="41" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
@@ -3551,27 +3290,22 @@
       <c r="AC41" s="1"/>
       <c r="AD41" s="1"/>
       <c r="AE41" s="1"/>
-      <c r="AF41" s="1"/>
-    </row>
-    <row r="42" spans="2:32" ht="20.25" customHeight="1">
-      <c r="B42" s="106"/>
-      <c r="C42" s="71" t="s">
-        <v>106</v>
-      </c>
-      <c r="D42" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="E42" s="102"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="24"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="40"/>
-      <c r="O42" s="40"/>
+    </row>
+    <row r="42" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
@@ -3588,29 +3322,22 @@
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
       <c r="AE42" s="1"/>
-      <c r="AF42" s="1"/>
-    </row>
-    <row r="43" spans="2:32" ht="20.25" customHeight="1">
-      <c r="B43" s="106"/>
-      <c r="C43" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="D43" s="71" t="s">
-        <v>50</v>
-      </c>
-      <c r="E43" s="105" t="s">
-        <v>141</v>
-      </c>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="25"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="11"/>
+    </row>
+    <row r="43" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
@@ -3627,25 +3354,22 @@
       <c r="AC43" s="1"/>
       <c r="AD43" s="1"/>
       <c r="AE43" s="1"/>
-      <c r="AF43" s="1"/>
-    </row>
-    <row r="44" spans="2:32" ht="20.25" customHeight="1">
-      <c r="B44" s="106"/>
-      <c r="C44" s="73"/>
-      <c r="D44" s="71" t="s">
-        <v>81</v>
-      </c>
-      <c r="E44" s="106"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="25"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="11"/>
-      <c r="O44" s="11"/>
+    </row>
+    <row r="44" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
@@ -3662,25 +3386,22 @@
       <c r="AC44" s="1"/>
       <c r="AD44" s="1"/>
       <c r="AE44" s="1"/>
-      <c r="AF44" s="1"/>
-    </row>
-    <row r="45" spans="2:32" ht="20.25" customHeight="1">
-      <c r="B45" s="106"/>
-      <c r="C45" s="73"/>
-      <c r="D45" s="71" t="s">
-        <v>82</v>
-      </c>
-      <c r="E45" s="106"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="25"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="11"/>
-      <c r="O45" s="11"/>
+    </row>
+    <row r="45" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
@@ -3697,25 +3418,22 @@
       <c r="AC45" s="1"/>
       <c r="AD45" s="1"/>
       <c r="AE45" s="1"/>
-      <c r="AF45" s="1"/>
-    </row>
-    <row r="46" spans="2:32" ht="20.25" customHeight="1">
-      <c r="B46" s="106"/>
-      <c r="C46" s="73"/>
-      <c r="D46" s="71" t="s">
-        <v>83</v>
-      </c>
-      <c r="E46" s="72"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="25"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="11"/>
-      <c r="O46" s="11"/>
+    </row>
+    <row r="46" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
@@ -3732,33 +3450,22 @@
       <c r="AC46" s="1"/>
       <c r="AD46" s="1"/>
       <c r="AE46" s="1"/>
-      <c r="AF46" s="1"/>
-    </row>
-    <row r="47" spans="2:32" ht="20.25" customHeight="1">
-      <c r="B47" s="106"/>
-      <c r="C47" s="73" t="s">
-        <v>115</v>
-      </c>
-      <c r="D47" s="71" t="s">
-        <v>123</v>
-      </c>
-      <c r="E47" s="98" t="s">
-        <v>133</v>
-      </c>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="27"/>
-      <c r="L47" s="25"/>
-      <c r="M47" s="17">
-        <v>3</v>
-      </c>
-      <c r="N47" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="O47" s="10"/>
+    </row>
+    <row r="47" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
@@ -3775,29 +3482,22 @@
       <c r="AC47" s="1"/>
       <c r="AD47" s="1"/>
       <c r="AE47" s="1"/>
-      <c r="AF47" s="1"/>
-    </row>
-    <row r="48" spans="2:32" ht="20.25" customHeight="1">
-      <c r="B48" s="106"/>
-      <c r="C48" s="73"/>
-      <c r="D48" s="71" t="s">
-        <v>121</v>
-      </c>
-      <c r="E48" s="99"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="27"/>
-      <c r="L48" s="24"/>
-      <c r="M48" s="17">
-        <v>3</v>
-      </c>
-      <c r="N48" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="O48" s="14"/>
+    </row>
+    <row r="48" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
@@ -3814,29 +3514,22 @@
       <c r="AC48" s="1"/>
       <c r="AD48" s="1"/>
       <c r="AE48" s="1"/>
-      <c r="AF48" s="1"/>
-    </row>
-    <row r="49" spans="2:32" ht="20.25" customHeight="1">
-      <c r="B49" s="106"/>
-      <c r="C49" s="73"/>
-      <c r="D49" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="E49" s="100"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="24"/>
-      <c r="M49" s="17">
-        <v>3</v>
-      </c>
-      <c r="N49" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="O49" s="15"/>
+    </row>
+    <row r="49" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
@@ -3853,33 +3546,22 @@
       <c r="AC49" s="1"/>
       <c r="AD49" s="1"/>
       <c r="AE49" s="1"/>
-      <c r="AF49" s="1"/>
-    </row>
-    <row r="50" spans="2:32" ht="20.25" customHeight="1">
-      <c r="B50" s="106"/>
-      <c r="C50" s="73" t="s">
-        <v>78</v>
-      </c>
-      <c r="D50" s="71" t="s">
-        <v>118</v>
-      </c>
-      <c r="E50" s="98" t="s">
-        <v>139</v>
-      </c>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="27"/>
-      <c r="L50" s="24"/>
-      <c r="M50" s="17">
-        <v>3</v>
-      </c>
-      <c r="N50" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="O50" s="15"/>
+    </row>
+    <row r="50" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
@@ -3896,25 +3578,22 @@
       <c r="AC50" s="1"/>
       <c r="AD50" s="1"/>
       <c r="AE50" s="1"/>
-      <c r="AF50" s="1"/>
-    </row>
-    <row r="51" spans="2:32" ht="20.25" customHeight="1">
-      <c r="B51" s="106"/>
-      <c r="C51" s="73"/>
-      <c r="D51" s="71" t="s">
-        <v>117</v>
-      </c>
-      <c r="E51" s="99"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="27"/>
-      <c r="L51" s="24"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="13"/>
-      <c r="O51" s="15"/>
+    </row>
+    <row r="51" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
@@ -3931,27 +3610,22 @@
       <c r="AC51" s="1"/>
       <c r="AD51" s="1"/>
       <c r="AE51" s="1"/>
-      <c r="AF51" s="1"/>
-    </row>
-    <row r="52" spans="2:32" ht="20.25" customHeight="1" thickBot="1">
-      <c r="B52" s="111"/>
-      <c r="C52" s="112"/>
-      <c r="D52" s="47" t="s">
-        <v>129</v>
-      </c>
-      <c r="E52" s="101"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="22"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="27"/>
-      <c r="L52" s="24"/>
-      <c r="M52" s="17">
-        <v>3</v>
-      </c>
-      <c r="N52" s="15"/>
-      <c r="O52" s="15"/>
+    </row>
+    <row r="52" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
@@ -3968,15 +3642,19 @@
       <c r="AC52" s="1"/>
       <c r="AD52" s="1"/>
       <c r="AE52" s="1"/>
-      <c r="AF52" s="1"/>
-    </row>
-    <row r="53" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B53" s="1"/>
+    </row>
+    <row r="53" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B53" s="2"/>
       <c r="C53" s="2"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="L53" s="2"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
@@ -3996,15 +3674,19 @@
       <c r="AC53" s="1"/>
       <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
-      <c r="AF53" s="1"/>
-    </row>
-    <row r="54" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B54" s="1"/>
+    </row>
+    <row r="54" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B54" s="2"/>
       <c r="C54" s="2"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="L54" s="2"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
@@ -4024,16 +3706,18 @@
       <c r="AC54" s="1"/>
       <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
-      <c r="AF54" s="1"/>
-    </row>
-    <row r="55" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B55" s="1"/>
+    </row>
+    <row r="55" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="1"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
@@ -4054,10 +3738,9 @@
       <c r="AC55" s="1"/>
       <c r="AD55" s="1"/>
       <c r="AE55" s="1"/>
-      <c r="AF55" s="1"/>
-    </row>
-    <row r="56" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B56" s="1"/>
+    </row>
+    <row r="56" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="1"/>
       <c r="E56" s="2"/>
@@ -4065,7 +3748,7 @@
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
+      <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
@@ -4087,17 +3770,18 @@
       <c r="AC56" s="1"/>
       <c r="AD56" s="1"/>
       <c r="AE56" s="1"/>
-      <c r="AF56" s="1"/>
-    </row>
-    <row r="57" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B57" s="1"/>
+    </row>
+    <row r="57" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="1"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
-      <c r="K57" s="16"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
@@ -4118,21 +3802,18 @@
       <c r="AC57" s="1"/>
       <c r="AD57" s="1"/>
       <c r="AE57" s="1"/>
-      <c r="AF57" s="1"/>
-    </row>
-    <row r="58" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B58" s="1"/>
+    </row>
+    <row r="58" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="1"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
-      <c r="I58" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="I58" s="2"/>
       <c r="J58" s="1"/>
-      <c r="K58" s="2"/>
+      <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
@@ -4153,21 +3834,18 @@
       <c r="AC58" s="1"/>
       <c r="AD58" s="1"/>
       <c r="AE58" s="1"/>
-      <c r="AF58" s="1"/>
-    </row>
-    <row r="59" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B59" s="1"/>
+    </row>
+    <row r="59" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="1"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
-      <c r="I59" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="I59" s="2"/>
       <c r="J59" s="1"/>
-      <c r="K59" s="2"/>
+      <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
@@ -4188,21 +3866,18 @@
       <c r="AC59" s="1"/>
       <c r="AD59" s="1"/>
       <c r="AE59" s="1"/>
-      <c r="AF59" s="1"/>
-    </row>
-    <row r="60" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B60" s="1"/>
+    </row>
+    <row r="60" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="1"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
-      <c r="I60" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="I60" s="2"/>
       <c r="J60" s="1"/>
-      <c r="K60" s="2"/>
+      <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
@@ -4223,21 +3898,18 @@
       <c r="AC60" s="1"/>
       <c r="AD60" s="1"/>
       <c r="AE60" s="1"/>
-      <c r="AF60" s="1"/>
-    </row>
-    <row r="61" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B61" s="1"/>
+    </row>
+    <row r="61" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="1"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
-      <c r="I61" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="I61" s="2"/>
       <c r="J61" s="1"/>
-      <c r="K61" s="2"/>
+      <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
@@ -4258,21 +3930,18 @@
       <c r="AC61" s="1"/>
       <c r="AD61" s="1"/>
       <c r="AE61" s="1"/>
-      <c r="AF61" s="1"/>
-    </row>
-    <row r="62" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B62" s="1"/>
+    </row>
+    <row r="62" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="1"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
-      <c r="I62" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="I62" s="2"/>
       <c r="J62" s="1"/>
-      <c r="K62" s="2"/>
+      <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
@@ -4293,10 +3962,9 @@
       <c r="AC62" s="1"/>
       <c r="AD62" s="1"/>
       <c r="AE62" s="1"/>
-      <c r="AF62" s="1"/>
-    </row>
-    <row r="63" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B63" s="1"/>
+    </row>
+    <row r="63" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="1"/>
       <c r="E63" s="2"/>
@@ -4304,7 +3972,7 @@
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
+      <c r="J63" s="1"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
@@ -4326,10 +3994,9 @@
       <c r="AC63" s="1"/>
       <c r="AD63" s="1"/>
       <c r="AE63" s="1"/>
-      <c r="AF63" s="1"/>
-    </row>
-    <row r="64" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B64" s="1"/>
+    </row>
+    <row r="64" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="1"/>
       <c r="E64" s="2"/>
@@ -4337,7 +4004,7 @@
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
+      <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
@@ -4359,10 +4026,9 @@
       <c r="AC64" s="1"/>
       <c r="AD64" s="1"/>
       <c r="AE64" s="1"/>
-      <c r="AF64" s="1"/>
-    </row>
-    <row r="65" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B65" s="1"/>
+    </row>
+    <row r="65" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="1"/>
       <c r="E65" s="2"/>
@@ -4370,7 +4036,7 @@
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
+      <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
@@ -4392,10 +4058,9 @@
       <c r="AC65" s="1"/>
       <c r="AD65" s="1"/>
       <c r="AE65" s="1"/>
-      <c r="AF65" s="1"/>
-    </row>
-    <row r="66" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B66" s="1"/>
+    </row>
+    <row r="66" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="1"/>
       <c r="E66" s="2"/>
@@ -4403,7 +4068,7 @@
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
+      <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
@@ -4425,10 +4090,9 @@
       <c r="AC66" s="1"/>
       <c r="AD66" s="1"/>
       <c r="AE66" s="1"/>
-      <c r="AF66" s="1"/>
-    </row>
-    <row r="67" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B67" s="1"/>
+    </row>
+    <row r="67" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="1"/>
       <c r="E67" s="2"/>
@@ -4436,7 +4100,7 @@
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
+      <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
@@ -4458,10 +4122,9 @@
       <c r="AC67" s="1"/>
       <c r="AD67" s="1"/>
       <c r="AE67" s="1"/>
-      <c r="AF67" s="1"/>
-    </row>
-    <row r="68" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B68" s="1"/>
+    </row>
+    <row r="68" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="1"/>
       <c r="E68" s="2"/>
@@ -4469,7 +4132,7 @@
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
+      <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
@@ -4491,10 +4154,9 @@
       <c r="AC68" s="1"/>
       <c r="AD68" s="1"/>
       <c r="AE68" s="1"/>
-      <c r="AF68" s="1"/>
-    </row>
-    <row r="69" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B69" s="1"/>
+    </row>
+    <row r="69" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="1"/>
       <c r="E69" s="2"/>
@@ -4502,7 +4164,7 @@
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
+      <c r="J69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
@@ -4524,10 +4186,9 @@
       <c r="AC69" s="1"/>
       <c r="AD69" s="1"/>
       <c r="AE69" s="1"/>
-      <c r="AF69" s="1"/>
-    </row>
-    <row r="70" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B70" s="1"/>
+    </row>
+    <row r="70" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="1"/>
       <c r="E70" s="2"/>
@@ -4535,7 +4196,7 @@
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
+      <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
@@ -4557,10 +4218,9 @@
       <c r="AC70" s="1"/>
       <c r="AD70" s="1"/>
       <c r="AE70" s="1"/>
-      <c r="AF70" s="1"/>
-    </row>
-    <row r="71" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B71" s="1"/>
+    </row>
+    <row r="71" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="1"/>
       <c r="E71" s="2"/>
@@ -4568,7 +4228,7 @@
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
+      <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
@@ -4590,10 +4250,9 @@
       <c r="AC71" s="1"/>
       <c r="AD71" s="1"/>
       <c r="AE71" s="1"/>
-      <c r="AF71" s="1"/>
-    </row>
-    <row r="72" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B72" s="1"/>
+    </row>
+    <row r="72" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="1"/>
       <c r="E72" s="2"/>
@@ -4601,7 +4260,7 @@
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
+      <c r="J72" s="1"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
@@ -4623,10 +4282,9 @@
       <c r="AC72" s="1"/>
       <c r="AD72" s="1"/>
       <c r="AE72" s="1"/>
-      <c r="AF72" s="1"/>
-    </row>
-    <row r="73" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B73" s="1"/>
+    </row>
+    <row r="73" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="1"/>
       <c r="E73" s="2"/>
@@ -4634,7 +4292,7 @@
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
+      <c r="J73" s="1"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
@@ -4656,10 +4314,9 @@
       <c r="AC73" s="1"/>
       <c r="AD73" s="1"/>
       <c r="AE73" s="1"/>
-      <c r="AF73" s="1"/>
-    </row>
-    <row r="74" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B74" s="1"/>
+    </row>
+    <row r="74" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="1"/>
       <c r="E74" s="2"/>
@@ -4667,7 +4324,7 @@
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
-      <c r="J74" s="2"/>
+      <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
@@ -4689,10 +4346,9 @@
       <c r="AC74" s="1"/>
       <c r="AD74" s="1"/>
       <c r="AE74" s="1"/>
-      <c r="AF74" s="1"/>
-    </row>
-    <row r="75" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B75" s="1"/>
+    </row>
+    <row r="75" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="1"/>
       <c r="E75" s="2"/>
@@ -4700,7 +4356,7 @@
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
+      <c r="J75" s="1"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
@@ -4722,10 +4378,9 @@
       <c r="AC75" s="1"/>
       <c r="AD75" s="1"/>
       <c r="AE75" s="1"/>
-      <c r="AF75" s="1"/>
-    </row>
-    <row r="76" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B76" s="1"/>
+    </row>
+    <row r="76" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="1"/>
       <c r="E76" s="2"/>
@@ -4733,7 +4388,7 @@
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
+      <c r="J76" s="1"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
@@ -4755,10 +4410,9 @@
       <c r="AC76" s="1"/>
       <c r="AD76" s="1"/>
       <c r="AE76" s="1"/>
-      <c r="AF76" s="1"/>
-    </row>
-    <row r="77" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B77" s="1"/>
+    </row>
+    <row r="77" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="1"/>
       <c r="E77" s="2"/>
@@ -4766,7 +4420,7 @@
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
+      <c r="J77" s="1"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
@@ -4788,10 +4442,9 @@
       <c r="AC77" s="1"/>
       <c r="AD77" s="1"/>
       <c r="AE77" s="1"/>
-      <c r="AF77" s="1"/>
-    </row>
-    <row r="78" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B78" s="1"/>
+    </row>
+    <row r="78" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="1"/>
       <c r="E78" s="2"/>
@@ -4799,7 +4452,7 @@
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
-      <c r="J78" s="2"/>
+      <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
@@ -4821,10 +4474,9 @@
       <c r="AC78" s="1"/>
       <c r="AD78" s="1"/>
       <c r="AE78" s="1"/>
-      <c r="AF78" s="1"/>
-    </row>
-    <row r="79" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B79" s="1"/>
+    </row>
+    <row r="79" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="1"/>
       <c r="E79" s="2"/>
@@ -4832,7 +4484,7 @@
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
-      <c r="J79" s="2"/>
+      <c r="J79" s="1"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
@@ -4854,10 +4506,9 @@
       <c r="AC79" s="1"/>
       <c r="AD79" s="1"/>
       <c r="AE79" s="1"/>
-      <c r="AF79" s="1"/>
-    </row>
-    <row r="80" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B80" s="1"/>
+    </row>
+    <row r="80" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="1"/>
       <c r="E80" s="2"/>
@@ -4865,7 +4516,7 @@
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
-      <c r="J80" s="2"/>
+      <c r="J80" s="1"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
@@ -4887,10 +4538,9 @@
       <c r="AC80" s="1"/>
       <c r="AD80" s="1"/>
       <c r="AE80" s="1"/>
-      <c r="AF80" s="1"/>
-    </row>
-    <row r="81" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B81" s="1"/>
+    </row>
+    <row r="81" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="1"/>
       <c r="E81" s="2"/>
@@ -4898,7 +4548,7 @@
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
-      <c r="J81" s="2"/>
+      <c r="J81" s="1"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
@@ -4920,10 +4570,9 @@
       <c r="AC81" s="1"/>
       <c r="AD81" s="1"/>
       <c r="AE81" s="1"/>
-      <c r="AF81" s="1"/>
-    </row>
-    <row r="82" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B82" s="1"/>
+    </row>
+    <row r="82" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="1"/>
       <c r="E82" s="2"/>
@@ -4931,7 +4580,7 @@
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
-      <c r="J82" s="2"/>
+      <c r="J82" s="1"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
@@ -4953,10 +4602,9 @@
       <c r="AC82" s="1"/>
       <c r="AD82" s="1"/>
       <c r="AE82" s="1"/>
-      <c r="AF82" s="1"/>
-    </row>
-    <row r="83" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B83" s="1"/>
+    </row>
+    <row r="83" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="1"/>
       <c r="E83" s="2"/>
@@ -4964,7 +4612,7 @@
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
-      <c r="J83" s="2"/>
+      <c r="J83" s="1"/>
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
@@ -4986,10 +4634,9 @@
       <c r="AC83" s="1"/>
       <c r="AD83" s="1"/>
       <c r="AE83" s="1"/>
-      <c r="AF83" s="1"/>
-    </row>
-    <row r="84" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B84" s="1"/>
+    </row>
+    <row r="84" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="1"/>
       <c r="E84" s="2"/>
@@ -4997,7 +4644,7 @@
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
+      <c r="J84" s="1"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
@@ -5019,10 +4666,9 @@
       <c r="AC84" s="1"/>
       <c r="AD84" s="1"/>
       <c r="AE84" s="1"/>
-      <c r="AF84" s="1"/>
-    </row>
-    <row r="85" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B85" s="1"/>
+    </row>
+    <row r="85" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="1"/>
       <c r="E85" s="2"/>
@@ -5030,7 +4676,7 @@
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
-      <c r="J85" s="2"/>
+      <c r="J85" s="1"/>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
@@ -5052,10 +4698,9 @@
       <c r="AC85" s="1"/>
       <c r="AD85" s="1"/>
       <c r="AE85" s="1"/>
-      <c r="AF85" s="1"/>
-    </row>
-    <row r="86" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B86" s="1"/>
+    </row>
+    <row r="86" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="1"/>
       <c r="E86" s="2"/>
@@ -5063,7 +4708,7 @@
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
-      <c r="J86" s="2"/>
+      <c r="J86" s="1"/>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
@@ -5085,10 +4730,9 @@
       <c r="AC86" s="1"/>
       <c r="AD86" s="1"/>
       <c r="AE86" s="1"/>
-      <c r="AF86" s="1"/>
-    </row>
-    <row r="87" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B87" s="1"/>
+    </row>
+    <row r="87" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="1"/>
       <c r="E87" s="2"/>
@@ -5096,7 +4740,7 @@
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
-      <c r="J87" s="2"/>
+      <c r="J87" s="1"/>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
@@ -5118,10 +4762,9 @@
       <c r="AC87" s="1"/>
       <c r="AD87" s="1"/>
       <c r="AE87" s="1"/>
-      <c r="AF87" s="1"/>
-    </row>
-    <row r="88" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B88" s="1"/>
+    </row>
+    <row r="88" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="1"/>
       <c r="E88" s="2"/>
@@ -5129,7 +4772,7 @@
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
-      <c r="J88" s="2"/>
+      <c r="J88" s="1"/>
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
@@ -5151,10 +4794,9 @@
       <c r="AC88" s="1"/>
       <c r="AD88" s="1"/>
       <c r="AE88" s="1"/>
-      <c r="AF88" s="1"/>
-    </row>
-    <row r="89" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B89" s="1"/>
+    </row>
+    <row r="89" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="1"/>
       <c r="E89" s="2"/>
@@ -5162,7 +4804,7 @@
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
-      <c r="J89" s="2"/>
+      <c r="J89" s="1"/>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
@@ -5184,10 +4826,9 @@
       <c r="AC89" s="1"/>
       <c r="AD89" s="1"/>
       <c r="AE89" s="1"/>
-      <c r="AF89" s="1"/>
-    </row>
-    <row r="90" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B90" s="1"/>
+    </row>
+    <row r="90" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="1"/>
       <c r="E90" s="2"/>
@@ -5195,7 +4836,7 @@
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
-      <c r="J90" s="2"/>
+      <c r="J90" s="1"/>
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
@@ -5217,10 +4858,9 @@
       <c r="AC90" s="1"/>
       <c r="AD90" s="1"/>
       <c r="AE90" s="1"/>
-      <c r="AF90" s="1"/>
-    </row>
-    <row r="91" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B91" s="1"/>
+    </row>
+    <row r="91" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="1"/>
       <c r="E91" s="2"/>
@@ -5228,7 +4868,7 @@
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
-      <c r="J91" s="2"/>
+      <c r="J91" s="1"/>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
@@ -5250,10 +4890,9 @@
       <c r="AC91" s="1"/>
       <c r="AD91" s="1"/>
       <c r="AE91" s="1"/>
-      <c r="AF91" s="1"/>
-    </row>
-    <row r="92" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B92" s="1"/>
+    </row>
+    <row r="92" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="1"/>
       <c r="E92" s="2"/>
@@ -5261,7 +4900,7 @@
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
-      <c r="J92" s="2"/>
+      <c r="J92" s="1"/>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
@@ -5283,10 +4922,9 @@
       <c r="AC92" s="1"/>
       <c r="AD92" s="1"/>
       <c r="AE92" s="1"/>
-      <c r="AF92" s="1"/>
-    </row>
-    <row r="93" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B93" s="1"/>
+    </row>
+    <row r="93" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="1"/>
       <c r="E93" s="2"/>
@@ -5294,7 +4932,7 @@
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
-      <c r="J93" s="2"/>
+      <c r="J93" s="1"/>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
@@ -5316,10 +4954,9 @@
       <c r="AC93" s="1"/>
       <c r="AD93" s="1"/>
       <c r="AE93" s="1"/>
-      <c r="AF93" s="1"/>
-    </row>
-    <row r="94" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B94" s="1"/>
+    </row>
+    <row r="94" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="1"/>
       <c r="E94" s="2"/>
@@ -5327,7 +4964,7 @@
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
-      <c r="J94" s="2"/>
+      <c r="J94" s="1"/>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
@@ -5349,10 +4986,9 @@
       <c r="AC94" s="1"/>
       <c r="AD94" s="1"/>
       <c r="AE94" s="1"/>
-      <c r="AF94" s="1"/>
-    </row>
-    <row r="95" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B95" s="1"/>
+    </row>
+    <row r="95" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="1"/>
       <c r="E95" s="2"/>
@@ -5360,7 +4996,7 @@
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
-      <c r="J95" s="2"/>
+      <c r="J95" s="1"/>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
@@ -5382,10 +5018,9 @@
       <c r="AC95" s="1"/>
       <c r="AD95" s="1"/>
       <c r="AE95" s="1"/>
-      <c r="AF95" s="1"/>
-    </row>
-    <row r="96" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B96" s="1"/>
+    </row>
+    <row r="96" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="1"/>
       <c r="E96" s="2"/>
@@ -5393,7 +5028,7 @@
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
-      <c r="J96" s="2"/>
+      <c r="J96" s="1"/>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
@@ -5415,10 +5050,9 @@
       <c r="AC96" s="1"/>
       <c r="AD96" s="1"/>
       <c r="AE96" s="1"/>
-      <c r="AF96" s="1"/>
-    </row>
-    <row r="97" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B97" s="1"/>
+    </row>
+    <row r="97" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="1"/>
       <c r="E97" s="2"/>
@@ -5426,7 +5060,7 @@
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
-      <c r="J97" s="2"/>
+      <c r="J97" s="1"/>
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
@@ -5448,10 +5082,9 @@
       <c r="AC97" s="1"/>
       <c r="AD97" s="1"/>
       <c r="AE97" s="1"/>
-      <c r="AF97" s="1"/>
-    </row>
-    <row r="98" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B98" s="1"/>
+    </row>
+    <row r="98" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="1"/>
       <c r="E98" s="2"/>
@@ -5459,7 +5092,7 @@
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
-      <c r="J98" s="2"/>
+      <c r="J98" s="1"/>
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
       <c r="M98" s="1"/>
@@ -5481,10 +5114,9 @@
       <c r="AC98" s="1"/>
       <c r="AD98" s="1"/>
       <c r="AE98" s="1"/>
-      <c r="AF98" s="1"/>
-    </row>
-    <row r="99" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B99" s="1"/>
+    </row>
+    <row r="99" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="1"/>
       <c r="E99" s="2"/>
@@ -5492,7 +5124,7 @@
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
-      <c r="J99" s="2"/>
+      <c r="J99" s="1"/>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
@@ -5514,10 +5146,9 @@
       <c r="AC99" s="1"/>
       <c r="AD99" s="1"/>
       <c r="AE99" s="1"/>
-      <c r="AF99" s="1"/>
-    </row>
-    <row r="100" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B100" s="1"/>
+    </row>
+    <row r="100" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="1"/>
       <c r="E100" s="2"/>
@@ -5525,7 +5156,7 @@
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
-      <c r="J100" s="2"/>
+      <c r="J100" s="1"/>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
@@ -5547,10 +5178,9 @@
       <c r="AC100" s="1"/>
       <c r="AD100" s="1"/>
       <c r="AE100" s="1"/>
-      <c r="AF100" s="1"/>
-    </row>
-    <row r="101" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B101" s="1"/>
+    </row>
+    <row r="101" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="1"/>
       <c r="E101" s="2"/>
@@ -5558,7 +5188,7 @@
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
-      <c r="J101" s="2"/>
+      <c r="J101" s="1"/>
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
@@ -5580,10 +5210,9 @@
       <c r="AC101" s="1"/>
       <c r="AD101" s="1"/>
       <c r="AE101" s="1"/>
-      <c r="AF101" s="1"/>
-    </row>
-    <row r="102" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B102" s="1"/>
+    </row>
+    <row r="102" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="1"/>
       <c r="E102" s="2"/>
@@ -5591,7 +5220,7 @@
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
-      <c r="J102" s="2"/>
+      <c r="J102" s="1"/>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
@@ -5613,10 +5242,9 @@
       <c r="AC102" s="1"/>
       <c r="AD102" s="1"/>
       <c r="AE102" s="1"/>
-      <c r="AF102" s="1"/>
-    </row>
-    <row r="103" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B103" s="1"/>
+    </row>
+    <row r="103" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="1"/>
       <c r="E103" s="2"/>
@@ -5624,7 +5252,7 @@
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
-      <c r="J103" s="2"/>
+      <c r="J103" s="1"/>
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
       <c r="M103" s="1"/>
@@ -5646,10 +5274,9 @@
       <c r="AC103" s="1"/>
       <c r="AD103" s="1"/>
       <c r="AE103" s="1"/>
-      <c r="AF103" s="1"/>
-    </row>
-    <row r="104" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B104" s="1"/>
+    </row>
+    <row r="104" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="1"/>
       <c r="E104" s="2"/>
@@ -5657,7 +5284,7 @@
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
-      <c r="J104" s="2"/>
+      <c r="J104" s="1"/>
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
       <c r="M104" s="1"/>
@@ -5679,10 +5306,9 @@
       <c r="AC104" s="1"/>
       <c r="AD104" s="1"/>
       <c r="AE104" s="1"/>
-      <c r="AF104" s="1"/>
-    </row>
-    <row r="105" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B105" s="1"/>
+    </row>
+    <row r="105" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="1"/>
       <c r="E105" s="2"/>
@@ -5690,7 +5316,7 @@
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
-      <c r="J105" s="2"/>
+      <c r="J105" s="1"/>
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
       <c r="M105" s="1"/>
@@ -5712,10 +5338,9 @@
       <c r="AC105" s="1"/>
       <c r="AD105" s="1"/>
       <c r="AE105" s="1"/>
-      <c r="AF105" s="1"/>
-    </row>
-    <row r="106" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B106" s="1"/>
+    </row>
+    <row r="106" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="1"/>
       <c r="E106" s="2"/>
@@ -5723,7 +5348,7 @@
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
-      <c r="J106" s="2"/>
+      <c r="J106" s="1"/>
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
       <c r="M106" s="1"/>
@@ -5745,10 +5370,9 @@
       <c r="AC106" s="1"/>
       <c r="AD106" s="1"/>
       <c r="AE106" s="1"/>
-      <c r="AF106" s="1"/>
-    </row>
-    <row r="107" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B107" s="1"/>
+    </row>
+    <row r="107" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="1"/>
       <c r="E107" s="2"/>
@@ -5756,7 +5380,7 @@
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
-      <c r="J107" s="2"/>
+      <c r="J107" s="1"/>
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
       <c r="M107" s="1"/>
@@ -5778,10 +5402,9 @@
       <c r="AC107" s="1"/>
       <c r="AD107" s="1"/>
       <c r="AE107" s="1"/>
-      <c r="AF107" s="1"/>
-    </row>
-    <row r="108" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B108" s="1"/>
+    </row>
+    <row r="108" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="1"/>
       <c r="E108" s="2"/>
@@ -5789,7 +5412,7 @@
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
-      <c r="J108" s="2"/>
+      <c r="J108" s="1"/>
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
       <c r="M108" s="1"/>
@@ -5811,10 +5434,9 @@
       <c r="AC108" s="1"/>
       <c r="AD108" s="1"/>
       <c r="AE108" s="1"/>
-      <c r="AF108" s="1"/>
-    </row>
-    <row r="109" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B109" s="1"/>
+    </row>
+    <row r="109" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="1"/>
       <c r="E109" s="2"/>
@@ -5822,7 +5444,7 @@
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
-      <c r="J109" s="2"/>
+      <c r="J109" s="1"/>
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
       <c r="M109" s="1"/>
@@ -5844,10 +5466,9 @@
       <c r="AC109" s="1"/>
       <c r="AD109" s="1"/>
       <c r="AE109" s="1"/>
-      <c r="AF109" s="1"/>
-    </row>
-    <row r="110" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B110" s="1"/>
+    </row>
+    <row r="110" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="1"/>
       <c r="E110" s="2"/>
@@ -5855,7 +5476,7 @@
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
-      <c r="J110" s="2"/>
+      <c r="J110" s="1"/>
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
       <c r="M110" s="1"/>
@@ -5877,10 +5498,9 @@
       <c r="AC110" s="1"/>
       <c r="AD110" s="1"/>
       <c r="AE110" s="1"/>
-      <c r="AF110" s="1"/>
-    </row>
-    <row r="111" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B111" s="1"/>
+    </row>
+    <row r="111" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="1"/>
       <c r="E111" s="2"/>
@@ -5888,7 +5508,7 @@
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
-      <c r="J111" s="2"/>
+      <c r="J111" s="1"/>
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
       <c r="M111" s="1"/>
@@ -5910,10 +5530,9 @@
       <c r="AC111" s="1"/>
       <c r="AD111" s="1"/>
       <c r="AE111" s="1"/>
-      <c r="AF111" s="1"/>
-    </row>
-    <row r="112" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B112" s="1"/>
+    </row>
+    <row r="112" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="1"/>
       <c r="E112" s="2"/>
@@ -5921,7 +5540,7 @@
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
-      <c r="J112" s="2"/>
+      <c r="J112" s="1"/>
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
       <c r="M112" s="1"/>
@@ -5943,10 +5562,9 @@
       <c r="AC112" s="1"/>
       <c r="AD112" s="1"/>
       <c r="AE112" s="1"/>
-      <c r="AF112" s="1"/>
-    </row>
-    <row r="113" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B113" s="1"/>
+    </row>
+    <row r="113" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="1"/>
       <c r="E113" s="2"/>
@@ -5954,7 +5572,7 @@
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
-      <c r="J113" s="2"/>
+      <c r="J113" s="1"/>
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
       <c r="M113" s="1"/>
@@ -5976,10 +5594,9 @@
       <c r="AC113" s="1"/>
       <c r="AD113" s="1"/>
       <c r="AE113" s="1"/>
-      <c r="AF113" s="1"/>
-    </row>
-    <row r="114" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B114" s="1"/>
+    </row>
+    <row r="114" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="1"/>
       <c r="E114" s="2"/>
@@ -5987,7 +5604,7 @@
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
-      <c r="J114" s="2"/>
+      <c r="J114" s="1"/>
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
       <c r="M114" s="1"/>
@@ -6009,10 +5626,9 @@
       <c r="AC114" s="1"/>
       <c r="AD114" s="1"/>
       <c r="AE114" s="1"/>
-      <c r="AF114" s="1"/>
-    </row>
-    <row r="115" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B115" s="1"/>
+    </row>
+    <row r="115" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="1"/>
       <c r="E115" s="2"/>
@@ -6020,7 +5636,7 @@
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
-      <c r="J115" s="2"/>
+      <c r="J115" s="1"/>
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
       <c r="M115" s="1"/>
@@ -6042,10 +5658,9 @@
       <c r="AC115" s="1"/>
       <c r="AD115" s="1"/>
       <c r="AE115" s="1"/>
-      <c r="AF115" s="1"/>
-    </row>
-    <row r="116" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B116" s="1"/>
+    </row>
+    <row r="116" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="1"/>
       <c r="E116" s="2"/>
@@ -6053,7 +5668,7 @@
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
-      <c r="J116" s="2"/>
+      <c r="J116" s="1"/>
       <c r="K116" s="1"/>
       <c r="L116" s="1"/>
       <c r="M116" s="1"/>
@@ -6075,10 +5690,9 @@
       <c r="AC116" s="1"/>
       <c r="AD116" s="1"/>
       <c r="AE116" s="1"/>
-      <c r="AF116" s="1"/>
-    </row>
-    <row r="117" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B117" s="1"/>
+    </row>
+    <row r="117" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="1"/>
       <c r="E117" s="2"/>
@@ -6086,7 +5700,7 @@
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
-      <c r="J117" s="2"/>
+      <c r="J117" s="1"/>
       <c r="K117" s="1"/>
       <c r="L117" s="1"/>
       <c r="M117" s="1"/>
@@ -6108,10 +5722,9 @@
       <c r="AC117" s="1"/>
       <c r="AD117" s="1"/>
       <c r="AE117" s="1"/>
-      <c r="AF117" s="1"/>
-    </row>
-    <row r="118" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B118" s="1"/>
+    </row>
+    <row r="118" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="1"/>
       <c r="E118" s="2"/>
@@ -6119,7 +5732,7 @@
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
-      <c r="J118" s="2"/>
+      <c r="J118" s="1"/>
       <c r="K118" s="1"/>
       <c r="L118" s="1"/>
       <c r="M118" s="1"/>
@@ -6141,10 +5754,9 @@
       <c r="AC118" s="1"/>
       <c r="AD118" s="1"/>
       <c r="AE118" s="1"/>
-      <c r="AF118" s="1"/>
-    </row>
-    <row r="119" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B119" s="1"/>
+    </row>
+    <row r="119" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="1"/>
       <c r="E119" s="2"/>
@@ -6152,7 +5764,7 @@
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
-      <c r="J119" s="2"/>
+      <c r="J119" s="1"/>
       <c r="K119" s="1"/>
       <c r="L119" s="1"/>
       <c r="M119" s="1"/>
@@ -6174,10 +5786,9 @@
       <c r="AC119" s="1"/>
       <c r="AD119" s="1"/>
       <c r="AE119" s="1"/>
-      <c r="AF119" s="1"/>
-    </row>
-    <row r="120" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B120" s="1"/>
+    </row>
+    <row r="120" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="1"/>
       <c r="E120" s="2"/>
@@ -6185,7 +5796,7 @@
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
-      <c r="J120" s="2"/>
+      <c r="J120" s="1"/>
       <c r="K120" s="1"/>
       <c r="L120" s="1"/>
       <c r="M120" s="1"/>
@@ -6207,10 +5818,9 @@
       <c r="AC120" s="1"/>
       <c r="AD120" s="1"/>
       <c r="AE120" s="1"/>
-      <c r="AF120" s="1"/>
-    </row>
-    <row r="121" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B121" s="1"/>
+    </row>
+    <row r="121" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="1"/>
       <c r="E121" s="2"/>
@@ -6218,7 +5828,7 @@
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
-      <c r="J121" s="2"/>
+      <c r="J121" s="1"/>
       <c r="K121" s="1"/>
       <c r="L121" s="1"/>
       <c r="M121" s="1"/>
@@ -6240,10 +5850,9 @@
       <c r="AC121" s="1"/>
       <c r="AD121" s="1"/>
       <c r="AE121" s="1"/>
-      <c r="AF121" s="1"/>
-    </row>
-    <row r="122" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B122" s="1"/>
+    </row>
+    <row r="122" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="1"/>
       <c r="E122" s="2"/>
@@ -6251,7 +5860,7 @@
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
-      <c r="J122" s="2"/>
+      <c r="J122" s="1"/>
       <c r="K122" s="1"/>
       <c r="L122" s="1"/>
       <c r="M122" s="1"/>
@@ -6273,10 +5882,9 @@
       <c r="AC122" s="1"/>
       <c r="AD122" s="1"/>
       <c r="AE122" s="1"/>
-      <c r="AF122" s="1"/>
-    </row>
-    <row r="123" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B123" s="1"/>
+    </row>
+    <row r="123" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="1"/>
       <c r="E123" s="2"/>
@@ -6284,7 +5892,7 @@
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
-      <c r="J123" s="2"/>
+      <c r="J123" s="1"/>
       <c r="K123" s="1"/>
       <c r="L123" s="1"/>
       <c r="M123" s="1"/>
@@ -6306,10 +5914,9 @@
       <c r="AC123" s="1"/>
       <c r="AD123" s="1"/>
       <c r="AE123" s="1"/>
-      <c r="AF123" s="1"/>
-    </row>
-    <row r="124" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B124" s="1"/>
+    </row>
+    <row r="124" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="1"/>
       <c r="E124" s="2"/>
@@ -6317,7 +5924,7 @@
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
-      <c r="J124" s="2"/>
+      <c r="J124" s="1"/>
       <c r="K124" s="1"/>
       <c r="L124" s="1"/>
       <c r="M124" s="1"/>
@@ -6339,10 +5946,9 @@
       <c r="AC124" s="1"/>
       <c r="AD124" s="1"/>
       <c r="AE124" s="1"/>
-      <c r="AF124" s="1"/>
-    </row>
-    <row r="125" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B125" s="1"/>
+    </row>
+    <row r="125" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="1"/>
       <c r="E125" s="2"/>
@@ -6350,7 +5956,7 @@
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
-      <c r="J125" s="2"/>
+      <c r="J125" s="1"/>
       <c r="K125" s="1"/>
       <c r="L125" s="1"/>
       <c r="M125" s="1"/>
@@ -6372,10 +5978,9 @@
       <c r="AC125" s="1"/>
       <c r="AD125" s="1"/>
       <c r="AE125" s="1"/>
-      <c r="AF125" s="1"/>
-    </row>
-    <row r="126" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B126" s="1"/>
+    </row>
+    <row r="126" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="1"/>
       <c r="E126" s="2"/>
@@ -6383,7 +5988,7 @@
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
-      <c r="J126" s="2"/>
+      <c r="J126" s="1"/>
       <c r="K126" s="1"/>
       <c r="L126" s="1"/>
       <c r="M126" s="1"/>
@@ -6405,10 +6010,9 @@
       <c r="AC126" s="1"/>
       <c r="AD126" s="1"/>
       <c r="AE126" s="1"/>
-      <c r="AF126" s="1"/>
-    </row>
-    <row r="127" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B127" s="1"/>
+    </row>
+    <row r="127" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="1"/>
       <c r="E127" s="2"/>
@@ -6416,7 +6020,7 @@
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
-      <c r="J127" s="2"/>
+      <c r="J127" s="1"/>
       <c r="K127" s="1"/>
       <c r="L127" s="1"/>
       <c r="M127" s="1"/>
@@ -6438,10 +6042,9 @@
       <c r="AC127" s="1"/>
       <c r="AD127" s="1"/>
       <c r="AE127" s="1"/>
-      <c r="AF127" s="1"/>
-    </row>
-    <row r="128" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B128" s="1"/>
+    </row>
+    <row r="128" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="1"/>
       <c r="E128" s="2"/>
@@ -6449,7 +6052,7 @@
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
-      <c r="J128" s="2"/>
+      <c r="J128" s="1"/>
       <c r="K128" s="1"/>
       <c r="L128" s="1"/>
       <c r="M128" s="1"/>
@@ -6471,10 +6074,9 @@
       <c r="AC128" s="1"/>
       <c r="AD128" s="1"/>
       <c r="AE128" s="1"/>
-      <c r="AF128" s="1"/>
-    </row>
-    <row r="129" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B129" s="1"/>
+    </row>
+    <row r="129" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="1"/>
       <c r="E129" s="2"/>
@@ -6482,7 +6084,7 @@
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
-      <c r="J129" s="2"/>
+      <c r="J129" s="1"/>
       <c r="K129" s="1"/>
       <c r="L129" s="1"/>
       <c r="M129" s="1"/>
@@ -6504,10 +6106,9 @@
       <c r="AC129" s="1"/>
       <c r="AD129" s="1"/>
       <c r="AE129" s="1"/>
-      <c r="AF129" s="1"/>
-    </row>
-    <row r="130" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B130" s="1"/>
+    </row>
+    <row r="130" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="1"/>
       <c r="E130" s="2"/>
@@ -6515,7 +6116,7 @@
       <c r="G130" s="2"/>
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
-      <c r="J130" s="2"/>
+      <c r="J130" s="1"/>
       <c r="K130" s="1"/>
       <c r="L130" s="1"/>
       <c r="M130" s="1"/>
@@ -6537,10 +6138,9 @@
       <c r="AC130" s="1"/>
       <c r="AD130" s="1"/>
       <c r="AE130" s="1"/>
-      <c r="AF130" s="1"/>
-    </row>
-    <row r="131" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B131" s="1"/>
+    </row>
+    <row r="131" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="1"/>
       <c r="E131" s="2"/>
@@ -6548,7 +6148,7 @@
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
-      <c r="J131" s="2"/>
+      <c r="J131" s="1"/>
       <c r="K131" s="1"/>
       <c r="L131" s="1"/>
       <c r="M131" s="1"/>
@@ -6570,10 +6170,9 @@
       <c r="AC131" s="1"/>
       <c r="AD131" s="1"/>
       <c r="AE131" s="1"/>
-      <c r="AF131" s="1"/>
-    </row>
-    <row r="132" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B132" s="1"/>
+    </row>
+    <row r="132" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="1"/>
       <c r="E132" s="2"/>
@@ -6581,7 +6180,7 @@
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
-      <c r="J132" s="2"/>
+      <c r="J132" s="1"/>
       <c r="K132" s="1"/>
       <c r="L132" s="1"/>
       <c r="M132" s="1"/>
@@ -6603,10 +6202,9 @@
       <c r="AC132" s="1"/>
       <c r="AD132" s="1"/>
       <c r="AE132" s="1"/>
-      <c r="AF132" s="1"/>
-    </row>
-    <row r="133" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B133" s="1"/>
+    </row>
+    <row r="133" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="1"/>
       <c r="E133" s="2"/>
@@ -6614,7 +6212,7 @@
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
-      <c r="J133" s="2"/>
+      <c r="J133" s="1"/>
       <c r="K133" s="1"/>
       <c r="L133" s="1"/>
       <c r="M133" s="1"/>
@@ -6636,10 +6234,9 @@
       <c r="AC133" s="1"/>
       <c r="AD133" s="1"/>
       <c r="AE133" s="1"/>
-      <c r="AF133" s="1"/>
-    </row>
-    <row r="134" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B134" s="1"/>
+    </row>
+    <row r="134" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="1"/>
       <c r="E134" s="2"/>
@@ -6647,7 +6244,7 @@
       <c r="G134" s="2"/>
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
-      <c r="J134" s="2"/>
+      <c r="J134" s="1"/>
       <c r="K134" s="1"/>
       <c r="L134" s="1"/>
       <c r="M134" s="1"/>
@@ -6669,10 +6266,9 @@
       <c r="AC134" s="1"/>
       <c r="AD134" s="1"/>
       <c r="AE134" s="1"/>
-      <c r="AF134" s="1"/>
-    </row>
-    <row r="135" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B135" s="1"/>
+    </row>
+    <row r="135" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="1"/>
       <c r="E135" s="2"/>
@@ -6680,7 +6276,7 @@
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
-      <c r="J135" s="2"/>
+      <c r="J135" s="1"/>
       <c r="K135" s="1"/>
       <c r="L135" s="1"/>
       <c r="M135" s="1"/>
@@ -6702,10 +6298,9 @@
       <c r="AC135" s="1"/>
       <c r="AD135" s="1"/>
       <c r="AE135" s="1"/>
-      <c r="AF135" s="1"/>
-    </row>
-    <row r="136" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B136" s="1"/>
+    </row>
+    <row r="136" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="1"/>
       <c r="E136" s="2"/>
@@ -6713,7 +6308,7 @@
       <c r="G136" s="2"/>
       <c r="H136" s="2"/>
       <c r="I136" s="2"/>
-      <c r="J136" s="2"/>
+      <c r="J136" s="1"/>
       <c r="K136" s="1"/>
       <c r="L136" s="1"/>
       <c r="M136" s="1"/>
@@ -6735,10 +6330,9 @@
       <c r="AC136" s="1"/>
       <c r="AD136" s="1"/>
       <c r="AE136" s="1"/>
-      <c r="AF136" s="1"/>
-    </row>
-    <row r="137" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B137" s="1"/>
+    </row>
+    <row r="137" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="1"/>
       <c r="E137" s="2"/>
@@ -6746,7 +6340,7 @@
       <c r="G137" s="2"/>
       <c r="H137" s="2"/>
       <c r="I137" s="2"/>
-      <c r="J137" s="2"/>
+      <c r="J137" s="1"/>
       <c r="K137" s="1"/>
       <c r="L137" s="1"/>
       <c r="M137" s="1"/>
@@ -6768,10 +6362,9 @@
       <c r="AC137" s="1"/>
       <c r="AD137" s="1"/>
       <c r="AE137" s="1"/>
-      <c r="AF137" s="1"/>
-    </row>
-    <row r="138" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B138" s="1"/>
+    </row>
+    <row r="138" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="1"/>
       <c r="E138" s="2"/>
@@ -6779,7 +6372,7 @@
       <c r="G138" s="2"/>
       <c r="H138" s="2"/>
       <c r="I138" s="2"/>
-      <c r="J138" s="2"/>
+      <c r="J138" s="1"/>
       <c r="K138" s="1"/>
       <c r="L138" s="1"/>
       <c r="M138" s="1"/>
@@ -6801,10 +6394,9 @@
       <c r="AC138" s="1"/>
       <c r="AD138" s="1"/>
       <c r="AE138" s="1"/>
-      <c r="AF138" s="1"/>
-    </row>
-    <row r="139" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B139" s="1"/>
+    </row>
+    <row r="139" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="1"/>
       <c r="E139" s="2"/>
@@ -6812,7 +6404,7 @@
       <c r="G139" s="2"/>
       <c r="H139" s="2"/>
       <c r="I139" s="2"/>
-      <c r="J139" s="2"/>
+      <c r="J139" s="1"/>
       <c r="K139" s="1"/>
       <c r="L139" s="1"/>
       <c r="M139" s="1"/>
@@ -6834,10 +6426,9 @@
       <c r="AC139" s="1"/>
       <c r="AD139" s="1"/>
       <c r="AE139" s="1"/>
-      <c r="AF139" s="1"/>
-    </row>
-    <row r="140" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B140" s="1"/>
+    </row>
+    <row r="140" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="1"/>
       <c r="E140" s="2"/>
@@ -6845,7 +6436,7 @@
       <c r="G140" s="2"/>
       <c r="H140" s="2"/>
       <c r="I140" s="2"/>
-      <c r="J140" s="2"/>
+      <c r="J140" s="1"/>
       <c r="K140" s="1"/>
       <c r="L140" s="1"/>
       <c r="M140" s="1"/>
@@ -6867,10 +6458,9 @@
       <c r="AC140" s="1"/>
       <c r="AD140" s="1"/>
       <c r="AE140" s="1"/>
-      <c r="AF140" s="1"/>
-    </row>
-    <row r="141" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B141" s="1"/>
+    </row>
+    <row r="141" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="1"/>
       <c r="E141" s="2"/>
@@ -6878,7 +6468,7 @@
       <c r="G141" s="2"/>
       <c r="H141" s="2"/>
       <c r="I141" s="2"/>
-      <c r="J141" s="2"/>
+      <c r="J141" s="1"/>
       <c r="K141" s="1"/>
       <c r="L141" s="1"/>
       <c r="M141" s="1"/>
@@ -6900,10 +6490,9 @@
       <c r="AC141" s="1"/>
       <c r="AD141" s="1"/>
       <c r="AE141" s="1"/>
-      <c r="AF141" s="1"/>
-    </row>
-    <row r="142" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B142" s="1"/>
+    </row>
+    <row r="142" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="1"/>
       <c r="E142" s="2"/>
@@ -6911,7 +6500,7 @@
       <c r="G142" s="2"/>
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
-      <c r="J142" s="2"/>
+      <c r="J142" s="1"/>
       <c r="K142" s="1"/>
       <c r="L142" s="1"/>
       <c r="M142" s="1"/>
@@ -6933,10 +6522,9 @@
       <c r="AC142" s="1"/>
       <c r="AD142" s="1"/>
       <c r="AE142" s="1"/>
-      <c r="AF142" s="1"/>
-    </row>
-    <row r="143" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B143" s="1"/>
+    </row>
+    <row r="143" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="1"/>
       <c r="E143" s="2"/>
@@ -6944,7 +6532,7 @@
       <c r="G143" s="2"/>
       <c r="H143" s="2"/>
       <c r="I143" s="2"/>
-      <c r="J143" s="2"/>
+      <c r="J143" s="1"/>
       <c r="K143" s="1"/>
       <c r="L143" s="1"/>
       <c r="M143" s="1"/>
@@ -6966,10 +6554,9 @@
       <c r="AC143" s="1"/>
       <c r="AD143" s="1"/>
       <c r="AE143" s="1"/>
-      <c r="AF143" s="1"/>
-    </row>
-    <row r="144" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B144" s="1"/>
+    </row>
+    <row r="144" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="1"/>
       <c r="E144" s="2"/>
@@ -6977,7 +6564,7 @@
       <c r="G144" s="2"/>
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
-      <c r="J144" s="2"/>
+      <c r="J144" s="1"/>
       <c r="K144" s="1"/>
       <c r="L144" s="1"/>
       <c r="M144" s="1"/>
@@ -6999,10 +6586,9 @@
       <c r="AC144" s="1"/>
       <c r="AD144" s="1"/>
       <c r="AE144" s="1"/>
-      <c r="AF144" s="1"/>
-    </row>
-    <row r="145" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B145" s="1"/>
+    </row>
+    <row r="145" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="1"/>
       <c r="E145" s="2"/>
@@ -7010,7 +6596,7 @@
       <c r="G145" s="2"/>
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
-      <c r="J145" s="2"/>
+      <c r="J145" s="1"/>
       <c r="K145" s="1"/>
       <c r="L145" s="1"/>
       <c r="M145" s="1"/>
@@ -7032,10 +6618,9 @@
       <c r="AC145" s="1"/>
       <c r="AD145" s="1"/>
       <c r="AE145" s="1"/>
-      <c r="AF145" s="1"/>
-    </row>
-    <row r="146" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B146" s="1"/>
+    </row>
+    <row r="146" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="1"/>
       <c r="E146" s="2"/>
@@ -7043,7 +6628,7 @@
       <c r="G146" s="2"/>
       <c r="H146" s="2"/>
       <c r="I146" s="2"/>
-      <c r="J146" s="2"/>
+      <c r="J146" s="1"/>
       <c r="K146" s="1"/>
       <c r="L146" s="1"/>
       <c r="M146" s="1"/>
@@ -7065,10 +6650,9 @@
       <c r="AC146" s="1"/>
       <c r="AD146" s="1"/>
       <c r="AE146" s="1"/>
-      <c r="AF146" s="1"/>
-    </row>
-    <row r="147" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B147" s="1"/>
+    </row>
+    <row r="147" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="1"/>
       <c r="E147" s="2"/>
@@ -7076,7 +6660,7 @@
       <c r="G147" s="2"/>
       <c r="H147" s="2"/>
       <c r="I147" s="2"/>
-      <c r="J147" s="2"/>
+      <c r="J147" s="1"/>
       <c r="K147" s="1"/>
       <c r="L147" s="1"/>
       <c r="M147" s="1"/>
@@ -7098,10 +6682,9 @@
       <c r="AC147" s="1"/>
       <c r="AD147" s="1"/>
       <c r="AE147" s="1"/>
-      <c r="AF147" s="1"/>
-    </row>
-    <row r="148" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B148" s="1"/>
+    </row>
+    <row r="148" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="1"/>
       <c r="E148" s="2"/>
@@ -7109,7 +6692,7 @@
       <c r="G148" s="2"/>
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
-      <c r="J148" s="2"/>
+      <c r="J148" s="1"/>
       <c r="K148" s="1"/>
       <c r="L148" s="1"/>
       <c r="M148" s="1"/>
@@ -7131,10 +6714,9 @@
       <c r="AC148" s="1"/>
       <c r="AD148" s="1"/>
       <c r="AE148" s="1"/>
-      <c r="AF148" s="1"/>
-    </row>
-    <row r="149" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B149" s="1"/>
+    </row>
+    <row r="149" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="1"/>
       <c r="E149" s="2"/>
@@ -7142,7 +6724,7 @@
       <c r="G149" s="2"/>
       <c r="H149" s="2"/>
       <c r="I149" s="2"/>
-      <c r="J149" s="2"/>
+      <c r="J149" s="1"/>
       <c r="K149" s="1"/>
       <c r="L149" s="1"/>
       <c r="M149" s="1"/>
@@ -7164,10 +6746,9 @@
       <c r="AC149" s="1"/>
       <c r="AD149" s="1"/>
       <c r="AE149" s="1"/>
-      <c r="AF149" s="1"/>
-    </row>
-    <row r="150" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B150" s="1"/>
+    </row>
+    <row r="150" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="1"/>
       <c r="E150" s="2"/>
@@ -7175,7 +6756,7 @@
       <c r="G150" s="2"/>
       <c r="H150" s="2"/>
       <c r="I150" s="2"/>
-      <c r="J150" s="2"/>
+      <c r="J150" s="1"/>
       <c r="K150" s="1"/>
       <c r="L150" s="1"/>
       <c r="M150" s="1"/>
@@ -7197,10 +6778,9 @@
       <c r="AC150" s="1"/>
       <c r="AD150" s="1"/>
       <c r="AE150" s="1"/>
-      <c r="AF150" s="1"/>
-    </row>
-    <row r="151" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B151" s="1"/>
+    </row>
+    <row r="151" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B151" s="2"/>
       <c r="C151" s="2"/>
       <c r="D151" s="1"/>
       <c r="E151" s="2"/>
@@ -7208,7 +6788,7 @@
       <c r="G151" s="2"/>
       <c r="H151" s="2"/>
       <c r="I151" s="2"/>
-      <c r="J151" s="2"/>
+      <c r="J151" s="1"/>
       <c r="K151" s="1"/>
       <c r="L151" s="1"/>
       <c r="M151" s="1"/>
@@ -7230,10 +6810,9 @@
       <c r="AC151" s="1"/>
       <c r="AD151" s="1"/>
       <c r="AE151" s="1"/>
-      <c r="AF151" s="1"/>
-    </row>
-    <row r="152" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B152" s="1"/>
+    </row>
+    <row r="152" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" s="1"/>
       <c r="E152" s="2"/>
@@ -7241,7 +6820,7 @@
       <c r="G152" s="2"/>
       <c r="H152" s="2"/>
       <c r="I152" s="2"/>
-      <c r="J152" s="2"/>
+      <c r="J152" s="1"/>
       <c r="K152" s="1"/>
       <c r="L152" s="1"/>
       <c r="M152" s="1"/>
@@ -7263,10 +6842,9 @@
       <c r="AC152" s="1"/>
       <c r="AD152" s="1"/>
       <c r="AE152" s="1"/>
-      <c r="AF152" s="1"/>
-    </row>
-    <row r="153" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B153" s="1"/>
+    </row>
+    <row r="153" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="1"/>
       <c r="E153" s="2"/>
@@ -7274,7 +6852,7 @@
       <c r="G153" s="2"/>
       <c r="H153" s="2"/>
       <c r="I153" s="2"/>
-      <c r="J153" s="2"/>
+      <c r="J153" s="1"/>
       <c r="K153" s="1"/>
       <c r="L153" s="1"/>
       <c r="M153" s="1"/>
@@ -7296,10 +6874,9 @@
       <c r="AC153" s="1"/>
       <c r="AD153" s="1"/>
       <c r="AE153" s="1"/>
-      <c r="AF153" s="1"/>
-    </row>
-    <row r="154" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B154" s="1"/>
+    </row>
+    <row r="154" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="1"/>
       <c r="E154" s="2"/>
@@ -7307,7 +6884,7 @@
       <c r="G154" s="2"/>
       <c r="H154" s="2"/>
       <c r="I154" s="2"/>
-      <c r="J154" s="2"/>
+      <c r="J154" s="1"/>
       <c r="K154" s="1"/>
       <c r="L154" s="1"/>
       <c r="M154" s="1"/>
@@ -7329,10 +6906,9 @@
       <c r="AC154" s="1"/>
       <c r="AD154" s="1"/>
       <c r="AE154" s="1"/>
-      <c r="AF154" s="1"/>
-    </row>
-    <row r="155" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B155" s="1"/>
+    </row>
+    <row r="155" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" s="1"/>
       <c r="E155" s="2"/>
@@ -7340,7 +6916,7 @@
       <c r="G155" s="2"/>
       <c r="H155" s="2"/>
       <c r="I155" s="2"/>
-      <c r="J155" s="2"/>
+      <c r="J155" s="1"/>
       <c r="K155" s="1"/>
       <c r="L155" s="1"/>
       <c r="M155" s="1"/>
@@ -7362,10 +6938,9 @@
       <c r="AC155" s="1"/>
       <c r="AD155" s="1"/>
       <c r="AE155" s="1"/>
-      <c r="AF155" s="1"/>
-    </row>
-    <row r="156" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B156" s="1"/>
+    </row>
+    <row r="156" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="1"/>
       <c r="E156" s="2"/>
@@ -7373,7 +6948,7 @@
       <c r="G156" s="2"/>
       <c r="H156" s="2"/>
       <c r="I156" s="2"/>
-      <c r="J156" s="2"/>
+      <c r="J156" s="1"/>
       <c r="K156" s="1"/>
       <c r="L156" s="1"/>
       <c r="M156" s="1"/>
@@ -7395,10 +6970,9 @@
       <c r="AC156" s="1"/>
       <c r="AD156" s="1"/>
       <c r="AE156" s="1"/>
-      <c r="AF156" s="1"/>
-    </row>
-    <row r="157" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B157" s="1"/>
+    </row>
+    <row r="157" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="1"/>
       <c r="E157" s="2"/>
@@ -7406,7 +6980,7 @@
       <c r="G157" s="2"/>
       <c r="H157" s="2"/>
       <c r="I157" s="2"/>
-      <c r="J157" s="2"/>
+      <c r="J157" s="1"/>
       <c r="K157" s="1"/>
       <c r="L157" s="1"/>
       <c r="M157" s="1"/>
@@ -7428,10 +7002,9 @@
       <c r="AC157" s="1"/>
       <c r="AD157" s="1"/>
       <c r="AE157" s="1"/>
-      <c r="AF157" s="1"/>
-    </row>
-    <row r="158" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B158" s="1"/>
+    </row>
+    <row r="158" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="1"/>
       <c r="E158" s="2"/>
@@ -7439,7 +7012,7 @@
       <c r="G158" s="2"/>
       <c r="H158" s="2"/>
       <c r="I158" s="2"/>
-      <c r="J158" s="2"/>
+      <c r="J158" s="1"/>
       <c r="K158" s="1"/>
       <c r="L158" s="1"/>
       <c r="M158" s="1"/>
@@ -7461,10 +7034,9 @@
       <c r="AC158" s="1"/>
       <c r="AD158" s="1"/>
       <c r="AE158" s="1"/>
-      <c r="AF158" s="1"/>
-    </row>
-    <row r="159" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B159" s="1"/>
+    </row>
+    <row r="159" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="1"/>
       <c r="E159" s="2"/>
@@ -7472,7 +7044,7 @@
       <c r="G159" s="2"/>
       <c r="H159" s="2"/>
       <c r="I159" s="2"/>
-      <c r="J159" s="2"/>
+      <c r="J159" s="1"/>
       <c r="K159" s="1"/>
       <c r="L159" s="1"/>
       <c r="M159" s="1"/>
@@ -7494,10 +7066,9 @@
       <c r="AC159" s="1"/>
       <c r="AD159" s="1"/>
       <c r="AE159" s="1"/>
-      <c r="AF159" s="1"/>
-    </row>
-    <row r="160" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B160" s="1"/>
+    </row>
+    <row r="160" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="1"/>
       <c r="E160" s="2"/>
@@ -7505,7 +7076,7 @@
       <c r="G160" s="2"/>
       <c r="H160" s="2"/>
       <c r="I160" s="2"/>
-      <c r="J160" s="2"/>
+      <c r="J160" s="1"/>
       <c r="K160" s="1"/>
       <c r="L160" s="1"/>
       <c r="M160" s="1"/>
@@ -7527,10 +7098,9 @@
       <c r="AC160" s="1"/>
       <c r="AD160" s="1"/>
       <c r="AE160" s="1"/>
-      <c r="AF160" s="1"/>
-    </row>
-    <row r="161" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B161" s="1"/>
+    </row>
+    <row r="161" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B161" s="2"/>
       <c r="C161" s="2"/>
       <c r="D161" s="1"/>
       <c r="E161" s="2"/>
@@ -7538,7 +7108,7 @@
       <c r="G161" s="2"/>
       <c r="H161" s="2"/>
       <c r="I161" s="2"/>
-      <c r="J161" s="2"/>
+      <c r="J161" s="1"/>
       <c r="K161" s="1"/>
       <c r="L161" s="1"/>
       <c r="M161" s="1"/>
@@ -7560,10 +7130,9 @@
       <c r="AC161" s="1"/>
       <c r="AD161" s="1"/>
       <c r="AE161" s="1"/>
-      <c r="AF161" s="1"/>
-    </row>
-    <row r="162" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B162" s="1"/>
+    </row>
+    <row r="162" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B162" s="2"/>
       <c r="C162" s="2"/>
       <c r="D162" s="1"/>
       <c r="E162" s="2"/>
@@ -7571,7 +7140,7 @@
       <c r="G162" s="2"/>
       <c r="H162" s="2"/>
       <c r="I162" s="2"/>
-      <c r="J162" s="2"/>
+      <c r="J162" s="1"/>
       <c r="K162" s="1"/>
       <c r="L162" s="1"/>
       <c r="M162" s="1"/>
@@ -7593,10 +7162,9 @@
       <c r="AC162" s="1"/>
       <c r="AD162" s="1"/>
       <c r="AE162" s="1"/>
-      <c r="AF162" s="1"/>
-    </row>
-    <row r="163" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B163" s="1"/>
+    </row>
+    <row r="163" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B163" s="2"/>
       <c r="C163" s="2"/>
       <c r="D163" s="1"/>
       <c r="E163" s="2"/>
@@ -7604,7 +7172,7 @@
       <c r="G163" s="2"/>
       <c r="H163" s="2"/>
       <c r="I163" s="2"/>
-      <c r="J163" s="2"/>
+      <c r="J163" s="1"/>
       <c r="K163" s="1"/>
       <c r="L163" s="1"/>
       <c r="M163" s="1"/>
@@ -7626,10 +7194,9 @@
       <c r="AC163" s="1"/>
       <c r="AD163" s="1"/>
       <c r="AE163" s="1"/>
-      <c r="AF163" s="1"/>
-    </row>
-    <row r="164" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B164" s="1"/>
+    </row>
+    <row r="164" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B164" s="2"/>
       <c r="C164" s="2"/>
       <c r="D164" s="1"/>
       <c r="E164" s="2"/>
@@ -7637,7 +7204,7 @@
       <c r="G164" s="2"/>
       <c r="H164" s="2"/>
       <c r="I164" s="2"/>
-      <c r="J164" s="2"/>
+      <c r="J164" s="1"/>
       <c r="K164" s="1"/>
       <c r="L164" s="1"/>
       <c r="M164" s="1"/>
@@ -7659,10 +7226,9 @@
       <c r="AC164" s="1"/>
       <c r="AD164" s="1"/>
       <c r="AE164" s="1"/>
-      <c r="AF164" s="1"/>
-    </row>
-    <row r="165" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B165" s="1"/>
+    </row>
+    <row r="165" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B165" s="2"/>
       <c r="C165" s="2"/>
       <c r="D165" s="1"/>
       <c r="E165" s="2"/>
@@ -7670,7 +7236,7 @@
       <c r="G165" s="2"/>
       <c r="H165" s="2"/>
       <c r="I165" s="2"/>
-      <c r="J165" s="2"/>
+      <c r="J165" s="1"/>
       <c r="K165" s="1"/>
       <c r="L165" s="1"/>
       <c r="M165" s="1"/>
@@ -7692,10 +7258,9 @@
       <c r="AC165" s="1"/>
       <c r="AD165" s="1"/>
       <c r="AE165" s="1"/>
-      <c r="AF165" s="1"/>
-    </row>
-    <row r="166" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B166" s="1"/>
+    </row>
+    <row r="166" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="1"/>
       <c r="E166" s="2"/>
@@ -7703,7 +7268,7 @@
       <c r="G166" s="2"/>
       <c r="H166" s="2"/>
       <c r="I166" s="2"/>
-      <c r="J166" s="2"/>
+      <c r="J166" s="1"/>
       <c r="K166" s="1"/>
       <c r="L166" s="1"/>
       <c r="M166" s="1"/>
@@ -7725,10 +7290,9 @@
       <c r="AC166" s="1"/>
       <c r="AD166" s="1"/>
       <c r="AE166" s="1"/>
-      <c r="AF166" s="1"/>
-    </row>
-    <row r="167" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B167" s="1"/>
+    </row>
+    <row r="167" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B167" s="2"/>
       <c r="C167" s="2"/>
       <c r="D167" s="1"/>
       <c r="E167" s="2"/>
@@ -7736,7 +7300,7 @@
       <c r="G167" s="2"/>
       <c r="H167" s="2"/>
       <c r="I167" s="2"/>
-      <c r="J167" s="2"/>
+      <c r="J167" s="1"/>
       <c r="K167" s="1"/>
       <c r="L167" s="1"/>
       <c r="M167" s="1"/>
@@ -7758,10 +7322,9 @@
       <c r="AC167" s="1"/>
       <c r="AD167" s="1"/>
       <c r="AE167" s="1"/>
-      <c r="AF167" s="1"/>
-    </row>
-    <row r="168" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B168" s="1"/>
+    </row>
+    <row r="168" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B168" s="2"/>
       <c r="C168" s="2"/>
       <c r="D168" s="1"/>
       <c r="E168" s="2"/>
@@ -7769,7 +7332,7 @@
       <c r="G168" s="2"/>
       <c r="H168" s="2"/>
       <c r="I168" s="2"/>
-      <c r="J168" s="2"/>
+      <c r="J168" s="1"/>
       <c r="K168" s="1"/>
       <c r="L168" s="1"/>
       <c r="M168" s="1"/>
@@ -7791,10 +7354,9 @@
       <c r="AC168" s="1"/>
       <c r="AD168" s="1"/>
       <c r="AE168" s="1"/>
-      <c r="AF168" s="1"/>
-    </row>
-    <row r="169" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B169" s="1"/>
+    </row>
+    <row r="169" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B169" s="2"/>
       <c r="C169" s="2"/>
       <c r="D169" s="1"/>
       <c r="E169" s="2"/>
@@ -7802,7 +7364,7 @@
       <c r="G169" s="2"/>
       <c r="H169" s="2"/>
       <c r="I169" s="2"/>
-      <c r="J169" s="2"/>
+      <c r="J169" s="1"/>
       <c r="K169" s="1"/>
       <c r="L169" s="1"/>
       <c r="M169" s="1"/>
@@ -7824,10 +7386,9 @@
       <c r="AC169" s="1"/>
       <c r="AD169" s="1"/>
       <c r="AE169" s="1"/>
-      <c r="AF169" s="1"/>
-    </row>
-    <row r="170" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B170" s="1"/>
+    </row>
+    <row r="170" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B170" s="2"/>
       <c r="C170" s="2"/>
       <c r="D170" s="1"/>
       <c r="E170" s="2"/>
@@ -7835,7 +7396,7 @@
       <c r="G170" s="2"/>
       <c r="H170" s="2"/>
       <c r="I170" s="2"/>
-      <c r="J170" s="2"/>
+      <c r="J170" s="1"/>
       <c r="K170" s="1"/>
       <c r="L170" s="1"/>
       <c r="M170" s="1"/>
@@ -7857,10 +7418,9 @@
       <c r="AC170" s="1"/>
       <c r="AD170" s="1"/>
       <c r="AE170" s="1"/>
-      <c r="AF170" s="1"/>
-    </row>
-    <row r="171" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B171" s="1"/>
+    </row>
+    <row r="171" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B171" s="2"/>
       <c r="C171" s="2"/>
       <c r="D171" s="1"/>
       <c r="E171" s="2"/>
@@ -7868,7 +7428,7 @@
       <c r="G171" s="2"/>
       <c r="H171" s="2"/>
       <c r="I171" s="2"/>
-      <c r="J171" s="2"/>
+      <c r="J171" s="1"/>
       <c r="K171" s="1"/>
       <c r="L171" s="1"/>
       <c r="M171" s="1"/>
@@ -7890,10 +7450,9 @@
       <c r="AC171" s="1"/>
       <c r="AD171" s="1"/>
       <c r="AE171" s="1"/>
-      <c r="AF171" s="1"/>
-    </row>
-    <row r="172" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B172" s="1"/>
+    </row>
+    <row r="172" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B172" s="2"/>
       <c r="C172" s="2"/>
       <c r="D172" s="1"/>
       <c r="E172" s="2"/>
@@ -7901,7 +7460,7 @@
       <c r="G172" s="2"/>
       <c r="H172" s="2"/>
       <c r="I172" s="2"/>
-      <c r="J172" s="2"/>
+      <c r="J172" s="1"/>
       <c r="K172" s="1"/>
       <c r="L172" s="1"/>
       <c r="M172" s="1"/>
@@ -7923,10 +7482,9 @@
       <c r="AC172" s="1"/>
       <c r="AD172" s="1"/>
       <c r="AE172" s="1"/>
-      <c r="AF172" s="1"/>
-    </row>
-    <row r="173" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B173" s="1"/>
+    </row>
+    <row r="173" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B173" s="2"/>
       <c r="C173" s="2"/>
       <c r="D173" s="1"/>
       <c r="E173" s="2"/>
@@ -7934,7 +7492,7 @@
       <c r="G173" s="2"/>
       <c r="H173" s="2"/>
       <c r="I173" s="2"/>
-      <c r="J173" s="2"/>
+      <c r="J173" s="1"/>
       <c r="K173" s="1"/>
       <c r="L173" s="1"/>
       <c r="M173" s="1"/>
@@ -7956,10 +7514,9 @@
       <c r="AC173" s="1"/>
       <c r="AD173" s="1"/>
       <c r="AE173" s="1"/>
-      <c r="AF173" s="1"/>
-    </row>
-    <row r="174" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B174" s="1"/>
+    </row>
+    <row r="174" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B174" s="2"/>
       <c r="C174" s="2"/>
       <c r="D174" s="1"/>
       <c r="E174" s="2"/>
@@ -7967,7 +7524,7 @@
       <c r="G174" s="2"/>
       <c r="H174" s="2"/>
       <c r="I174" s="2"/>
-      <c r="J174" s="2"/>
+      <c r="J174" s="1"/>
       <c r="K174" s="1"/>
       <c r="L174" s="1"/>
       <c r="M174" s="1"/>
@@ -7989,10 +7546,9 @@
       <c r="AC174" s="1"/>
       <c r="AD174" s="1"/>
       <c r="AE174" s="1"/>
-      <c r="AF174" s="1"/>
-    </row>
-    <row r="175" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B175" s="1"/>
+    </row>
+    <row r="175" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B175" s="2"/>
       <c r="C175" s="2"/>
       <c r="D175" s="1"/>
       <c r="E175" s="2"/>
@@ -8000,7 +7556,7 @@
       <c r="G175" s="2"/>
       <c r="H175" s="2"/>
       <c r="I175" s="2"/>
-      <c r="J175" s="2"/>
+      <c r="J175" s="1"/>
       <c r="K175" s="1"/>
       <c r="L175" s="1"/>
       <c r="M175" s="1"/>
@@ -8022,10 +7578,9 @@
       <c r="AC175" s="1"/>
       <c r="AD175" s="1"/>
       <c r="AE175" s="1"/>
-      <c r="AF175" s="1"/>
-    </row>
-    <row r="176" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B176" s="1"/>
+    </row>
+    <row r="176" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B176" s="2"/>
       <c r="C176" s="2"/>
       <c r="D176" s="1"/>
       <c r="E176" s="2"/>
@@ -8033,7 +7588,7 @@
       <c r="G176" s="2"/>
       <c r="H176" s="2"/>
       <c r="I176" s="2"/>
-      <c r="J176" s="2"/>
+      <c r="J176" s="1"/>
       <c r="K176" s="1"/>
       <c r="L176" s="1"/>
       <c r="M176" s="1"/>
@@ -8055,10 +7610,9 @@
       <c r="AC176" s="1"/>
       <c r="AD176" s="1"/>
       <c r="AE176" s="1"/>
-      <c r="AF176" s="1"/>
-    </row>
-    <row r="177" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B177" s="1"/>
+    </row>
+    <row r="177" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B177" s="2"/>
       <c r="C177" s="2"/>
       <c r="D177" s="1"/>
       <c r="E177" s="2"/>
@@ -8066,7 +7620,7 @@
       <c r="G177" s="2"/>
       <c r="H177" s="2"/>
       <c r="I177" s="2"/>
-      <c r="J177" s="2"/>
+      <c r="J177" s="1"/>
       <c r="K177" s="1"/>
       <c r="L177" s="1"/>
       <c r="M177" s="1"/>
@@ -8088,10 +7642,9 @@
       <c r="AC177" s="1"/>
       <c r="AD177" s="1"/>
       <c r="AE177" s="1"/>
-      <c r="AF177" s="1"/>
-    </row>
-    <row r="178" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B178" s="1"/>
+    </row>
+    <row r="178" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B178" s="2"/>
       <c r="C178" s="2"/>
       <c r="D178" s="1"/>
       <c r="E178" s="2"/>
@@ -8099,7 +7652,7 @@
       <c r="G178" s="2"/>
       <c r="H178" s="2"/>
       <c r="I178" s="2"/>
-      <c r="J178" s="2"/>
+      <c r="J178" s="1"/>
       <c r="K178" s="1"/>
       <c r="L178" s="1"/>
       <c r="M178" s="1"/>
@@ -8121,10 +7674,9 @@
       <c r="AC178" s="1"/>
       <c r="AD178" s="1"/>
       <c r="AE178" s="1"/>
-      <c r="AF178" s="1"/>
-    </row>
-    <row r="179" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B179" s="1"/>
+    </row>
+    <row r="179" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B179" s="2"/>
       <c r="C179" s="2"/>
       <c r="D179" s="1"/>
       <c r="E179" s="2"/>
@@ -8132,7 +7684,7 @@
       <c r="G179" s="2"/>
       <c r="H179" s="2"/>
       <c r="I179" s="2"/>
-      <c r="J179" s="2"/>
+      <c r="J179" s="1"/>
       <c r="K179" s="1"/>
       <c r="L179" s="1"/>
       <c r="M179" s="1"/>
@@ -8154,10 +7706,9 @@
       <c r="AC179" s="1"/>
       <c r="AD179" s="1"/>
       <c r="AE179" s="1"/>
-      <c r="AF179" s="1"/>
-    </row>
-    <row r="180" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B180" s="1"/>
+    </row>
+    <row r="180" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B180" s="2"/>
       <c r="C180" s="2"/>
       <c r="D180" s="1"/>
       <c r="E180" s="2"/>
@@ -8165,7 +7716,7 @@
       <c r="G180" s="2"/>
       <c r="H180" s="2"/>
       <c r="I180" s="2"/>
-      <c r="J180" s="2"/>
+      <c r="J180" s="1"/>
       <c r="K180" s="1"/>
       <c r="L180" s="1"/>
       <c r="M180" s="1"/>
@@ -8187,10 +7738,9 @@
       <c r="AC180" s="1"/>
       <c r="AD180" s="1"/>
       <c r="AE180" s="1"/>
-      <c r="AF180" s="1"/>
-    </row>
-    <row r="181" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B181" s="1"/>
+    </row>
+    <row r="181" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B181" s="2"/>
       <c r="C181" s="2"/>
       <c r="D181" s="1"/>
       <c r="E181" s="2"/>
@@ -8198,7 +7748,7 @@
       <c r="G181" s="2"/>
       <c r="H181" s="2"/>
       <c r="I181" s="2"/>
-      <c r="J181" s="2"/>
+      <c r="J181" s="1"/>
       <c r="K181" s="1"/>
       <c r="L181" s="1"/>
       <c r="M181" s="1"/>
@@ -8220,10 +7770,9 @@
       <c r="AC181" s="1"/>
       <c r="AD181" s="1"/>
       <c r="AE181" s="1"/>
-      <c r="AF181" s="1"/>
-    </row>
-    <row r="182" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B182" s="1"/>
+    </row>
+    <row r="182" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B182" s="2"/>
       <c r="C182" s="2"/>
       <c r="D182" s="1"/>
       <c r="E182" s="2"/>
@@ -8231,7 +7780,7 @@
       <c r="G182" s="2"/>
       <c r="H182" s="2"/>
       <c r="I182" s="2"/>
-      <c r="J182" s="2"/>
+      <c r="J182" s="1"/>
       <c r="K182" s="1"/>
       <c r="L182" s="1"/>
       <c r="M182" s="1"/>
@@ -8253,10 +7802,9 @@
       <c r="AC182" s="1"/>
       <c r="AD182" s="1"/>
       <c r="AE182" s="1"/>
-      <c r="AF182" s="1"/>
-    </row>
-    <row r="183" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B183" s="1"/>
+    </row>
+    <row r="183" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B183" s="2"/>
       <c r="C183" s="2"/>
       <c r="D183" s="1"/>
       <c r="E183" s="2"/>
@@ -8264,7 +7812,7 @@
       <c r="G183" s="2"/>
       <c r="H183" s="2"/>
       <c r="I183" s="2"/>
-      <c r="J183" s="2"/>
+      <c r="J183" s="1"/>
       <c r="K183" s="1"/>
       <c r="L183" s="1"/>
       <c r="M183" s="1"/>
@@ -8286,10 +7834,9 @@
       <c r="AC183" s="1"/>
       <c r="AD183" s="1"/>
       <c r="AE183" s="1"/>
-      <c r="AF183" s="1"/>
-    </row>
-    <row r="184" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B184" s="1"/>
+    </row>
+    <row r="184" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B184" s="2"/>
       <c r="C184" s="2"/>
       <c r="D184" s="1"/>
       <c r="E184" s="2"/>
@@ -8297,7 +7844,7 @@
       <c r="G184" s="2"/>
       <c r="H184" s="2"/>
       <c r="I184" s="2"/>
-      <c r="J184" s="2"/>
+      <c r="J184" s="1"/>
       <c r="K184" s="1"/>
       <c r="L184" s="1"/>
       <c r="M184" s="1"/>
@@ -8319,10 +7866,9 @@
       <c r="AC184" s="1"/>
       <c r="AD184" s="1"/>
       <c r="AE184" s="1"/>
-      <c r="AF184" s="1"/>
-    </row>
-    <row r="185" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B185" s="1"/>
+    </row>
+    <row r="185" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B185" s="2"/>
       <c r="C185" s="2"/>
       <c r="D185" s="1"/>
       <c r="E185" s="2"/>
@@ -8330,7 +7876,7 @@
       <c r="G185" s="2"/>
       <c r="H185" s="2"/>
       <c r="I185" s="2"/>
-      <c r="J185" s="2"/>
+      <c r="J185" s="1"/>
       <c r="K185" s="1"/>
       <c r="L185" s="1"/>
       <c r="M185" s="1"/>
@@ -8352,10 +7898,9 @@
       <c r="AC185" s="1"/>
       <c r="AD185" s="1"/>
       <c r="AE185" s="1"/>
-      <c r="AF185" s="1"/>
-    </row>
-    <row r="186" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B186" s="1"/>
+    </row>
+    <row r="186" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B186" s="2"/>
       <c r="C186" s="2"/>
       <c r="D186" s="1"/>
       <c r="E186" s="2"/>
@@ -8363,7 +7908,7 @@
       <c r="G186" s="2"/>
       <c r="H186" s="2"/>
       <c r="I186" s="2"/>
-      <c r="J186" s="2"/>
+      <c r="J186" s="1"/>
       <c r="K186" s="1"/>
       <c r="L186" s="1"/>
       <c r="M186" s="1"/>
@@ -8385,10 +7930,9 @@
       <c r="AC186" s="1"/>
       <c r="AD186" s="1"/>
       <c r="AE186" s="1"/>
-      <c r="AF186" s="1"/>
-    </row>
-    <row r="187" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B187" s="1"/>
+    </row>
+    <row r="187" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B187" s="2"/>
       <c r="C187" s="2"/>
       <c r="D187" s="1"/>
       <c r="E187" s="2"/>
@@ -8396,7 +7940,7 @@
       <c r="G187" s="2"/>
       <c r="H187" s="2"/>
       <c r="I187" s="2"/>
-      <c r="J187" s="2"/>
+      <c r="J187" s="1"/>
       <c r="K187" s="1"/>
       <c r="L187" s="1"/>
       <c r="M187" s="1"/>
@@ -8418,10 +7962,9 @@
       <c r="AC187" s="1"/>
       <c r="AD187" s="1"/>
       <c r="AE187" s="1"/>
-      <c r="AF187" s="1"/>
-    </row>
-    <row r="188" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B188" s="1"/>
+    </row>
+    <row r="188" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B188" s="2"/>
       <c r="C188" s="2"/>
       <c r="D188" s="1"/>
       <c r="E188" s="2"/>
@@ -8429,7 +7972,7 @@
       <c r="G188" s="2"/>
       <c r="H188" s="2"/>
       <c r="I188" s="2"/>
-      <c r="J188" s="2"/>
+      <c r="J188" s="1"/>
       <c r="K188" s="1"/>
       <c r="L188" s="1"/>
       <c r="M188" s="1"/>
@@ -8451,10 +7994,9 @@
       <c r="AC188" s="1"/>
       <c r="AD188" s="1"/>
       <c r="AE188" s="1"/>
-      <c r="AF188" s="1"/>
-    </row>
-    <row r="189" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B189" s="1"/>
+    </row>
+    <row r="189" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B189" s="2"/>
       <c r="C189" s="2"/>
       <c r="D189" s="1"/>
       <c r="E189" s="2"/>
@@ -8462,7 +8004,7 @@
       <c r="G189" s="2"/>
       <c r="H189" s="2"/>
       <c r="I189" s="2"/>
-      <c r="J189" s="2"/>
+      <c r="J189" s="1"/>
       <c r="K189" s="1"/>
       <c r="L189" s="1"/>
       <c r="M189" s="1"/>
@@ -8484,10 +8026,9 @@
       <c r="AC189" s="1"/>
       <c r="AD189" s="1"/>
       <c r="AE189" s="1"/>
-      <c r="AF189" s="1"/>
-    </row>
-    <row r="190" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B190" s="1"/>
+    </row>
+    <row r="190" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B190" s="2"/>
       <c r="C190" s="2"/>
       <c r="D190" s="1"/>
       <c r="E190" s="2"/>
@@ -8495,7 +8036,7 @@
       <c r="G190" s="2"/>
       <c r="H190" s="2"/>
       <c r="I190" s="2"/>
-      <c r="J190" s="2"/>
+      <c r="J190" s="1"/>
       <c r="K190" s="1"/>
       <c r="L190" s="1"/>
       <c r="M190" s="1"/>
@@ -8517,10 +8058,9 @@
       <c r="AC190" s="1"/>
       <c r="AD190" s="1"/>
       <c r="AE190" s="1"/>
-      <c r="AF190" s="1"/>
-    </row>
-    <row r="191" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B191" s="1"/>
+    </row>
+    <row r="191" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B191" s="2"/>
       <c r="C191" s="2"/>
       <c r="D191" s="1"/>
       <c r="E191" s="2"/>
@@ -8528,7 +8068,7 @@
       <c r="G191" s="2"/>
       <c r="H191" s="2"/>
       <c r="I191" s="2"/>
-      <c r="J191" s="2"/>
+      <c r="J191" s="1"/>
       <c r="K191" s="1"/>
       <c r="L191" s="1"/>
       <c r="M191" s="1"/>
@@ -8550,10 +8090,9 @@
       <c r="AC191" s="1"/>
       <c r="AD191" s="1"/>
       <c r="AE191" s="1"/>
-      <c r="AF191" s="1"/>
-    </row>
-    <row r="192" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B192" s="1"/>
+    </row>
+    <row r="192" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B192" s="2"/>
       <c r="C192" s="2"/>
       <c r="D192" s="1"/>
       <c r="E192" s="2"/>
@@ -8561,7 +8100,7 @@
       <c r="G192" s="2"/>
       <c r="H192" s="2"/>
       <c r="I192" s="2"/>
-      <c r="J192" s="2"/>
+      <c r="J192" s="1"/>
       <c r="K192" s="1"/>
       <c r="L192" s="1"/>
       <c r="M192" s="1"/>
@@ -8583,10 +8122,9 @@
       <c r="AC192" s="1"/>
       <c r="AD192" s="1"/>
       <c r="AE192" s="1"/>
-      <c r="AF192" s="1"/>
-    </row>
-    <row r="193" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B193" s="1"/>
+    </row>
+    <row r="193" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B193" s="2"/>
       <c r="C193" s="2"/>
       <c r="D193" s="1"/>
       <c r="E193" s="2"/>
@@ -8594,7 +8132,7 @@
       <c r="G193" s="2"/>
       <c r="H193" s="2"/>
       <c r="I193" s="2"/>
-      <c r="J193" s="2"/>
+      <c r="J193" s="1"/>
       <c r="K193" s="1"/>
       <c r="L193" s="1"/>
       <c r="M193" s="1"/>
@@ -8616,10 +8154,9 @@
       <c r="AC193" s="1"/>
       <c r="AD193" s="1"/>
       <c r="AE193" s="1"/>
-      <c r="AF193" s="1"/>
-    </row>
-    <row r="194" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B194" s="1"/>
+    </row>
+    <row r="194" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B194" s="2"/>
       <c r="C194" s="2"/>
       <c r="D194" s="1"/>
       <c r="E194" s="2"/>
@@ -8627,7 +8164,7 @@
       <c r="G194" s="2"/>
       <c r="H194" s="2"/>
       <c r="I194" s="2"/>
-      <c r="J194" s="2"/>
+      <c r="J194" s="1"/>
       <c r="K194" s="1"/>
       <c r="L194" s="1"/>
       <c r="M194" s="1"/>
@@ -8649,10 +8186,9 @@
       <c r="AC194" s="1"/>
       <c r="AD194" s="1"/>
       <c r="AE194" s="1"/>
-      <c r="AF194" s="1"/>
-    </row>
-    <row r="195" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B195" s="1"/>
+    </row>
+    <row r="195" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B195" s="2"/>
       <c r="C195" s="2"/>
       <c r="D195" s="1"/>
       <c r="E195" s="2"/>
@@ -8660,7 +8196,7 @@
       <c r="G195" s="2"/>
       <c r="H195" s="2"/>
       <c r="I195" s="2"/>
-      <c r="J195" s="2"/>
+      <c r="J195" s="1"/>
       <c r="K195" s="1"/>
       <c r="L195" s="1"/>
       <c r="M195" s="1"/>
@@ -8682,10 +8218,9 @@
       <c r="AC195" s="1"/>
       <c r="AD195" s="1"/>
       <c r="AE195" s="1"/>
-      <c r="AF195" s="1"/>
-    </row>
-    <row r="196" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B196" s="1"/>
+    </row>
+    <row r="196" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B196" s="2"/>
       <c r="C196" s="2"/>
       <c r="D196" s="1"/>
       <c r="E196" s="2"/>
@@ -8693,7 +8228,7 @@
       <c r="G196" s="2"/>
       <c r="H196" s="2"/>
       <c r="I196" s="2"/>
-      <c r="J196" s="2"/>
+      <c r="J196" s="1"/>
       <c r="K196" s="1"/>
       <c r="L196" s="1"/>
       <c r="M196" s="1"/>
@@ -8715,10 +8250,9 @@
       <c r="AC196" s="1"/>
       <c r="AD196" s="1"/>
       <c r="AE196" s="1"/>
-      <c r="AF196" s="1"/>
-    </row>
-    <row r="197" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B197" s="1"/>
+    </row>
+    <row r="197" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B197" s="2"/>
       <c r="C197" s="2"/>
       <c r="D197" s="1"/>
       <c r="E197" s="2"/>
@@ -8726,7 +8260,7 @@
       <c r="G197" s="2"/>
       <c r="H197" s="2"/>
       <c r="I197" s="2"/>
-      <c r="J197" s="2"/>
+      <c r="J197" s="1"/>
       <c r="K197" s="1"/>
       <c r="L197" s="1"/>
       <c r="M197" s="1"/>
@@ -8748,10 +8282,9 @@
       <c r="AC197" s="1"/>
       <c r="AD197" s="1"/>
       <c r="AE197" s="1"/>
-      <c r="AF197" s="1"/>
-    </row>
-    <row r="198" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B198" s="1"/>
+    </row>
+    <row r="198" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B198" s="2"/>
       <c r="C198" s="2"/>
       <c r="D198" s="1"/>
       <c r="E198" s="2"/>
@@ -8759,7 +8292,7 @@
       <c r="G198" s="2"/>
       <c r="H198" s="2"/>
       <c r="I198" s="2"/>
-      <c r="J198" s="2"/>
+      <c r="J198" s="1"/>
       <c r="K198" s="1"/>
       <c r="L198" s="1"/>
       <c r="M198" s="1"/>
@@ -8781,10 +8314,9 @@
       <c r="AC198" s="1"/>
       <c r="AD198" s="1"/>
       <c r="AE198" s="1"/>
-      <c r="AF198" s="1"/>
-    </row>
-    <row r="199" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B199" s="1"/>
+    </row>
+    <row r="199" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B199" s="2"/>
       <c r="C199" s="2"/>
       <c r="D199" s="1"/>
       <c r="E199" s="2"/>
@@ -8792,7 +8324,7 @@
       <c r="G199" s="2"/>
       <c r="H199" s="2"/>
       <c r="I199" s="2"/>
-      <c r="J199" s="2"/>
+      <c r="J199" s="1"/>
       <c r="K199" s="1"/>
       <c r="L199" s="1"/>
       <c r="M199" s="1"/>
@@ -8814,10 +8346,9 @@
       <c r="AC199" s="1"/>
       <c r="AD199" s="1"/>
       <c r="AE199" s="1"/>
-      <c r="AF199" s="1"/>
-    </row>
-    <row r="200" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B200" s="1"/>
+    </row>
+    <row r="200" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B200" s="2"/>
       <c r="C200" s="2"/>
       <c r="D200" s="1"/>
       <c r="E200" s="2"/>
@@ -8825,7 +8356,7 @@
       <c r="G200" s="2"/>
       <c r="H200" s="2"/>
       <c r="I200" s="2"/>
-      <c r="J200" s="2"/>
+      <c r="J200" s="1"/>
       <c r="K200" s="1"/>
       <c r="L200" s="1"/>
       <c r="M200" s="1"/>
@@ -8847,10 +8378,9 @@
       <c r="AC200" s="1"/>
       <c r="AD200" s="1"/>
       <c r="AE200" s="1"/>
-      <c r="AF200" s="1"/>
-    </row>
-    <row r="201" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B201" s="1"/>
+    </row>
+    <row r="201" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B201" s="2"/>
       <c r="C201" s="2"/>
       <c r="D201" s="1"/>
       <c r="E201" s="2"/>
@@ -8858,7 +8388,7 @@
       <c r="G201" s="2"/>
       <c r="H201" s="2"/>
       <c r="I201" s="2"/>
-      <c r="J201" s="2"/>
+      <c r="J201" s="1"/>
       <c r="K201" s="1"/>
       <c r="L201" s="1"/>
       <c r="M201" s="1"/>
@@ -8880,10 +8410,9 @@
       <c r="AC201" s="1"/>
       <c r="AD201" s="1"/>
       <c r="AE201" s="1"/>
-      <c r="AF201" s="1"/>
-    </row>
-    <row r="202" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B202" s="1"/>
+    </row>
+    <row r="202" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B202" s="2"/>
       <c r="C202" s="2"/>
       <c r="D202" s="1"/>
       <c r="E202" s="2"/>
@@ -8891,7 +8420,7 @@
       <c r="G202" s="2"/>
       <c r="H202" s="2"/>
       <c r="I202" s="2"/>
-      <c r="J202" s="2"/>
+      <c r="J202" s="1"/>
       <c r="K202" s="1"/>
       <c r="L202" s="1"/>
       <c r="M202" s="1"/>
@@ -8913,10 +8442,9 @@
       <c r="AC202" s="1"/>
       <c r="AD202" s="1"/>
       <c r="AE202" s="1"/>
-      <c r="AF202" s="1"/>
-    </row>
-    <row r="203" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B203" s="1"/>
+    </row>
+    <row r="203" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B203" s="2"/>
       <c r="C203" s="2"/>
       <c r="D203" s="1"/>
       <c r="E203" s="2"/>
@@ -8924,7 +8452,7 @@
       <c r="G203" s="2"/>
       <c r="H203" s="2"/>
       <c r="I203" s="2"/>
-      <c r="J203" s="2"/>
+      <c r="J203" s="1"/>
       <c r="K203" s="1"/>
       <c r="L203" s="1"/>
       <c r="M203" s="1"/>
@@ -8946,10 +8474,9 @@
       <c r="AC203" s="1"/>
       <c r="AD203" s="1"/>
       <c r="AE203" s="1"/>
-      <c r="AF203" s="1"/>
-    </row>
-    <row r="204" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B204" s="1"/>
+    </row>
+    <row r="204" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B204" s="2"/>
       <c r="C204" s="2"/>
       <c r="D204" s="1"/>
       <c r="E204" s="2"/>
@@ -8957,7 +8484,7 @@
       <c r="G204" s="2"/>
       <c r="H204" s="2"/>
       <c r="I204" s="2"/>
-      <c r="J204" s="2"/>
+      <c r="J204" s="1"/>
       <c r="K204" s="1"/>
       <c r="L204" s="1"/>
       <c r="M204" s="1"/>
@@ -8979,10 +8506,9 @@
       <c r="AC204" s="1"/>
       <c r="AD204" s="1"/>
       <c r="AE204" s="1"/>
-      <c r="AF204" s="1"/>
-    </row>
-    <row r="205" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B205" s="1"/>
+    </row>
+    <row r="205" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B205" s="2"/>
       <c r="C205" s="2"/>
       <c r="D205" s="1"/>
       <c r="E205" s="2"/>
@@ -8990,7 +8516,7 @@
       <c r="G205" s="2"/>
       <c r="H205" s="2"/>
       <c r="I205" s="2"/>
-      <c r="J205" s="2"/>
+      <c r="J205" s="1"/>
       <c r="K205" s="1"/>
       <c r="L205" s="1"/>
       <c r="M205" s="1"/>
@@ -9012,10 +8538,9 @@
       <c r="AC205" s="1"/>
       <c r="AD205" s="1"/>
       <c r="AE205" s="1"/>
-      <c r="AF205" s="1"/>
-    </row>
-    <row r="206" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B206" s="1"/>
+    </row>
+    <row r="206" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B206" s="2"/>
       <c r="C206" s="2"/>
       <c r="D206" s="1"/>
       <c r="E206" s="2"/>
@@ -9023,7 +8548,7 @@
       <c r="G206" s="2"/>
       <c r="H206" s="2"/>
       <c r="I206" s="2"/>
-      <c r="J206" s="2"/>
+      <c r="J206" s="1"/>
       <c r="K206" s="1"/>
       <c r="L206" s="1"/>
       <c r="M206" s="1"/>
@@ -9045,10 +8570,9 @@
       <c r="AC206" s="1"/>
       <c r="AD206" s="1"/>
       <c r="AE206" s="1"/>
-      <c r="AF206" s="1"/>
-    </row>
-    <row r="207" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B207" s="1"/>
+    </row>
+    <row r="207" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B207" s="2"/>
       <c r="C207" s="2"/>
       <c r="D207" s="1"/>
       <c r="E207" s="2"/>
@@ -9056,7 +8580,7 @@
       <c r="G207" s="2"/>
       <c r="H207" s="2"/>
       <c r="I207" s="2"/>
-      <c r="J207" s="2"/>
+      <c r="J207" s="1"/>
       <c r="K207" s="1"/>
       <c r="L207" s="1"/>
       <c r="M207" s="1"/>
@@ -9078,10 +8602,9 @@
       <c r="AC207" s="1"/>
       <c r="AD207" s="1"/>
       <c r="AE207" s="1"/>
-      <c r="AF207" s="1"/>
-    </row>
-    <row r="208" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B208" s="1"/>
+    </row>
+    <row r="208" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B208" s="2"/>
       <c r="C208" s="2"/>
       <c r="D208" s="1"/>
       <c r="E208" s="2"/>
@@ -9089,7 +8612,7 @@
       <c r="G208" s="2"/>
       <c r="H208" s="2"/>
       <c r="I208" s="2"/>
-      <c r="J208" s="2"/>
+      <c r="J208" s="1"/>
       <c r="K208" s="1"/>
       <c r="L208" s="1"/>
       <c r="M208" s="1"/>
@@ -9111,10 +8634,9 @@
       <c r="AC208" s="1"/>
       <c r="AD208" s="1"/>
       <c r="AE208" s="1"/>
-      <c r="AF208" s="1"/>
-    </row>
-    <row r="209" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B209" s="1"/>
+    </row>
+    <row r="209" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B209" s="2"/>
       <c r="C209" s="2"/>
       <c r="D209" s="1"/>
       <c r="E209" s="2"/>
@@ -9122,7 +8644,7 @@
       <c r="G209" s="2"/>
       <c r="H209" s="2"/>
       <c r="I209" s="2"/>
-      <c r="J209" s="2"/>
+      <c r="J209" s="1"/>
       <c r="K209" s="1"/>
       <c r="L209" s="1"/>
       <c r="M209" s="1"/>
@@ -9144,10 +8666,9 @@
       <c r="AC209" s="1"/>
       <c r="AD209" s="1"/>
       <c r="AE209" s="1"/>
-      <c r="AF209" s="1"/>
-    </row>
-    <row r="210" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B210" s="1"/>
+    </row>
+    <row r="210" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B210" s="2"/>
       <c r="C210" s="2"/>
       <c r="D210" s="1"/>
       <c r="E210" s="2"/>
@@ -9155,7 +8676,7 @@
       <c r="G210" s="2"/>
       <c r="H210" s="2"/>
       <c r="I210" s="2"/>
-      <c r="J210" s="2"/>
+      <c r="J210" s="1"/>
       <c r="K210" s="1"/>
       <c r="L210" s="1"/>
       <c r="M210" s="1"/>
@@ -9177,10 +8698,9 @@
       <c r="AC210" s="1"/>
       <c r="AD210" s="1"/>
       <c r="AE210" s="1"/>
-      <c r="AF210" s="1"/>
-    </row>
-    <row r="211" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B211" s="1"/>
+    </row>
+    <row r="211" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B211" s="2"/>
       <c r="C211" s="2"/>
       <c r="D211" s="1"/>
       <c r="E211" s="2"/>
@@ -9188,7 +8708,7 @@
       <c r="G211" s="2"/>
       <c r="H211" s="2"/>
       <c r="I211" s="2"/>
-      <c r="J211" s="2"/>
+      <c r="J211" s="1"/>
       <c r="K211" s="1"/>
       <c r="L211" s="1"/>
       <c r="M211" s="1"/>
@@ -9210,10 +8730,9 @@
       <c r="AC211" s="1"/>
       <c r="AD211" s="1"/>
       <c r="AE211" s="1"/>
-      <c r="AF211" s="1"/>
-    </row>
-    <row r="212" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B212" s="1"/>
+    </row>
+    <row r="212" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B212" s="2"/>
       <c r="C212" s="2"/>
       <c r="D212" s="1"/>
       <c r="E212" s="2"/>
@@ -9221,7 +8740,7 @@
       <c r="G212" s="2"/>
       <c r="H212" s="2"/>
       <c r="I212" s="2"/>
-      <c r="J212" s="2"/>
+      <c r="J212" s="1"/>
       <c r="K212" s="1"/>
       <c r="L212" s="1"/>
       <c r="M212" s="1"/>
@@ -9243,10 +8762,9 @@
       <c r="AC212" s="1"/>
       <c r="AD212" s="1"/>
       <c r="AE212" s="1"/>
-      <c r="AF212" s="1"/>
-    </row>
-    <row r="213" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B213" s="1"/>
+    </row>
+    <row r="213" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B213" s="2"/>
       <c r="C213" s="2"/>
       <c r="D213" s="1"/>
       <c r="E213" s="2"/>
@@ -9254,7 +8772,7 @@
       <c r="G213" s="2"/>
       <c r="H213" s="2"/>
       <c r="I213" s="2"/>
-      <c r="J213" s="2"/>
+      <c r="J213" s="1"/>
       <c r="K213" s="1"/>
       <c r="L213" s="1"/>
       <c r="M213" s="1"/>
@@ -9276,10 +8794,9 @@
       <c r="AC213" s="1"/>
       <c r="AD213" s="1"/>
       <c r="AE213" s="1"/>
-      <c r="AF213" s="1"/>
-    </row>
-    <row r="214" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B214" s="1"/>
+    </row>
+    <row r="214" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B214" s="2"/>
       <c r="C214" s="2"/>
       <c r="D214" s="1"/>
       <c r="E214" s="2"/>
@@ -9287,7 +8804,7 @@
       <c r="G214" s="2"/>
       <c r="H214" s="2"/>
       <c r="I214" s="2"/>
-      <c r="J214" s="2"/>
+      <c r="J214" s="1"/>
       <c r="K214" s="1"/>
       <c r="L214" s="1"/>
       <c r="M214" s="1"/>
@@ -9309,10 +8826,9 @@
       <c r="AC214" s="1"/>
       <c r="AD214" s="1"/>
       <c r="AE214" s="1"/>
-      <c r="AF214" s="1"/>
-    </row>
-    <row r="215" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B215" s="1"/>
+    </row>
+    <row r="215" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B215" s="2"/>
       <c r="C215" s="2"/>
       <c r="D215" s="1"/>
       <c r="E215" s="2"/>
@@ -9320,7 +8836,7 @@
       <c r="G215" s="2"/>
       <c r="H215" s="2"/>
       <c r="I215" s="2"/>
-      <c r="J215" s="2"/>
+      <c r="J215" s="1"/>
       <c r="K215" s="1"/>
       <c r="L215" s="1"/>
       <c r="M215" s="1"/>
@@ -9342,10 +8858,9 @@
       <c r="AC215" s="1"/>
       <c r="AD215" s="1"/>
       <c r="AE215" s="1"/>
-      <c r="AF215" s="1"/>
-    </row>
-    <row r="216" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B216" s="1"/>
+    </row>
+    <row r="216" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B216" s="2"/>
       <c r="C216" s="2"/>
       <c r="D216" s="1"/>
       <c r="E216" s="2"/>
@@ -9353,7 +8868,7 @@
       <c r="G216" s="2"/>
       <c r="H216" s="2"/>
       <c r="I216" s="2"/>
-      <c r="J216" s="2"/>
+      <c r="J216" s="1"/>
       <c r="K216" s="1"/>
       <c r="L216" s="1"/>
       <c r="M216" s="1"/>
@@ -9375,10 +8890,9 @@
       <c r="AC216" s="1"/>
       <c r="AD216" s="1"/>
       <c r="AE216" s="1"/>
-      <c r="AF216" s="1"/>
-    </row>
-    <row r="217" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B217" s="1"/>
+    </row>
+    <row r="217" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B217" s="2"/>
       <c r="C217" s="2"/>
       <c r="D217" s="1"/>
       <c r="E217" s="2"/>
@@ -9386,7 +8900,7 @@
       <c r="G217" s="2"/>
       <c r="H217" s="2"/>
       <c r="I217" s="2"/>
-      <c r="J217" s="2"/>
+      <c r="J217" s="1"/>
       <c r="K217" s="1"/>
       <c r="L217" s="1"/>
       <c r="M217" s="1"/>
@@ -9408,10 +8922,9 @@
       <c r="AC217" s="1"/>
       <c r="AD217" s="1"/>
       <c r="AE217" s="1"/>
-      <c r="AF217" s="1"/>
-    </row>
-    <row r="218" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B218" s="1"/>
+    </row>
+    <row r="218" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B218" s="2"/>
       <c r="C218" s="2"/>
       <c r="D218" s="1"/>
       <c r="E218" s="2"/>
@@ -9419,7 +8932,7 @@
       <c r="G218" s="2"/>
       <c r="H218" s="2"/>
       <c r="I218" s="2"/>
-      <c r="J218" s="2"/>
+      <c r="J218" s="1"/>
       <c r="K218" s="1"/>
       <c r="L218" s="1"/>
       <c r="M218" s="1"/>
@@ -9441,10 +8954,9 @@
       <c r="AC218" s="1"/>
       <c r="AD218" s="1"/>
       <c r="AE218" s="1"/>
-      <c r="AF218" s="1"/>
-    </row>
-    <row r="219" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B219" s="1"/>
+    </row>
+    <row r="219" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B219" s="2"/>
       <c r="C219" s="2"/>
       <c r="D219" s="1"/>
       <c r="E219" s="2"/>
@@ -9452,7 +8964,7 @@
       <c r="G219" s="2"/>
       <c r="H219" s="2"/>
       <c r="I219" s="2"/>
-      <c r="J219" s="2"/>
+      <c r="J219" s="1"/>
       <c r="K219" s="1"/>
       <c r="L219" s="1"/>
       <c r="M219" s="1"/>
@@ -9474,10 +8986,9 @@
       <c r="AC219" s="1"/>
       <c r="AD219" s="1"/>
       <c r="AE219" s="1"/>
-      <c r="AF219" s="1"/>
-    </row>
-    <row r="220" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B220" s="1"/>
+    </row>
+    <row r="220" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B220" s="2"/>
       <c r="C220" s="2"/>
       <c r="D220" s="1"/>
       <c r="E220" s="2"/>
@@ -9485,7 +8996,7 @@
       <c r="G220" s="2"/>
       <c r="H220" s="2"/>
       <c r="I220" s="2"/>
-      <c r="J220" s="2"/>
+      <c r="J220" s="1"/>
       <c r="K220" s="1"/>
       <c r="L220" s="1"/>
       <c r="M220" s="1"/>
@@ -9507,10 +9018,9 @@
       <c r="AC220" s="1"/>
       <c r="AD220" s="1"/>
       <c r="AE220" s="1"/>
-      <c r="AF220" s="1"/>
-    </row>
-    <row r="221" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B221" s="1"/>
+    </row>
+    <row r="221" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B221" s="2"/>
       <c r="C221" s="2"/>
       <c r="D221" s="1"/>
       <c r="E221" s="2"/>
@@ -9518,7 +9028,7 @@
       <c r="G221" s="2"/>
       <c r="H221" s="2"/>
       <c r="I221" s="2"/>
-      <c r="J221" s="2"/>
+      <c r="J221" s="1"/>
       <c r="K221" s="1"/>
       <c r="L221" s="1"/>
       <c r="M221" s="1"/>
@@ -9540,10 +9050,9 @@
       <c r="AC221" s="1"/>
       <c r="AD221" s="1"/>
       <c r="AE221" s="1"/>
-      <c r="AF221" s="1"/>
-    </row>
-    <row r="222" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B222" s="1"/>
+    </row>
+    <row r="222" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B222" s="2"/>
       <c r="C222" s="2"/>
       <c r="D222" s="1"/>
       <c r="E222" s="2"/>
@@ -9551,7 +9060,7 @@
       <c r="G222" s="2"/>
       <c r="H222" s="2"/>
       <c r="I222" s="2"/>
-      <c r="J222" s="2"/>
+      <c r="J222" s="1"/>
       <c r="K222" s="1"/>
       <c r="L222" s="1"/>
       <c r="M222" s="1"/>
@@ -9573,1066 +9082,41 @@
       <c r="AC222" s="1"/>
       <c r="AD222" s="1"/>
       <c r="AE222" s="1"/>
-      <c r="AF222" s="1"/>
-    </row>
-    <row r="223" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B223" s="1"/>
-      <c r="C223" s="2"/>
-      <c r="D223" s="1"/>
-      <c r="E223" s="2"/>
-      <c r="F223" s="2"/>
-      <c r="G223" s="2"/>
-      <c r="H223" s="2"/>
-      <c r="I223" s="2"/>
-      <c r="J223" s="2"/>
-      <c r="K223" s="1"/>
-      <c r="L223" s="1"/>
-      <c r="M223" s="1"/>
-      <c r="N223" s="1"/>
-      <c r="O223" s="1"/>
-      <c r="P223" s="1"/>
-      <c r="Q223" s="1"/>
-      <c r="R223" s="1"/>
-      <c r="S223" s="1"/>
-      <c r="T223" s="1"/>
-      <c r="U223" s="1"/>
-      <c r="V223" s="1"/>
-      <c r="W223" s="1"/>
-      <c r="X223" s="1"/>
-      <c r="Y223" s="1"/>
-      <c r="Z223" s="1"/>
-      <c r="AA223" s="1"/>
-      <c r="AB223" s="1"/>
-      <c r="AC223" s="1"/>
-      <c r="AD223" s="1"/>
-      <c r="AE223" s="1"/>
-      <c r="AF223" s="1"/>
-    </row>
-    <row r="224" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B224" s="1"/>
-      <c r="C224" s="2"/>
-      <c r="D224" s="1"/>
-      <c r="E224" s="2"/>
-      <c r="F224" s="2"/>
-      <c r="G224" s="2"/>
-      <c r="H224" s="2"/>
-      <c r="I224" s="2"/>
-      <c r="J224" s="2"/>
-      <c r="K224" s="1"/>
-      <c r="L224" s="1"/>
-      <c r="M224" s="1"/>
-      <c r="N224" s="1"/>
-      <c r="O224" s="1"/>
-      <c r="P224" s="1"/>
-      <c r="Q224" s="1"/>
-      <c r="R224" s="1"/>
-      <c r="S224" s="1"/>
-      <c r="T224" s="1"/>
-      <c r="U224" s="1"/>
-      <c r="V224" s="1"/>
-      <c r="W224" s="1"/>
-      <c r="X224" s="1"/>
-      <c r="Y224" s="1"/>
-      <c r="Z224" s="1"/>
-      <c r="AA224" s="1"/>
-      <c r="AB224" s="1"/>
-      <c r="AC224" s="1"/>
-      <c r="AD224" s="1"/>
-      <c r="AE224" s="1"/>
-      <c r="AF224" s="1"/>
-    </row>
-    <row r="225" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B225" s="1"/>
-      <c r="C225" s="2"/>
-      <c r="D225" s="1"/>
-      <c r="E225" s="2"/>
-      <c r="F225" s="2"/>
-      <c r="G225" s="2"/>
-      <c r="H225" s="2"/>
-      <c r="I225" s="2"/>
-      <c r="J225" s="2"/>
-      <c r="K225" s="1"/>
-      <c r="L225" s="1"/>
-      <c r="M225" s="1"/>
-      <c r="N225" s="1"/>
-      <c r="O225" s="1"/>
-      <c r="P225" s="1"/>
-      <c r="Q225" s="1"/>
-      <c r="R225" s="1"/>
-      <c r="S225" s="1"/>
-      <c r="T225" s="1"/>
-      <c r="U225" s="1"/>
-      <c r="V225" s="1"/>
-      <c r="W225" s="1"/>
-      <c r="X225" s="1"/>
-      <c r="Y225" s="1"/>
-      <c r="Z225" s="1"/>
-      <c r="AA225" s="1"/>
-      <c r="AB225" s="1"/>
-      <c r="AC225" s="1"/>
-      <c r="AD225" s="1"/>
-      <c r="AE225" s="1"/>
-      <c r="AF225" s="1"/>
-    </row>
-    <row r="226" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B226" s="1"/>
-      <c r="C226" s="2"/>
-      <c r="D226" s="1"/>
-      <c r="E226" s="2"/>
-      <c r="F226" s="2"/>
-      <c r="G226" s="2"/>
-      <c r="H226" s="2"/>
-      <c r="I226" s="2"/>
-      <c r="J226" s="2"/>
-      <c r="K226" s="1"/>
-      <c r="L226" s="1"/>
-      <c r="M226" s="1"/>
-      <c r="N226" s="1"/>
-      <c r="O226" s="1"/>
-      <c r="P226" s="1"/>
-      <c r="Q226" s="1"/>
-      <c r="R226" s="1"/>
-      <c r="S226" s="1"/>
-      <c r="T226" s="1"/>
-      <c r="U226" s="1"/>
-      <c r="V226" s="1"/>
-      <c r="W226" s="1"/>
-      <c r="X226" s="1"/>
-      <c r="Y226" s="1"/>
-      <c r="Z226" s="1"/>
-      <c r="AA226" s="1"/>
-      <c r="AB226" s="1"/>
-      <c r="AC226" s="1"/>
-      <c r="AD226" s="1"/>
-      <c r="AE226" s="1"/>
-      <c r="AF226" s="1"/>
-    </row>
-    <row r="227" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B227" s="1"/>
-      <c r="C227" s="2"/>
-      <c r="D227" s="1"/>
-      <c r="E227" s="2"/>
-      <c r="F227" s="2"/>
-      <c r="G227" s="2"/>
-      <c r="H227" s="2"/>
-      <c r="I227" s="2"/>
-      <c r="J227" s="2"/>
-      <c r="K227" s="1"/>
-      <c r="L227" s="1"/>
-      <c r="M227" s="1"/>
-      <c r="N227" s="1"/>
-      <c r="O227" s="1"/>
-      <c r="P227" s="1"/>
-      <c r="Q227" s="1"/>
-      <c r="R227" s="1"/>
-      <c r="S227" s="1"/>
-      <c r="T227" s="1"/>
-      <c r="U227" s="1"/>
-      <c r="V227" s="1"/>
-      <c r="W227" s="1"/>
-      <c r="X227" s="1"/>
-      <c r="Y227" s="1"/>
-      <c r="Z227" s="1"/>
-      <c r="AA227" s="1"/>
-      <c r="AB227" s="1"/>
-      <c r="AC227" s="1"/>
-      <c r="AD227" s="1"/>
-      <c r="AE227" s="1"/>
-      <c r="AF227" s="1"/>
-    </row>
-    <row r="228" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B228" s="1"/>
-      <c r="C228" s="2"/>
-      <c r="D228" s="1"/>
-      <c r="E228" s="2"/>
-      <c r="F228" s="2"/>
-      <c r="G228" s="2"/>
-      <c r="H228" s="2"/>
-      <c r="I228" s="2"/>
-      <c r="J228" s="2"/>
-      <c r="K228" s="1"/>
-      <c r="L228" s="1"/>
-      <c r="M228" s="1"/>
-      <c r="N228" s="1"/>
-      <c r="O228" s="1"/>
-      <c r="P228" s="1"/>
-      <c r="Q228" s="1"/>
-      <c r="R228" s="1"/>
-      <c r="S228" s="1"/>
-      <c r="T228" s="1"/>
-      <c r="U228" s="1"/>
-      <c r="V228" s="1"/>
-      <c r="W228" s="1"/>
-      <c r="X228" s="1"/>
-      <c r="Y228" s="1"/>
-      <c r="Z228" s="1"/>
-      <c r="AA228" s="1"/>
-      <c r="AB228" s="1"/>
-      <c r="AC228" s="1"/>
-      <c r="AD228" s="1"/>
-      <c r="AE228" s="1"/>
-      <c r="AF228" s="1"/>
-    </row>
-    <row r="229" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B229" s="1"/>
-      <c r="C229" s="2"/>
-      <c r="D229" s="1"/>
-      <c r="E229" s="2"/>
-      <c r="F229" s="2"/>
-      <c r="G229" s="2"/>
-      <c r="H229" s="2"/>
-      <c r="I229" s="2"/>
-      <c r="J229" s="2"/>
-      <c r="K229" s="1"/>
-      <c r="L229" s="1"/>
-      <c r="M229" s="1"/>
-      <c r="N229" s="1"/>
-      <c r="O229" s="1"/>
-      <c r="P229" s="1"/>
-      <c r="Q229" s="1"/>
-      <c r="R229" s="1"/>
-      <c r="S229" s="1"/>
-      <c r="T229" s="1"/>
-      <c r="U229" s="1"/>
-      <c r="V229" s="1"/>
-      <c r="W229" s="1"/>
-      <c r="X229" s="1"/>
-      <c r="Y229" s="1"/>
-      <c r="Z229" s="1"/>
-      <c r="AA229" s="1"/>
-      <c r="AB229" s="1"/>
-      <c r="AC229" s="1"/>
-      <c r="AD229" s="1"/>
-      <c r="AE229" s="1"/>
-      <c r="AF229" s="1"/>
-    </row>
-    <row r="230" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B230" s="1"/>
-      <c r="C230" s="2"/>
-      <c r="D230" s="1"/>
-      <c r="E230" s="2"/>
-      <c r="F230" s="2"/>
-      <c r="G230" s="2"/>
-      <c r="H230" s="2"/>
-      <c r="I230" s="2"/>
-      <c r="J230" s="2"/>
-      <c r="K230" s="1"/>
-      <c r="L230" s="1"/>
-      <c r="M230" s="1"/>
-      <c r="N230" s="1"/>
-      <c r="O230" s="1"/>
-      <c r="P230" s="1"/>
-      <c r="Q230" s="1"/>
-      <c r="R230" s="1"/>
-      <c r="S230" s="1"/>
-      <c r="T230" s="1"/>
-      <c r="U230" s="1"/>
-      <c r="V230" s="1"/>
-      <c r="W230" s="1"/>
-      <c r="X230" s="1"/>
-      <c r="Y230" s="1"/>
-      <c r="Z230" s="1"/>
-      <c r="AA230" s="1"/>
-      <c r="AB230" s="1"/>
-      <c r="AC230" s="1"/>
-      <c r="AD230" s="1"/>
-      <c r="AE230" s="1"/>
-      <c r="AF230" s="1"/>
-    </row>
-    <row r="231" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B231" s="1"/>
-      <c r="C231" s="2"/>
-      <c r="D231" s="1"/>
-      <c r="E231" s="2"/>
-      <c r="F231" s="2"/>
-      <c r="G231" s="2"/>
-      <c r="H231" s="2"/>
-      <c r="I231" s="2"/>
-      <c r="J231" s="2"/>
-      <c r="K231" s="1"/>
-      <c r="L231" s="1"/>
-      <c r="M231" s="1"/>
-      <c r="N231" s="1"/>
-      <c r="O231" s="1"/>
-      <c r="P231" s="1"/>
-      <c r="Q231" s="1"/>
-      <c r="R231" s="1"/>
-      <c r="S231" s="1"/>
-      <c r="T231" s="1"/>
-      <c r="U231" s="1"/>
-      <c r="V231" s="1"/>
-      <c r="W231" s="1"/>
-      <c r="X231" s="1"/>
-      <c r="Y231" s="1"/>
-      <c r="Z231" s="1"/>
-      <c r="AA231" s="1"/>
-      <c r="AB231" s="1"/>
-      <c r="AC231" s="1"/>
-      <c r="AD231" s="1"/>
-      <c r="AE231" s="1"/>
-      <c r="AF231" s="1"/>
-    </row>
-    <row r="232" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B232" s="1"/>
-      <c r="C232" s="2"/>
-      <c r="D232" s="1"/>
-      <c r="E232" s="2"/>
-      <c r="F232" s="2"/>
-      <c r="G232" s="2"/>
-      <c r="H232" s="2"/>
-      <c r="I232" s="2"/>
-      <c r="J232" s="2"/>
-      <c r="K232" s="1"/>
-      <c r="L232" s="1"/>
-      <c r="M232" s="1"/>
-      <c r="N232" s="1"/>
-      <c r="O232" s="1"/>
-      <c r="P232" s="1"/>
-      <c r="Q232" s="1"/>
-      <c r="R232" s="1"/>
-      <c r="S232" s="1"/>
-      <c r="T232" s="1"/>
-      <c r="U232" s="1"/>
-      <c r="V232" s="1"/>
-      <c r="W232" s="1"/>
-      <c r="X232" s="1"/>
-      <c r="Y232" s="1"/>
-      <c r="Z232" s="1"/>
-      <c r="AA232" s="1"/>
-      <c r="AB232" s="1"/>
-      <c r="AC232" s="1"/>
-      <c r="AD232" s="1"/>
-      <c r="AE232" s="1"/>
-      <c r="AF232" s="1"/>
-    </row>
-    <row r="233" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B233" s="1"/>
-      <c r="C233" s="2"/>
-      <c r="D233" s="1"/>
-      <c r="E233" s="2"/>
-      <c r="F233" s="2"/>
-      <c r="G233" s="2"/>
-      <c r="H233" s="2"/>
-      <c r="I233" s="2"/>
-      <c r="J233" s="2"/>
-      <c r="K233" s="1"/>
-      <c r="L233" s="1"/>
-      <c r="M233" s="1"/>
-      <c r="N233" s="1"/>
-      <c r="O233" s="1"/>
-      <c r="P233" s="1"/>
-      <c r="Q233" s="1"/>
-      <c r="R233" s="1"/>
-      <c r="S233" s="1"/>
-      <c r="T233" s="1"/>
-      <c r="U233" s="1"/>
-      <c r="V233" s="1"/>
-      <c r="W233" s="1"/>
-      <c r="X233" s="1"/>
-      <c r="Y233" s="1"/>
-      <c r="Z233" s="1"/>
-      <c r="AA233" s="1"/>
-      <c r="AB233" s="1"/>
-      <c r="AC233" s="1"/>
-      <c r="AD233" s="1"/>
-      <c r="AE233" s="1"/>
-      <c r="AF233" s="1"/>
-    </row>
-    <row r="234" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B234" s="1"/>
-      <c r="C234" s="2"/>
-      <c r="D234" s="1"/>
-      <c r="E234" s="2"/>
-      <c r="F234" s="2"/>
-      <c r="G234" s="2"/>
-      <c r="H234" s="2"/>
-      <c r="I234" s="2"/>
-      <c r="J234" s="2"/>
-      <c r="K234" s="1"/>
-      <c r="L234" s="1"/>
-      <c r="M234" s="1"/>
-      <c r="N234" s="1"/>
-      <c r="O234" s="1"/>
-      <c r="P234" s="1"/>
-      <c r="Q234" s="1"/>
-      <c r="R234" s="1"/>
-      <c r="S234" s="1"/>
-      <c r="T234" s="1"/>
-      <c r="U234" s="1"/>
-      <c r="V234" s="1"/>
-      <c r="W234" s="1"/>
-      <c r="X234" s="1"/>
-      <c r="Y234" s="1"/>
-      <c r="Z234" s="1"/>
-      <c r="AA234" s="1"/>
-      <c r="AB234" s="1"/>
-      <c r="AC234" s="1"/>
-      <c r="AD234" s="1"/>
-      <c r="AE234" s="1"/>
-      <c r="AF234" s="1"/>
-    </row>
-    <row r="235" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B235" s="1"/>
-      <c r="C235" s="2"/>
-      <c r="D235" s="1"/>
-      <c r="E235" s="2"/>
-      <c r="F235" s="2"/>
-      <c r="G235" s="2"/>
-      <c r="H235" s="2"/>
-      <c r="I235" s="2"/>
-      <c r="J235" s="2"/>
-      <c r="K235" s="1"/>
-      <c r="L235" s="1"/>
-      <c r="M235" s="1"/>
-      <c r="N235" s="1"/>
-      <c r="O235" s="1"/>
-      <c r="P235" s="1"/>
-      <c r="Q235" s="1"/>
-      <c r="R235" s="1"/>
-      <c r="S235" s="1"/>
-      <c r="T235" s="1"/>
-      <c r="U235" s="1"/>
-      <c r="V235" s="1"/>
-      <c r="W235" s="1"/>
-      <c r="X235" s="1"/>
-      <c r="Y235" s="1"/>
-      <c r="Z235" s="1"/>
-      <c r="AA235" s="1"/>
-      <c r="AB235" s="1"/>
-      <c r="AC235" s="1"/>
-      <c r="AD235" s="1"/>
-      <c r="AE235" s="1"/>
-      <c r="AF235" s="1"/>
-    </row>
-    <row r="236" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B236" s="1"/>
-      <c r="C236" s="2"/>
-      <c r="D236" s="1"/>
-      <c r="E236" s="2"/>
-      <c r="F236" s="2"/>
-      <c r="G236" s="2"/>
-      <c r="H236" s="2"/>
-      <c r="I236" s="2"/>
-      <c r="J236" s="2"/>
-      <c r="K236" s="1"/>
-      <c r="L236" s="1"/>
-      <c r="M236" s="1"/>
-      <c r="N236" s="1"/>
-      <c r="O236" s="1"/>
-      <c r="P236" s="1"/>
-      <c r="Q236" s="1"/>
-      <c r="R236" s="1"/>
-      <c r="S236" s="1"/>
-      <c r="T236" s="1"/>
-      <c r="U236" s="1"/>
-      <c r="V236" s="1"/>
-      <c r="W236" s="1"/>
-      <c r="X236" s="1"/>
-      <c r="Y236" s="1"/>
-      <c r="Z236" s="1"/>
-      <c r="AA236" s="1"/>
-      <c r="AB236" s="1"/>
-      <c r="AC236" s="1"/>
-      <c r="AD236" s="1"/>
-      <c r="AE236" s="1"/>
-      <c r="AF236" s="1"/>
-    </row>
-    <row r="237" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B237" s="1"/>
-      <c r="C237" s="2"/>
-      <c r="D237" s="1"/>
-      <c r="E237" s="2"/>
-      <c r="F237" s="2"/>
-      <c r="G237" s="2"/>
-      <c r="H237" s="2"/>
-      <c r="I237" s="2"/>
-      <c r="J237" s="2"/>
-      <c r="K237" s="1"/>
-      <c r="L237" s="1"/>
-      <c r="M237" s="1"/>
-      <c r="N237" s="1"/>
-      <c r="O237" s="1"/>
-      <c r="P237" s="1"/>
-      <c r="Q237" s="1"/>
-      <c r="R237" s="1"/>
-      <c r="S237" s="1"/>
-      <c r="T237" s="1"/>
-      <c r="U237" s="1"/>
-      <c r="V237" s="1"/>
-      <c r="W237" s="1"/>
-      <c r="X237" s="1"/>
-      <c r="Y237" s="1"/>
-      <c r="Z237" s="1"/>
-      <c r="AA237" s="1"/>
-      <c r="AB237" s="1"/>
-      <c r="AC237" s="1"/>
-      <c r="AD237" s="1"/>
-      <c r="AE237" s="1"/>
-      <c r="AF237" s="1"/>
-    </row>
-    <row r="238" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B238" s="1"/>
-      <c r="C238" s="2"/>
-      <c r="D238" s="1"/>
-      <c r="E238" s="2"/>
-      <c r="F238" s="2"/>
-      <c r="G238" s="2"/>
-      <c r="H238" s="2"/>
-      <c r="I238" s="2"/>
-      <c r="J238" s="2"/>
-      <c r="K238" s="1"/>
-      <c r="L238" s="1"/>
-      <c r="M238" s="1"/>
-      <c r="N238" s="1"/>
-      <c r="O238" s="1"/>
-      <c r="P238" s="1"/>
-      <c r="Q238" s="1"/>
-      <c r="R238" s="1"/>
-      <c r="S238" s="1"/>
-      <c r="T238" s="1"/>
-      <c r="U238" s="1"/>
-      <c r="V238" s="1"/>
-      <c r="W238" s="1"/>
-      <c r="X238" s="1"/>
-      <c r="Y238" s="1"/>
-      <c r="Z238" s="1"/>
-      <c r="AA238" s="1"/>
-      <c r="AB238" s="1"/>
-      <c r="AC238" s="1"/>
-      <c r="AD238" s="1"/>
-      <c r="AE238" s="1"/>
-      <c r="AF238" s="1"/>
-    </row>
-    <row r="239" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B239" s="1"/>
-      <c r="C239" s="2"/>
-      <c r="D239" s="1"/>
-      <c r="E239" s="2"/>
-      <c r="F239" s="2"/>
-      <c r="G239" s="2"/>
-      <c r="H239" s="2"/>
-      <c r="I239" s="2"/>
-      <c r="J239" s="2"/>
-      <c r="K239" s="1"/>
-      <c r="L239" s="1"/>
-      <c r="M239" s="1"/>
-      <c r="N239" s="1"/>
-      <c r="O239" s="1"/>
-      <c r="P239" s="1"/>
-      <c r="Q239" s="1"/>
-      <c r="R239" s="1"/>
-      <c r="S239" s="1"/>
-      <c r="T239" s="1"/>
-      <c r="U239" s="1"/>
-      <c r="V239" s="1"/>
-      <c r="W239" s="1"/>
-      <c r="X239" s="1"/>
-      <c r="Y239" s="1"/>
-      <c r="Z239" s="1"/>
-      <c r="AA239" s="1"/>
-      <c r="AB239" s="1"/>
-      <c r="AC239" s="1"/>
-      <c r="AD239" s="1"/>
-      <c r="AE239" s="1"/>
-      <c r="AF239" s="1"/>
-    </row>
-    <row r="240" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B240" s="1"/>
-      <c r="C240" s="2"/>
-      <c r="D240" s="1"/>
-      <c r="E240" s="2"/>
-      <c r="F240" s="2"/>
-      <c r="G240" s="2"/>
-      <c r="H240" s="2"/>
-      <c r="I240" s="2"/>
-      <c r="J240" s="2"/>
-      <c r="K240" s="1"/>
-      <c r="L240" s="1"/>
-      <c r="M240" s="1"/>
-      <c r="N240" s="1"/>
-      <c r="O240" s="1"/>
-      <c r="P240" s="1"/>
-      <c r="Q240" s="1"/>
-      <c r="R240" s="1"/>
-      <c r="S240" s="1"/>
-      <c r="T240" s="1"/>
-      <c r="U240" s="1"/>
-      <c r="V240" s="1"/>
-      <c r="W240" s="1"/>
-      <c r="X240" s="1"/>
-      <c r="Y240" s="1"/>
-      <c r="Z240" s="1"/>
-      <c r="AA240" s="1"/>
-      <c r="AB240" s="1"/>
-      <c r="AC240" s="1"/>
-      <c r="AD240" s="1"/>
-      <c r="AE240" s="1"/>
-      <c r="AF240" s="1"/>
-    </row>
-    <row r="241" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B241" s="1"/>
-      <c r="C241" s="2"/>
-      <c r="D241" s="1"/>
-      <c r="E241" s="2"/>
-      <c r="F241" s="2"/>
-      <c r="G241" s="2"/>
-      <c r="H241" s="2"/>
-      <c r="I241" s="2"/>
-      <c r="J241" s="2"/>
-      <c r="K241" s="1"/>
-      <c r="L241" s="1"/>
-      <c r="M241" s="1"/>
-      <c r="N241" s="1"/>
-      <c r="O241" s="1"/>
-      <c r="P241" s="1"/>
-      <c r="Q241" s="1"/>
-      <c r="R241" s="1"/>
-      <c r="S241" s="1"/>
-      <c r="T241" s="1"/>
-      <c r="U241" s="1"/>
-      <c r="V241" s="1"/>
-      <c r="W241" s="1"/>
-      <c r="X241" s="1"/>
-      <c r="Y241" s="1"/>
-      <c r="Z241" s="1"/>
-      <c r="AA241" s="1"/>
-      <c r="AB241" s="1"/>
-      <c r="AC241" s="1"/>
-      <c r="AD241" s="1"/>
-      <c r="AE241" s="1"/>
-      <c r="AF241" s="1"/>
-    </row>
-    <row r="242" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B242" s="1"/>
-      <c r="C242" s="2"/>
-      <c r="D242" s="1"/>
-      <c r="E242" s="2"/>
-      <c r="F242" s="2"/>
-      <c r="G242" s="2"/>
-      <c r="H242" s="2"/>
-      <c r="I242" s="2"/>
-      <c r="J242" s="2"/>
-      <c r="K242" s="1"/>
-      <c r="L242" s="1"/>
-      <c r="M242" s="1"/>
-      <c r="N242" s="1"/>
-      <c r="O242" s="1"/>
-      <c r="P242" s="1"/>
-      <c r="Q242" s="1"/>
-      <c r="R242" s="1"/>
-      <c r="S242" s="1"/>
-      <c r="T242" s="1"/>
-      <c r="U242" s="1"/>
-      <c r="V242" s="1"/>
-      <c r="W242" s="1"/>
-      <c r="X242" s="1"/>
-      <c r="Y242" s="1"/>
-      <c r="Z242" s="1"/>
-      <c r="AA242" s="1"/>
-      <c r="AB242" s="1"/>
-      <c r="AC242" s="1"/>
-      <c r="AD242" s="1"/>
-      <c r="AE242" s="1"/>
-      <c r="AF242" s="1"/>
-    </row>
-    <row r="243" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B243" s="1"/>
-      <c r="C243" s="2"/>
-      <c r="D243" s="1"/>
-      <c r="E243" s="2"/>
-      <c r="F243" s="2"/>
-      <c r="G243" s="2"/>
-      <c r="H243" s="2"/>
-      <c r="I243" s="2"/>
-      <c r="J243" s="2"/>
-      <c r="K243" s="1"/>
-      <c r="L243" s="1"/>
-      <c r="M243" s="1"/>
-      <c r="N243" s="1"/>
-      <c r="O243" s="1"/>
-      <c r="P243" s="1"/>
-      <c r="Q243" s="1"/>
-      <c r="R243" s="1"/>
-      <c r="S243" s="1"/>
-      <c r="T243" s="1"/>
-      <c r="U243" s="1"/>
-      <c r="V243" s="1"/>
-      <c r="W243" s="1"/>
-      <c r="X243" s="1"/>
-      <c r="Y243" s="1"/>
-      <c r="Z243" s="1"/>
-      <c r="AA243" s="1"/>
-      <c r="AB243" s="1"/>
-      <c r="AC243" s="1"/>
-      <c r="AD243" s="1"/>
-      <c r="AE243" s="1"/>
-      <c r="AF243" s="1"/>
-    </row>
-    <row r="244" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B244" s="1"/>
-      <c r="C244" s="2"/>
-      <c r="D244" s="1"/>
-      <c r="E244" s="2"/>
-      <c r="F244" s="2"/>
-      <c r="G244" s="2"/>
-      <c r="H244" s="2"/>
-      <c r="I244" s="2"/>
-      <c r="J244" s="2"/>
-      <c r="K244" s="1"/>
-      <c r="L244" s="1"/>
-      <c r="M244" s="1"/>
-      <c r="N244" s="1"/>
-      <c r="O244" s="1"/>
-      <c r="P244" s="1"/>
-      <c r="Q244" s="1"/>
-      <c r="R244" s="1"/>
-      <c r="S244" s="1"/>
-      <c r="T244" s="1"/>
-      <c r="U244" s="1"/>
-      <c r="V244" s="1"/>
-      <c r="W244" s="1"/>
-      <c r="X244" s="1"/>
-      <c r="Y244" s="1"/>
-      <c r="Z244" s="1"/>
-      <c r="AA244" s="1"/>
-      <c r="AB244" s="1"/>
-      <c r="AC244" s="1"/>
-      <c r="AD244" s="1"/>
-      <c r="AE244" s="1"/>
-      <c r="AF244" s="1"/>
-    </row>
-    <row r="245" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B245" s="1"/>
-      <c r="C245" s="2"/>
-      <c r="D245" s="1"/>
-      <c r="E245" s="2"/>
-      <c r="F245" s="2"/>
-      <c r="G245" s="2"/>
-      <c r="H245" s="2"/>
-      <c r="I245" s="2"/>
-      <c r="J245" s="2"/>
-      <c r="K245" s="1"/>
-      <c r="L245" s="1"/>
-      <c r="M245" s="1"/>
-      <c r="N245" s="1"/>
-      <c r="O245" s="1"/>
-      <c r="P245" s="1"/>
-      <c r="Q245" s="1"/>
-      <c r="R245" s="1"/>
-      <c r="S245" s="1"/>
-      <c r="T245" s="1"/>
-      <c r="U245" s="1"/>
-      <c r="V245" s="1"/>
-      <c r="W245" s="1"/>
-      <c r="X245" s="1"/>
-      <c r="Y245" s="1"/>
-      <c r="Z245" s="1"/>
-      <c r="AA245" s="1"/>
-      <c r="AB245" s="1"/>
-      <c r="AC245" s="1"/>
-      <c r="AD245" s="1"/>
-      <c r="AE245" s="1"/>
-      <c r="AF245" s="1"/>
-    </row>
-    <row r="246" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B246" s="1"/>
-      <c r="C246" s="2"/>
-      <c r="D246" s="1"/>
-      <c r="E246" s="2"/>
-      <c r="F246" s="2"/>
-      <c r="G246" s="2"/>
-      <c r="H246" s="2"/>
-      <c r="I246" s="2"/>
-      <c r="J246" s="2"/>
-      <c r="K246" s="1"/>
-      <c r="L246" s="1"/>
-      <c r="M246" s="1"/>
-      <c r="N246" s="1"/>
-      <c r="O246" s="1"/>
-      <c r="P246" s="1"/>
-      <c r="Q246" s="1"/>
-      <c r="R246" s="1"/>
-      <c r="S246" s="1"/>
-      <c r="T246" s="1"/>
-      <c r="U246" s="1"/>
-      <c r="V246" s="1"/>
-      <c r="W246" s="1"/>
-      <c r="X246" s="1"/>
-      <c r="Y246" s="1"/>
-      <c r="Z246" s="1"/>
-      <c r="AA246" s="1"/>
-      <c r="AB246" s="1"/>
-      <c r="AC246" s="1"/>
-      <c r="AD246" s="1"/>
-      <c r="AE246" s="1"/>
-      <c r="AF246" s="1"/>
-    </row>
-    <row r="247" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B247" s="1"/>
-      <c r="C247" s="2"/>
-      <c r="D247" s="1"/>
-      <c r="E247" s="2"/>
-      <c r="F247" s="2"/>
-      <c r="G247" s="2"/>
-      <c r="H247" s="2"/>
-      <c r="I247" s="2"/>
-      <c r="J247" s="2"/>
-      <c r="K247" s="1"/>
-      <c r="L247" s="1"/>
-      <c r="M247" s="1"/>
-      <c r="N247" s="1"/>
-      <c r="O247" s="1"/>
-      <c r="P247" s="1"/>
-      <c r="Q247" s="1"/>
-      <c r="R247" s="1"/>
-      <c r="S247" s="1"/>
-      <c r="T247" s="1"/>
-      <c r="U247" s="1"/>
-      <c r="V247" s="1"/>
-      <c r="W247" s="1"/>
-      <c r="X247" s="1"/>
-      <c r="Y247" s="1"/>
-      <c r="Z247" s="1"/>
-      <c r="AA247" s="1"/>
-      <c r="AB247" s="1"/>
-      <c r="AC247" s="1"/>
-      <c r="AD247" s="1"/>
-      <c r="AE247" s="1"/>
-      <c r="AF247" s="1"/>
-    </row>
-    <row r="248" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B248" s="1"/>
-      <c r="C248" s="2"/>
-      <c r="D248" s="1"/>
-      <c r="E248" s="2"/>
-      <c r="F248" s="2"/>
-      <c r="G248" s="2"/>
-      <c r="H248" s="2"/>
-      <c r="I248" s="2"/>
-      <c r="J248" s="2"/>
-      <c r="K248" s="1"/>
-      <c r="L248" s="1"/>
-      <c r="M248" s="1"/>
-      <c r="N248" s="1"/>
-      <c r="O248" s="1"/>
-      <c r="P248" s="1"/>
-      <c r="Q248" s="1"/>
-      <c r="R248" s="1"/>
-      <c r="S248" s="1"/>
-      <c r="T248" s="1"/>
-      <c r="U248" s="1"/>
-      <c r="V248" s="1"/>
-      <c r="W248" s="1"/>
-      <c r="X248" s="1"/>
-      <c r="Y248" s="1"/>
-      <c r="Z248" s="1"/>
-      <c r="AA248" s="1"/>
-      <c r="AB248" s="1"/>
-      <c r="AC248" s="1"/>
-      <c r="AD248" s="1"/>
-      <c r="AE248" s="1"/>
-      <c r="AF248" s="1"/>
-    </row>
-    <row r="249" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B249" s="1"/>
-      <c r="C249" s="2"/>
-      <c r="D249" s="1"/>
-      <c r="E249" s="2"/>
-      <c r="F249" s="2"/>
-      <c r="G249" s="2"/>
-      <c r="H249" s="2"/>
-      <c r="I249" s="2"/>
-      <c r="J249" s="2"/>
-      <c r="K249" s="1"/>
-      <c r="L249" s="1"/>
-      <c r="M249" s="1"/>
-      <c r="N249" s="1"/>
-      <c r="O249" s="1"/>
-      <c r="P249" s="1"/>
-      <c r="Q249" s="1"/>
-      <c r="R249" s="1"/>
-      <c r="S249" s="1"/>
-      <c r="T249" s="1"/>
-      <c r="U249" s="1"/>
-      <c r="V249" s="1"/>
-      <c r="W249" s="1"/>
-      <c r="X249" s="1"/>
-      <c r="Y249" s="1"/>
-      <c r="Z249" s="1"/>
-      <c r="AA249" s="1"/>
-      <c r="AB249" s="1"/>
-      <c r="AC249" s="1"/>
-      <c r="AD249" s="1"/>
-      <c r="AE249" s="1"/>
-      <c r="AF249" s="1"/>
-    </row>
-    <row r="250" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B250" s="1"/>
-      <c r="C250" s="2"/>
-      <c r="D250" s="1"/>
-      <c r="E250" s="2"/>
-      <c r="F250" s="2"/>
-      <c r="G250" s="2"/>
-      <c r="H250" s="2"/>
-      <c r="I250" s="2"/>
-      <c r="J250" s="2"/>
-      <c r="K250" s="1"/>
-      <c r="L250" s="1"/>
-      <c r="M250" s="1"/>
-      <c r="N250" s="1"/>
-      <c r="O250" s="1"/>
-      <c r="P250" s="1"/>
-      <c r="Q250" s="1"/>
-      <c r="R250" s="1"/>
-      <c r="S250" s="1"/>
-      <c r="T250" s="1"/>
-      <c r="U250" s="1"/>
-      <c r="V250" s="1"/>
-      <c r="W250" s="1"/>
-      <c r="X250" s="1"/>
-      <c r="Y250" s="1"/>
-      <c r="Z250" s="1"/>
-      <c r="AA250" s="1"/>
-      <c r="AB250" s="1"/>
-      <c r="AC250" s="1"/>
-      <c r="AD250" s="1"/>
-      <c r="AE250" s="1"/>
-      <c r="AF250" s="1"/>
-    </row>
-    <row r="251" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B251" s="1"/>
-      <c r="C251" s="2"/>
-      <c r="D251" s="1"/>
-      <c r="E251" s="2"/>
-      <c r="F251" s="2"/>
-      <c r="G251" s="2"/>
-      <c r="H251" s="2"/>
-      <c r="I251" s="2"/>
-      <c r="J251" s="2"/>
-      <c r="K251" s="1"/>
-      <c r="L251" s="1"/>
-      <c r="M251" s="1"/>
-      <c r="N251" s="1"/>
-      <c r="O251" s="1"/>
-      <c r="P251" s="1"/>
-      <c r="Q251" s="1"/>
-      <c r="R251" s="1"/>
-      <c r="S251" s="1"/>
-      <c r="T251" s="1"/>
-      <c r="U251" s="1"/>
-      <c r="V251" s="1"/>
-      <c r="W251" s="1"/>
-      <c r="X251" s="1"/>
-      <c r="Y251" s="1"/>
-      <c r="Z251" s="1"/>
-      <c r="AA251" s="1"/>
-      <c r="AB251" s="1"/>
-      <c r="AC251" s="1"/>
-      <c r="AD251" s="1"/>
-      <c r="AE251" s="1"/>
-      <c r="AF251" s="1"/>
-    </row>
-    <row r="252" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B252" s="1"/>
-      <c r="C252" s="2"/>
-      <c r="D252" s="1"/>
-      <c r="E252" s="2"/>
-      <c r="F252" s="2"/>
-      <c r="G252" s="2"/>
-      <c r="H252" s="2"/>
-      <c r="I252" s="2"/>
-      <c r="J252" s="2"/>
-      <c r="K252" s="1"/>
-      <c r="L252" s="1"/>
-      <c r="M252" s="1"/>
-      <c r="N252" s="1"/>
-      <c r="O252" s="1"/>
-      <c r="P252" s="1"/>
-      <c r="Q252" s="1"/>
-      <c r="R252" s="1"/>
-      <c r="S252" s="1"/>
-      <c r="T252" s="1"/>
-      <c r="U252" s="1"/>
-      <c r="V252" s="1"/>
-      <c r="W252" s="1"/>
-      <c r="X252" s="1"/>
-      <c r="Y252" s="1"/>
-      <c r="Z252" s="1"/>
-      <c r="AA252" s="1"/>
-      <c r="AB252" s="1"/>
-      <c r="AC252" s="1"/>
-      <c r="AD252" s="1"/>
-      <c r="AE252" s="1"/>
-      <c r="AF252" s="1"/>
-    </row>
-    <row r="253" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B253" s="1"/>
-      <c r="C253" s="2"/>
-      <c r="D253" s="1"/>
-      <c r="E253" s="2"/>
-      <c r="F253" s="2"/>
-      <c r="G253" s="2"/>
-      <c r="H253" s="2"/>
-      <c r="I253" s="2"/>
-      <c r="J253" s="2"/>
-      <c r="K253" s="1"/>
-      <c r="L253" s="1"/>
-      <c r="M253" s="1"/>
-      <c r="N253" s="1"/>
-      <c r="O253" s="1"/>
-      <c r="P253" s="1"/>
-      <c r="Q253" s="1"/>
-      <c r="R253" s="1"/>
-      <c r="S253" s="1"/>
-      <c r="T253" s="1"/>
-      <c r="U253" s="1"/>
-      <c r="V253" s="1"/>
-      <c r="W253" s="1"/>
-      <c r="X253" s="1"/>
-      <c r="Y253" s="1"/>
-      <c r="Z253" s="1"/>
-      <c r="AA253" s="1"/>
-      <c r="AB253" s="1"/>
-      <c r="AC253" s="1"/>
-      <c r="AD253" s="1"/>
-      <c r="AE253" s="1"/>
-      <c r="AF253" s="1"/>
-    </row>
-    <row r="254" spans="2:32" ht="15.75" customHeight="1">
-      <c r="B254" s="1"/>
-      <c r="C254" s="2"/>
-      <c r="D254" s="1"/>
-      <c r="E254" s="2"/>
-      <c r="F254" s="2"/>
-      <c r="G254" s="2"/>
-      <c r="H254" s="2"/>
-      <c r="I254" s="2"/>
-      <c r="J254" s="2"/>
-      <c r="K254" s="1"/>
-      <c r="L254" s="1"/>
-      <c r="M254" s="1"/>
-      <c r="N254" s="1"/>
-      <c r="O254" s="1"/>
-      <c r="P254" s="1"/>
-      <c r="Q254" s="1"/>
-      <c r="R254" s="1"/>
-      <c r="S254" s="1"/>
-      <c r="T254" s="1"/>
-      <c r="U254" s="1"/>
-      <c r="V254" s="1"/>
-      <c r="W254" s="1"/>
-      <c r="X254" s="1"/>
-      <c r="Y254" s="1"/>
-      <c r="Z254" s="1"/>
-      <c r="AA254" s="1"/>
-      <c r="AB254" s="1"/>
-      <c r="AC254" s="1"/>
-      <c r="AD254" s="1"/>
-      <c r="AE254" s="1"/>
-      <c r="AF254" s="1"/>
-    </row>
-    <row r="255" spans="2:32" ht="15.75" customHeight="1"/>
-    <row r="256" spans="2:32" ht="15.75" customHeight="1"/>
+    </row>
+    <row r="223" spans="2:31" ht="15.75" customHeight="1"/>
+    <row r="224" spans="2:31" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
     <row r="257" ht="15.75" customHeight="1"/>
     <row r="258" ht="15.75" customHeight="1"/>
     <row r="259" ht="15.75" customHeight="1"/>
@@ -11360,65 +9844,13 @@
     <row r="981" ht="15.75" customHeight="1"/>
     <row r="982" ht="15.75" customHeight="1"/>
     <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
-    <row r="1001" ht="15.75" customHeight="1"/>
-    <row r="1002" ht="15.75" customHeight="1"/>
-    <row r="1003" ht="15.75" customHeight="1"/>
-    <row r="1004" ht="15.75" customHeight="1"/>
-    <row r="1005" ht="15.75" customHeight="1"/>
-    <row r="1006" ht="15.75" customHeight="1"/>
-    <row r="1007" ht="15.75" customHeight="1"/>
-    <row r="1008" ht="15.75" customHeight="1"/>
-    <row r="1009" ht="15.75" customHeight="1"/>
-    <row r="1010" ht="15.75" customHeight="1"/>
-    <row r="1011" ht="15.75" customHeight="1"/>
-    <row r="1012" ht="15.75" customHeight="1"/>
-    <row r="1013" ht="15.75" customHeight="1"/>
-    <row r="1014" ht="15.75" customHeight="1"/>
-    <row r="1015" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="E50:E52"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="E28:E33"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="E43:E46"/>
-    <mergeCell ref="C2:N3"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C18:C23"/>
-    <mergeCell ref="C12:C17"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="E12:E17"/>
-    <mergeCell ref="E18:E23"/>
-    <mergeCell ref="B39:B52"/>
-    <mergeCell ref="B8:B36"/>
-    <mergeCell ref="C28:C33"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="C43:C46"/>
+  <mergeCells count="5">
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="D8:D14"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -11434,21 +9866,21 @@
       <selection activeCell="B13" sqref="B13:D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" customWidth="1"/>
-    <col min="4" max="4" width="111.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" customWidth="1"/>
+    <col min="3" max="3" width="38.44140625" customWidth="1"/>
+    <col min="4" max="4" width="111.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
     <col min="7" max="7" width="19" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="24.140625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="24.109375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="26.85546875" customWidth="1"/>
+    <col min="12" max="12" width="26.88671875" customWidth="1"/>
     <col min="13" max="13" width="44" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="13.88671875" hidden="1" customWidth="1"/>
     <col min="15" max="16" width="20" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11489,22 +9921,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="84"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="90"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -11526,20 +9958,20 @@
     </row>
     <row r="3" spans="1:33" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="87"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="93"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -11687,13 +10119,13 @@
       <c r="F7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="88" t="s">
+      <c r="G7" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="90"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="96"/>
       <c r="L7" s="5" t="s">
         <v>19</v>
       </c>
@@ -11772,20 +10204,20 @@
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
     </row>
-    <row r="9" spans="1:33" ht="46.9" customHeight="1">
-      <c r="A9" s="74" t="s">
+    <row r="9" spans="1:33" ht="46.95" customHeight="1">
+      <c r="A9" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33" t="s">
-        <v>157</v>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31" t="s">
+        <v>151</v>
       </c>
       <c r="E9" s="21"/>
       <c r="F9" s="21" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
@@ -11821,20 +10253,20 @@
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
     </row>
-    <row r="10" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A10" s="75"/>
-      <c r="B10" s="91" t="s">
+    <row r="10" spans="1:33" ht="28.95" customHeight="1">
+      <c r="A10" s="103"/>
+      <c r="B10" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="54" t="s">
-        <v>155</v>
+      <c r="D10" s="51" t="s">
+        <v>149</v>
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="20" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
@@ -11842,7 +10274,7 @@
       <c r="J10" s="22"/>
       <c r="K10" s="22"/>
       <c r="L10" s="23"/>
-      <c r="M10" s="41"/>
+      <c r="M10" s="39"/>
       <c r="N10" s="17">
         <v>1</v>
       </c>
@@ -11871,17 +10303,17 @@
       <c r="AG10" s="1"/>
     </row>
     <row r="11" spans="1:33" ht="63" customHeight="1">
-      <c r="A11" s="75"/>
-      <c r="B11" s="80"/>
-      <c r="C11" s="53" t="s">
+      <c r="A11" s="103"/>
+      <c r="B11" s="98"/>
+      <c r="C11" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="54" t="s">
-        <v>153</v>
+      <c r="D11" s="51" t="s">
+        <v>147</v>
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="20" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
@@ -11889,7 +10321,7 @@
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
       <c r="L11" s="23"/>
-      <c r="M11" s="41"/>
+      <c r="M11" s="39"/>
       <c r="N11" s="17"/>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
@@ -11911,18 +10343,18 @@
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
     </row>
-    <row r="12" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A12" s="75"/>
-      <c r="B12" s="92"/>
-      <c r="C12" s="55" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="56" t="s">
-        <v>154</v>
+    <row r="12" spans="1:33" ht="28.95" customHeight="1">
+      <c r="A12" s="103"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>148</v>
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="20" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G12" s="22"/>
       <c r="H12" s="22"/>
@@ -11930,7 +10362,7 @@
       <c r="J12" s="22"/>
       <c r="K12" s="22"/>
       <c r="L12" s="23"/>
-      <c r="M12" s="41"/>
+      <c r="M12" s="39"/>
       <c r="N12" s="17"/>
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
@@ -11952,20 +10384,20 @@
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
     </row>
-    <row r="13" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A13" s="75"/>
-      <c r="B13" s="77" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="68" t="s">
-        <v>68</v>
+    <row r="13" spans="1:33" ht="28.95" customHeight="1">
+      <c r="A13" s="103"/>
+      <c r="B13" s="109" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="65" t="s">
+        <v>66</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="20" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G13" s="22"/>
       <c r="H13" s="22"/>
@@ -11973,7 +10405,7 @@
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
       <c r="L13" s="23"/>
-      <c r="M13" s="41"/>
+      <c r="M13" s="39"/>
       <c r="N13" s="17"/>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
@@ -11995,18 +10427,18 @@
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
     </row>
-    <row r="14" spans="1:33" ht="46.9" customHeight="1">
-      <c r="A14" s="75"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>91</v>
+    <row r="14" spans="1:33" ht="46.95" customHeight="1">
+      <c r="A14" s="103"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>88</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="20" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
@@ -12014,7 +10446,7 @@
       <c r="J14" s="22"/>
       <c r="K14" s="22"/>
       <c r="L14" s="23"/>
-      <c r="M14" s="41"/>
+      <c r="M14" s="39"/>
       <c r="N14" s="17"/>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
@@ -12036,18 +10468,18 @@
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
     </row>
-    <row r="15" spans="1:33" ht="40.5">
-      <c r="A15" s="75"/>
-      <c r="B15" s="78"/>
-      <c r="C15" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>126</v>
+    <row r="15" spans="1:33" ht="46.8">
+      <c r="A15" s="103"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>120</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="20" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G15" s="22"/>
       <c r="H15" s="22"/>
@@ -12055,7 +10487,7 @@
       <c r="J15" s="22"/>
       <c r="K15" s="22"/>
       <c r="L15" s="23"/>
-      <c r="M15" s="41"/>
+      <c r="M15" s="39"/>
       <c r="N15" s="17"/>
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
@@ -12077,18 +10509,18 @@
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
     </row>
-    <row r="16" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A16" s="75"/>
-      <c r="B16" s="78"/>
-      <c r="C16" s="57" t="s">
-        <v>111</v>
-      </c>
-      <c r="D16" s="56" t="s">
-        <v>113</v>
+    <row r="16" spans="1:33" ht="28.95" customHeight="1">
+      <c r="A16" s="103"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="53" t="s">
+        <v>108</v>
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="20" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G16" s="22"/>
       <c r="H16" s="22"/>
@@ -12096,7 +10528,7 @@
       <c r="J16" s="22"/>
       <c r="K16" s="22"/>
       <c r="L16" s="23"/>
-      <c r="M16" s="41"/>
+      <c r="M16" s="39"/>
       <c r="N16" s="17"/>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
@@ -12118,18 +10550,18 @@
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
     </row>
-    <row r="17" spans="1:33" ht="46.9" customHeight="1">
-      <c r="A17" s="75"/>
-      <c r="B17" s="78"/>
-      <c r="C17" s="57" t="s">
-        <v>114</v>
-      </c>
-      <c r="D17" s="56" t="s">
-        <v>151</v>
+    <row r="17" spans="1:33" ht="46.95" customHeight="1">
+      <c r="A17" s="103"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="53" t="s">
+        <v>145</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="20" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G17" s="22"/>
       <c r="H17" s="22"/>
@@ -12137,7 +10569,7 @@
       <c r="J17" s="22"/>
       <c r="K17" s="22"/>
       <c r="L17" s="23"/>
-      <c r="M17" s="41"/>
+      <c r="M17" s="39"/>
       <c r="N17" s="17"/>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
@@ -12159,18 +10591,18 @@
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
     </row>
-    <row r="18" spans="1:33" ht="46.9" customHeight="1">
-      <c r="A18" s="75"/>
-      <c r="B18" s="79"/>
-      <c r="C18" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="D18" s="56" t="s">
-        <v>152</v>
+    <row r="18" spans="1:33" ht="46.95" customHeight="1">
+      <c r="A18" s="103"/>
+      <c r="B18" s="110"/>
+      <c r="C18" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>146</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="20" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
@@ -12178,7 +10610,7 @@
       <c r="J18" s="22"/>
       <c r="K18" s="22"/>
       <c r="L18" s="23"/>
-      <c r="M18" s="41"/>
+      <c r="M18" s="39"/>
       <c r="N18" s="17"/>
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
@@ -12201,19 +10633,19 @@
       <c r="AG18" s="1"/>
     </row>
     <row r="19" spans="1:33" ht="50.25" customHeight="1">
-      <c r="A19" s="75"/>
-      <c r="B19" s="77" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="34" t="s">
+      <c r="A19" s="103"/>
+      <c r="B19" s="109" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="33" t="s">
-        <v>156</v>
+      <c r="D19" s="31" t="s">
+        <v>150</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="20" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
@@ -12221,7 +10653,7 @@
       <c r="J19" s="22"/>
       <c r="K19" s="22"/>
       <c r="L19" s="23"/>
-      <c r="M19" s="41"/>
+      <c r="M19" s="39"/>
       <c r="N19" s="17">
         <v>2</v>
       </c>
@@ -12249,18 +10681,18 @@
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
     </row>
-    <row r="20" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A20" s="75"/>
-      <c r="B20" s="78"/>
-      <c r="C20" s="34" t="s">
+    <row r="20" spans="1:33" ht="28.95" customHeight="1">
+      <c r="A20" s="103"/>
+      <c r="B20" s="99"/>
+      <c r="C20" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="31" t="s">
         <v>55</v>
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="20" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
@@ -12268,7 +10700,7 @@
       <c r="J20" s="22"/>
       <c r="K20" s="22"/>
       <c r="L20" s="23"/>
-      <c r="M20" s="41"/>
+      <c r="M20" s="39"/>
       <c r="N20" s="17"/>
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
@@ -12290,18 +10722,18 @@
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
     </row>
-    <row r="21" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A21" s="75"/>
-      <c r="B21" s="78"/>
-      <c r="C21" s="34" t="s">
+    <row r="21" spans="1:33" ht="28.95" customHeight="1">
+      <c r="A21" s="103"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="33" t="s">
-        <v>92</v>
+      <c r="D21" s="31" t="s">
+        <v>89</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="20" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="G21" s="22"/>
       <c r="H21" s="22"/>
@@ -12309,7 +10741,7 @@
       <c r="J21" s="22"/>
       <c r="K21" s="22"/>
       <c r="L21" s="23"/>
-      <c r="M21" s="41"/>
+      <c r="M21" s="39"/>
       <c r="N21" s="17"/>
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
@@ -12332,17 +10764,17 @@
       <c r="AG21" s="1"/>
     </row>
     <row r="22" spans="1:33" ht="44.25" customHeight="1">
-      <c r="A22" s="75"/>
-      <c r="B22" s="78"/>
-      <c r="C22" s="55" t="s">
+      <c r="A22" s="103"/>
+      <c r="B22" s="99"/>
+      <c r="C22" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="56" t="s">
-        <v>93</v>
+      <c r="D22" s="53" t="s">
+        <v>90</v>
       </c>
       <c r="E22" s="20"/>
       <c r="F22" s="20" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="G22" s="22"/>
       <c r="H22" s="22"/>
@@ -12350,7 +10782,7 @@
       <c r="J22" s="22"/>
       <c r="K22" s="22"/>
       <c r="L22" s="23"/>
-      <c r="M22" s="25"/>
+      <c r="M22" s="24"/>
       <c r="N22" s="17">
         <v>1</v>
       </c>
@@ -12378,18 +10810,18 @@
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
     </row>
-    <row r="23" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A23" s="75"/>
-      <c r="B23" s="78"/>
-      <c r="C23" s="34" t="s">
+    <row r="23" spans="1:33" ht="28.95" customHeight="1">
+      <c r="A23" s="103"/>
+      <c r="B23" s="99"/>
+      <c r="C23" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="33" t="s">
-        <v>94</v>
+      <c r="D23" s="31" t="s">
+        <v>91</v>
       </c>
       <c r="E23" s="20"/>
       <c r="F23" s="20" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="G23" s="22"/>
       <c r="H23" s="22"/>
@@ -12397,7 +10829,7 @@
       <c r="J23" s="22"/>
       <c r="K23" s="22"/>
       <c r="L23" s="23"/>
-      <c r="M23" s="25"/>
+      <c r="M23" s="24"/>
       <c r="N23" s="17"/>
       <c r="O23" s="10"/>
       <c r="P23" s="10"/>
@@ -12419,18 +10851,18 @@
       <c r="AF23" s="1"/>
       <c r="AG23" s="1"/>
     </row>
-    <row r="24" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A24" s="75"/>
-      <c r="B24" s="79"/>
-      <c r="C24" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="68" t="s">
-        <v>72</v>
+    <row r="24" spans="1:33" ht="28.95" customHeight="1">
+      <c r="A24" s="103"/>
+      <c r="B24" s="110"/>
+      <c r="C24" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="65" t="s">
+        <v>70</v>
       </c>
       <c r="E24" s="20"/>
       <c r="F24" s="20" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="G24" s="22"/>
       <c r="H24" s="22"/>
@@ -12438,7 +10870,7 @@
       <c r="J24" s="22"/>
       <c r="K24" s="22"/>
       <c r="L24" s="23"/>
-      <c r="M24" s="41"/>
+      <c r="M24" s="39"/>
       <c r="N24" s="17">
         <v>1</v>
       </c>
@@ -12466,20 +10898,20 @@
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
     </row>
-    <row r="25" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A25" s="75"/>
-      <c r="B25" s="94" t="s">
-        <v>99</v>
-      </c>
-      <c r="C25" s="57" t="s">
+    <row r="25" spans="1:33" ht="28.95" customHeight="1">
+      <c r="A25" s="103"/>
+      <c r="B25" s="111" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="56" t="s">
+      <c r="D25" s="53" t="s">
         <v>59</v>
       </c>
       <c r="E25" s="20"/>
       <c r="F25" s="20" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G25" s="22"/>
       <c r="H25" s="22"/>
@@ -12487,7 +10919,7 @@
       <c r="J25" s="22"/>
       <c r="K25" s="22"/>
       <c r="L25" s="23"/>
-      <c r="M25" s="41"/>
+      <c r="M25" s="39"/>
       <c r="N25" s="17"/>
       <c r="O25" s="10"/>
       <c r="P25" s="10"/>
@@ -12509,18 +10941,18 @@
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
     </row>
-    <row r="26" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A26" s="75"/>
-      <c r="B26" s="95"/>
-      <c r="C26" s="57" t="s">
+    <row r="26" spans="1:33" ht="28.95" customHeight="1">
+      <c r="A26" s="103"/>
+      <c r="B26" s="112"/>
+      <c r="C26" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="58" t="s">
-        <v>95</v>
+      <c r="D26" s="55" t="s">
+        <v>92</v>
       </c>
       <c r="E26" s="20"/>
       <c r="F26" s="20" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G26" s="22"/>
       <c r="H26" s="22"/>
@@ -12528,7 +10960,7 @@
       <c r="J26" s="22"/>
       <c r="K26" s="22"/>
       <c r="L26" s="23"/>
-      <c r="M26" s="41"/>
+      <c r="M26" s="39"/>
       <c r="N26" s="17"/>
       <c r="O26" s="10"/>
       <c r="P26" s="10"/>
@@ -12550,18 +10982,18 @@
       <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
     </row>
-    <row r="27" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A27" s="75"/>
-      <c r="B27" s="95"/>
-      <c r="C27" s="57" t="s">
+    <row r="27" spans="1:33" ht="28.95" customHeight="1">
+      <c r="A27" s="103"/>
+      <c r="B27" s="112"/>
+      <c r="C27" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="58" t="s">
-        <v>110</v>
+      <c r="D27" s="55" t="s">
+        <v>105</v>
       </c>
       <c r="E27" s="20"/>
       <c r="F27" s="20" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G27" s="22"/>
       <c r="H27" s="22"/>
@@ -12569,7 +11001,7 @@
       <c r="J27" s="22"/>
       <c r="K27" s="22"/>
       <c r="L27" s="23"/>
-      <c r="M27" s="41"/>
+      <c r="M27" s="39"/>
       <c r="N27" s="17"/>
       <c r="O27" s="10"/>
       <c r="P27" s="10"/>
@@ -12591,18 +11023,18 @@
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
     </row>
-    <row r="28" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A28" s="75"/>
-      <c r="B28" s="96"/>
-      <c r="C28" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="58" t="s">
-        <v>74</v>
+    <row r="28" spans="1:33" ht="28.95" customHeight="1">
+      <c r="A28" s="103"/>
+      <c r="B28" s="113"/>
+      <c r="C28" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="55" t="s">
+        <v>72</v>
       </c>
       <c r="E28" s="20"/>
       <c r="F28" s="20" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G28" s="22"/>
       <c r="H28" s="22"/>
@@ -12610,7 +11042,7 @@
       <c r="J28" s="22"/>
       <c r="K28" s="22"/>
       <c r="L28" s="23"/>
-      <c r="M28" s="41"/>
+      <c r="M28" s="39"/>
       <c r="N28" s="17"/>
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
@@ -12632,20 +11064,20 @@
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
     </row>
-    <row r="29" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A29" s="75"/>
-      <c r="B29" s="77" t="s">
+    <row r="29" spans="1:33" ht="28.95" customHeight="1">
+      <c r="A29" s="103"/>
+      <c r="B29" s="109" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="D29" s="33" t="s">
-        <v>144</v>
+      <c r="C29" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>138</v>
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="20" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G29" s="22"/>
       <c r="H29" s="22"/>
@@ -12653,7 +11085,7 @@
       <c r="J29" s="22"/>
       <c r="K29" s="22"/>
       <c r="L29" s="23"/>
-      <c r="M29" s="41"/>
+      <c r="M29" s="39"/>
       <c r="N29" s="17"/>
       <c r="O29" s="10"/>
       <c r="P29" s="10"/>
@@ -12675,18 +11107,18 @@
       <c r="AF29" s="1"/>
       <c r="AG29" s="1"/>
     </row>
-    <row r="30" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A30" s="75"/>
-      <c r="B30" s="78"/>
-      <c r="C30" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="D30" s="56" t="s">
-        <v>147</v>
+    <row r="30" spans="1:33" ht="28.95" customHeight="1">
+      <c r="A30" s="103"/>
+      <c r="B30" s="99"/>
+      <c r="C30" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="D30" s="53" t="s">
+        <v>141</v>
       </c>
       <c r="E30" s="20"/>
       <c r="F30" s="20" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G30" s="22"/>
       <c r="H30" s="22"/>
@@ -12694,7 +11126,7 @@
       <c r="J30" s="22"/>
       <c r="K30" s="22"/>
       <c r="L30" s="23"/>
-      <c r="M30" s="41"/>
+      <c r="M30" s="39"/>
       <c r="N30" s="17"/>
       <c r="O30" s="10"/>
       <c r="P30" s="10"/>
@@ -12716,18 +11148,18 @@
       <c r="AF30" s="1"/>
       <c r="AG30" s="1"/>
     </row>
-    <row r="31" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A31" s="75"/>
-      <c r="B31" s="78"/>
-      <c r="C31" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" s="56" t="s">
-        <v>148</v>
+    <row r="31" spans="1:33" ht="28.95" customHeight="1">
+      <c r="A31" s="103"/>
+      <c r="B31" s="99"/>
+      <c r="C31" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="53" t="s">
+        <v>142</v>
       </c>
       <c r="E31" s="20"/>
       <c r="F31" s="20" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G31" s="22"/>
       <c r="H31" s="22"/>
@@ -12735,7 +11167,7 @@
       <c r="J31" s="22"/>
       <c r="K31" s="22"/>
       <c r="L31" s="23"/>
-      <c r="M31" s="41"/>
+      <c r="M31" s="39"/>
       <c r="N31" s="17"/>
       <c r="O31" s="10"/>
       <c r="P31" s="10"/>
@@ -12757,18 +11189,18 @@
       <c r="AF31" s="1"/>
       <c r="AG31" s="1"/>
     </row>
-    <row r="32" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A32" s="75"/>
-      <c r="B32" s="78"/>
-      <c r="C32" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="D32" s="33" t="s">
-        <v>149</v>
+    <row r="32" spans="1:33" ht="28.95" customHeight="1">
+      <c r="A32" s="103"/>
+      <c r="B32" s="99"/>
+      <c r="C32" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>143</v>
       </c>
       <c r="E32" s="20"/>
       <c r="F32" s="20" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G32" s="22"/>
       <c r="H32" s="22"/>
@@ -12776,7 +11208,7 @@
       <c r="J32" s="22"/>
       <c r="K32" s="22"/>
       <c r="L32" s="23"/>
-      <c r="M32" s="41"/>
+      <c r="M32" s="39"/>
       <c r="N32" s="17"/>
       <c r="O32" s="10"/>
       <c r="P32" s="10"/>
@@ -12798,18 +11230,18 @@
       <c r="AF32" s="1"/>
       <c r="AG32" s="1"/>
     </row>
-    <row r="33" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A33" s="75"/>
-      <c r="B33" s="78"/>
-      <c r="C33" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="D33" s="33" t="s">
-        <v>150</v>
+    <row r="33" spans="1:33" ht="28.95" customHeight="1">
+      <c r="A33" s="103"/>
+      <c r="B33" s="99"/>
+      <c r="C33" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>144</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="20" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G33" s="22"/>
       <c r="H33" s="22"/>
@@ -12817,7 +11249,7 @@
       <c r="J33" s="22"/>
       <c r="K33" s="22"/>
       <c r="L33" s="23"/>
-      <c r="M33" s="41"/>
+      <c r="M33" s="39"/>
       <c r="N33" s="17"/>
       <c r="O33" s="10"/>
       <c r="P33" s="10"/>
@@ -12839,18 +11271,18 @@
       <c r="AF33" s="1"/>
       <c r="AG33" s="1"/>
     </row>
-    <row r="34" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A34" s="75"/>
-      <c r="B34" s="79"/>
-      <c r="C34" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="D34" s="56" t="s">
-        <v>100</v>
+    <row r="34" spans="1:33" ht="28.95" customHeight="1">
+      <c r="A34" s="103"/>
+      <c r="B34" s="110"/>
+      <c r="C34" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="53" t="s">
+        <v>96</v>
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="20" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G34" s="22"/>
       <c r="H34" s="22"/>
@@ -12858,7 +11290,7 @@
       <c r="J34" s="22"/>
       <c r="K34" s="22"/>
       <c r="L34" s="23"/>
-      <c r="M34" s="41"/>
+      <c r="M34" s="39"/>
       <c r="N34" s="17"/>
       <c r="O34" s="10"/>
       <c r="P34" s="10"/>
@@ -12880,20 +11312,20 @@
       <c r="AF34" s="1"/>
       <c r="AG34" s="1"/>
     </row>
-    <row r="35" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A35" s="75"/>
-      <c r="B35" s="80" t="s">
-        <v>101</v>
-      </c>
-      <c r="C35" s="69" t="s">
-        <v>128</v>
-      </c>
-      <c r="D35" s="70" t="s">
-        <v>127</v>
+    <row r="35" spans="1:33" ht="28.95" customHeight="1">
+      <c r="A35" s="103"/>
+      <c r="B35" s="98" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="D35" s="67" t="s">
+        <v>121</v>
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="20" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G35" s="22"/>
       <c r="H35" s="22"/>
@@ -12901,7 +11333,7 @@
       <c r="J35" s="22"/>
       <c r="K35" s="22"/>
       <c r="L35" s="23"/>
-      <c r="M35" s="41"/>
+      <c r="M35" s="39"/>
       <c r="N35" s="17"/>
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
@@ -12923,26 +11355,26 @@
       <c r="AF35" s="1"/>
       <c r="AG35" s="1"/>
     </row>
-    <row r="36" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A36" s="75"/>
-      <c r="B36" s="80"/>
-      <c r="C36" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="D36" s="37" t="s">
-        <v>75</v>
+    <row r="36" spans="1:33" ht="28.95" customHeight="1">
+      <c r="A36" s="103"/>
+      <c r="B36" s="98"/>
+      <c r="C36" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="35" t="s">
+        <v>73</v>
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="20" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G36" s="22"/>
       <c r="H36" s="22"/>
-      <c r="I36" s="26"/>
+      <c r="I36" s="25"/>
       <c r="J36" s="22"/>
       <c r="K36" s="22"/>
       <c r="L36" s="23"/>
-      <c r="M36" s="41"/>
+      <c r="M36" s="39"/>
       <c r="N36" s="17">
         <v>2</v>
       </c>
@@ -12970,26 +11402,26 @@
       <c r="AF36" s="1"/>
       <c r="AG36" s="1"/>
     </row>
-    <row r="37" spans="1:33" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A37" s="76"/>
-      <c r="B37" s="81"/>
-      <c r="C37" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="D37" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="48"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="50"/>
-      <c r="M37" s="51"/>
+    <row r="37" spans="1:33" ht="28.95" customHeight="1" thickBot="1">
+      <c r="A37" s="104"/>
+      <c r="B37" s="105"/>
+      <c r="C37" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="47"/>
+      <c r="M37" s="48"/>
       <c r="N37" s="17">
         <v>1</v>
       </c>
@@ -13017,30 +11449,30 @@
       <c r="AF37" s="1"/>
       <c r="AG37" s="1"/>
     </row>
-    <row r="38" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A38" s="72" t="s">
+    <row r="38" spans="1:33" ht="28.95" customHeight="1">
+      <c r="A38" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="72" t="s">
+      <c r="B38" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="D38" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="E38" s="43"/>
-      <c r="F38" s="52" t="s">
-        <v>138</v>
-      </c>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="44"/>
-      <c r="L38" s="45"/>
-      <c r="M38" s="38"/>
+      <c r="D38" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="41"/>
+      <c r="F38" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="36"/>
       <c r="N38" s="17">
         <v>3</v>
       </c>
@@ -13064,26 +11496,26 @@
       <c r="AF38" s="1"/>
       <c r="AG38" s="1"/>
     </row>
-    <row r="39" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A39" s="73"/>
-      <c r="B39" s="73"/>
-      <c r="C39" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="D39" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="E39" s="26"/>
-      <c r="F39" s="41" t="s">
-        <v>137</v>
+    <row r="39" spans="1:33" ht="28.95" customHeight="1">
+      <c r="A39" s="106"/>
+      <c r="B39" s="106"/>
+      <c r="C39" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" s="25"/>
+      <c r="F39" s="39" t="s">
+        <v>131</v>
       </c>
       <c r="G39" s="22"/>
       <c r="H39" s="22"/>
       <c r="I39" s="22"/>
       <c r="J39" s="22"/>
       <c r="K39" s="22"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="25"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="24"/>
       <c r="N39" s="17">
         <v>1</v>
       </c>
@@ -13111,28 +11543,28 @@
       <c r="AF39" s="1"/>
       <c r="AG39" s="1"/>
     </row>
-    <row r="40" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A40" s="73"/>
-      <c r="B40" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="C40" s="62" t="s">
-        <v>102</v>
-      </c>
-      <c r="D40" s="63" t="s">
-        <v>105</v>
-      </c>
-      <c r="E40" s="26"/>
-      <c r="F40" s="41" t="s">
-        <v>130</v>
+    <row r="40" spans="1:33" ht="28.95" customHeight="1">
+      <c r="A40" s="106"/>
+      <c r="B40" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="E40" s="25"/>
+      <c r="F40" s="39" t="s">
+        <v>124</v>
       </c>
       <c r="G40" s="22"/>
       <c r="H40" s="22"/>
       <c r="I40" s="22"/>
       <c r="J40" s="22"/>
       <c r="K40" s="22"/>
-      <c r="L40" s="27"/>
-      <c r="M40" s="25"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="24"/>
       <c r="N40" s="17"/>
       <c r="O40" s="11"/>
       <c r="P40" s="11"/>
@@ -13154,28 +11586,28 @@
       <c r="AF40" s="1"/>
       <c r="AG40" s="1"/>
     </row>
-    <row r="41" spans="1:33" ht="36">
-      <c r="A41" s="73"/>
-      <c r="B41" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="41" t="s">
+    <row r="41" spans="1:33" ht="39.6">
+      <c r="A41" s="106"/>
+      <c r="B41" s="106" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="E41" s="26"/>
-      <c r="F41" s="41" t="s">
-        <v>137</v>
+      <c r="D41" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" s="25"/>
+      <c r="F41" s="39" t="s">
+        <v>131</v>
       </c>
       <c r="G41" s="22"/>
       <c r="H41" s="22"/>
       <c r="I41" s="22"/>
       <c r="J41" s="22"/>
       <c r="K41" s="22"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="25"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="24"/>
       <c r="N41" s="17"/>
       <c r="O41" s="11"/>
       <c r="P41" s="11"/>
@@ -13197,26 +11629,26 @@
       <c r="AF41" s="1"/>
       <c r="AG41" s="1"/>
     </row>
-    <row r="42" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A42" s="73"/>
-      <c r="B42" s="73"/>
-      <c r="C42" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="D42" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="E42" s="26"/>
-      <c r="F42" s="41" t="s">
-        <v>131</v>
+    <row r="42" spans="1:33" ht="28.95" customHeight="1">
+      <c r="A42" s="106"/>
+      <c r="B42" s="106"/>
+      <c r="C42" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E42" s="25"/>
+      <c r="F42" s="39" t="s">
+        <v>125</v>
       </c>
       <c r="G42" s="22"/>
       <c r="H42" s="22"/>
       <c r="I42" s="22"/>
       <c r="J42" s="22"/>
       <c r="K42" s="22"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="25"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="24"/>
       <c r="N42" s="17"/>
       <c r="O42" s="11"/>
       <c r="P42" s="11"/>
@@ -13238,26 +11670,26 @@
       <c r="AF42" s="1"/>
       <c r="AG42" s="1"/>
     </row>
-    <row r="43" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A43" s="73"/>
-      <c r="B43" s="73"/>
-      <c r="C43" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="D43" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="E43" s="26"/>
-      <c r="F43" s="41" t="s">
-        <v>137</v>
+    <row r="43" spans="1:33" ht="28.95" customHeight="1">
+      <c r="A43" s="106"/>
+      <c r="B43" s="106"/>
+      <c r="C43" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="E43" s="25"/>
+      <c r="F43" s="39" t="s">
+        <v>131</v>
       </c>
       <c r="G43" s="22"/>
       <c r="H43" s="22"/>
       <c r="I43" s="22"/>
       <c r="J43" s="22"/>
       <c r="K43" s="22"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="25"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="24"/>
       <c r="N43" s="17"/>
       <c r="O43" s="11"/>
       <c r="P43" s="11"/>
@@ -13279,26 +11711,26 @@
       <c r="AF43" s="1"/>
       <c r="AG43" s="1"/>
     </row>
-    <row r="44" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A44" s="73"/>
-      <c r="B44" s="73"/>
-      <c r="C44" s="61" t="s">
-        <v>83</v>
-      </c>
-      <c r="D44" s="63" t="s">
-        <v>112</v>
-      </c>
-      <c r="E44" s="26"/>
-      <c r="F44" s="41" t="s">
-        <v>131</v>
+    <row r="44" spans="1:33" ht="28.95" customHeight="1">
+      <c r="A44" s="106"/>
+      <c r="B44" s="106"/>
+      <c r="C44" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="E44" s="25"/>
+      <c r="F44" s="39" t="s">
+        <v>125</v>
       </c>
       <c r="G44" s="22"/>
       <c r="H44" s="22"/>
       <c r="I44" s="22"/>
       <c r="J44" s="22"/>
       <c r="K44" s="22"/>
-      <c r="L44" s="27"/>
-      <c r="M44" s="25"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="24"/>
       <c r="N44" s="17"/>
       <c r="O44" s="11"/>
       <c r="P44" s="11"/>
@@ -13320,28 +11752,28 @@
       <c r="AF44" s="1"/>
       <c r="AG44" s="1"/>
     </row>
-    <row r="45" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A45" s="73"/>
-      <c r="B45" s="93" t="s">
-        <v>115</v>
-      </c>
-      <c r="C45" s="61" t="s">
-        <v>123</v>
-      </c>
-      <c r="D45" s="64" t="s">
-        <v>116</v>
+    <row r="45" spans="1:33" ht="28.95" customHeight="1">
+      <c r="A45" s="106"/>
+      <c r="B45" s="114" t="s">
+        <v>110</v>
+      </c>
+      <c r="C45" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="D45" s="61" t="s">
+        <v>111</v>
       </c>
       <c r="E45" s="20"/>
       <c r="F45" s="20" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G45" s="22"/>
       <c r="H45" s="22"/>
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
-      <c r="L45" s="27"/>
-      <c r="M45" s="25"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="24"/>
       <c r="N45" s="17">
         <v>3</v>
       </c>
@@ -13367,26 +11799,26 @@
       <c r="AF45" s="1"/>
       <c r="AG45" s="1"/>
     </row>
-    <row r="46" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A46" s="73"/>
-      <c r="B46" s="93"/>
-      <c r="C46" s="61" t="s">
-        <v>121</v>
-      </c>
-      <c r="D46" s="64" t="s">
-        <v>124</v>
+    <row r="46" spans="1:33" ht="28.95" customHeight="1">
+      <c r="A46" s="106"/>
+      <c r="B46" s="114"/>
+      <c r="C46" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="D46" s="61" t="s">
+        <v>118</v>
       </c>
       <c r="E46" s="20"/>
       <c r="F46" s="20" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G46" s="22"/>
       <c r="H46" s="22"/>
       <c r="I46" s="22"/>
       <c r="J46" s="22"/>
       <c r="K46" s="22"/>
-      <c r="L46" s="27"/>
-      <c r="M46" s="41"/>
+      <c r="L46" s="26"/>
+      <c r="M46" s="39"/>
       <c r="N46" s="17">
         <v>3</v>
       </c>
@@ -13412,26 +11844,26 @@
       <c r="AF46" s="1"/>
       <c r="AG46" s="1"/>
     </row>
-    <row r="47" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A47" s="73"/>
-      <c r="B47" s="93"/>
-      <c r="C47" s="61" t="s">
-        <v>122</v>
-      </c>
-      <c r="D47" s="64" t="s">
-        <v>87</v>
+    <row r="47" spans="1:33" ht="28.95" customHeight="1">
+      <c r="A47" s="106"/>
+      <c r="B47" s="114"/>
+      <c r="C47" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="D47" s="61" t="s">
+        <v>84</v>
       </c>
       <c r="E47" s="20"/>
       <c r="F47" s="20" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G47" s="22"/>
       <c r="H47" s="22"/>
       <c r="I47" s="22"/>
       <c r="J47" s="22"/>
       <c r="K47" s="22"/>
-      <c r="L47" s="27"/>
-      <c r="M47" s="41"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="39"/>
       <c r="N47" s="17">
         <v>3</v>
       </c>
@@ -13457,28 +11889,28 @@
       <c r="AF47" s="1"/>
       <c r="AG47" s="1"/>
     </row>
-    <row r="48" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A48" s="73"/>
-      <c r="B48" s="73" t="s">
-        <v>78</v>
-      </c>
-      <c r="C48" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="D48" s="30" t="s">
-        <v>120</v>
+    <row r="48" spans="1:33" ht="28.95" customHeight="1">
+      <c r="A48" s="106"/>
+      <c r="B48" s="106" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="D48" s="28" t="s">
+        <v>114</v>
       </c>
       <c r="E48" s="20"/>
       <c r="F48" s="20" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G48" s="22"/>
       <c r="H48" s="22"/>
       <c r="I48" s="22"/>
       <c r="J48" s="22"/>
       <c r="K48" s="22"/>
-      <c r="L48" s="27"/>
-      <c r="M48" s="41"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="39"/>
       <c r="N48" s="17">
         <v>3</v>
       </c>
@@ -13504,26 +11936,26 @@
       <c r="AF48" s="1"/>
       <c r="AG48" s="1"/>
     </row>
-    <row r="49" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A49" s="73"/>
-      <c r="B49" s="73"/>
-      <c r="C49" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="D49" s="30" t="s">
-        <v>119</v>
+    <row r="49" spans="1:33" ht="28.95" customHeight="1">
+      <c r="A49" s="106"/>
+      <c r="B49" s="106"/>
+      <c r="C49" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" s="28" t="s">
+        <v>113</v>
       </c>
       <c r="E49" s="20"/>
       <c r="F49" s="20" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G49" s="22"/>
       <c r="H49" s="22"/>
       <c r="I49" s="22"/>
       <c r="J49" s="22"/>
       <c r="K49" s="22"/>
-      <c r="L49" s="27"/>
-      <c r="M49" s="41"/>
+      <c r="L49" s="26"/>
+      <c r="M49" s="39"/>
       <c r="N49" s="17"/>
       <c r="O49" s="13"/>
       <c r="P49" s="15"/>
@@ -13545,26 +11977,26 @@
       <c r="AF49" s="1"/>
       <c r="AG49" s="1"/>
     </row>
-    <row r="50" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A50" s="73"/>
-      <c r="B50" s="73"/>
-      <c r="C50" s="65" t="s">
-        <v>129</v>
-      </c>
-      <c r="D50" s="66" t="s">
-        <v>125</v>
+    <row r="50" spans="1:33" ht="28.95" customHeight="1">
+      <c r="A50" s="106"/>
+      <c r="B50" s="106"/>
+      <c r="C50" s="62" t="s">
+        <v>123</v>
+      </c>
+      <c r="D50" s="63" t="s">
+        <v>119</v>
       </c>
       <c r="E50" s="20"/>
       <c r="F50" s="20" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G50" s="22"/>
       <c r="H50" s="22"/>
       <c r="I50" s="22"/>
       <c r="J50" s="22"/>
       <c r="K50" s="22"/>
-      <c r="L50" s="27"/>
-      <c r="M50" s="41"/>
+      <c r="L50" s="26"/>
+      <c r="M50" s="39"/>
       <c r="N50" s="17">
         <v>3</v>
       </c>
@@ -13588,31 +12020,31 @@
       <c r="AF50" s="1"/>
       <c r="AG50" s="1"/>
     </row>
-    <row r="51" spans="1:33" ht="36">
-      <c r="A51" s="73"/>
-      <c r="B51" s="61" t="s">
-        <v>106</v>
-      </c>
-      <c r="C51" s="67" t="s">
-        <v>107</v>
-      </c>
-      <c r="D51" s="63" t="s">
-        <v>108</v>
+    <row r="51" spans="1:33" ht="39.6">
+      <c r="A51" s="106"/>
+      <c r="B51" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="D51" s="60" t="s">
+        <v>103</v>
       </c>
       <c r="E51" s="20"/>
       <c r="F51" s="20" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G51" s="22"/>
       <c r="H51" s="22"/>
       <c r="I51" s="22"/>
       <c r="J51" s="22"/>
       <c r="K51" s="22"/>
-      <c r="L51" s="27"/>
-      <c r="M51" s="41"/>
-      <c r="N51" s="39"/>
-      <c r="O51" s="40"/>
-      <c r="P51" s="40"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="39"/>
+      <c r="N51" s="37"/>
+      <c r="O51" s="38"/>
+      <c r="P51" s="38"/>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
@@ -21458,6 +19890,11 @@
   </sheetData>
   <autoFilter ref="A7:P51"/>
   <mergeCells count="14">
+    <mergeCell ref="A38:A51"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B2:O3"/>
     <mergeCell ref="G7:K7"/>
     <mergeCell ref="A9:A37"/>
@@ -21467,11 +19904,6 @@
     <mergeCell ref="B25:B28"/>
     <mergeCell ref="B29:B34"/>
     <mergeCell ref="B35:B37"/>
-    <mergeCell ref="A38:A51"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -21488,14 +19920,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="6" width="14.42578125" customWidth="1"/>
+    <col min="1" max="2" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="6" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="12.75">
+    <row r="2" spans="2:3" ht="13.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -21503,7 +19935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="12.75">
+    <row r="3" spans="2:3" ht="13.2">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -21511,7 +19943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="12.75">
+    <row r="4" spans="2:3" ht="13.2">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -21519,7 +19951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="12.75">
+    <row r="5" spans="2:3" ht="13.2">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
@@ -21527,7 +19959,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="12.75">
+    <row r="6" spans="2:3" ht="13.2">
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>

--- a/2. 기능정리 취합/Project06 - 요구사항 정의서 - 복사본.xlsx
+++ b/2. 기능정리 취합/Project06 - 요구사항 정의서 - 복사본.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항정의서" sheetId="1" r:id="rId1"/>
@@ -1183,6 +1183,21 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1234,15 +1249,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1282,28 +1288,22 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1575,11 +1575,11 @@
       <c r="AE1" s="1"/>
     </row>
     <row r="2" spans="2:31" ht="19.5" customHeight="1">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="58"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="65"/>
       <c r="E2" s="37"/>
       <c r="F2" s="37"/>
       <c r="G2" s="37"/>
@@ -1609,9 +1609,9 @@
       <c r="AE2" s="1"/>
     </row>
     <row r="3" spans="2:31" ht="19.5" customHeight="1" thickBot="1">
-      <c r="B3" s="59"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="61"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="68"/>
       <c r="E3" s="39"/>
       <c r="F3" s="39"/>
       <c r="G3" s="39"/>
@@ -1792,10 +1792,10 @@
       <c r="B8" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="70" t="s">
+      <c r="D8" s="77" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="16"/>
@@ -1836,8 +1836,8 @@
       <c r="B9" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="63"/>
-      <c r="D9" s="71"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="78"/>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
@@ -1879,7 +1879,7 @@
       <c r="C10" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="71"/>
+      <c r="D10" s="78"/>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
@@ -1915,7 +1915,7 @@
       <c r="C11" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="71"/>
+      <c r="D11" s="78"/>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
@@ -1957,7 +1957,7 @@
       <c r="C12" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="71"/>
+      <c r="D12" s="78"/>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
@@ -1993,7 +1993,7 @@
       <c r="C13" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="71"/>
+      <c r="D13" s="78"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
@@ -2029,7 +2029,7 @@
       <c r="C14" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="D14" s="72"/>
+      <c r="D14" s="79"/>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
@@ -2062,10 +2062,10 @@
       <c r="B15" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="67" t="s">
+      <c r="D15" s="74" t="s">
         <v>31</v>
       </c>
       <c r="E15" s="25"/>
@@ -2102,8 +2102,8 @@
       <c r="B16" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="68"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="75"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
@@ -2136,8 +2136,8 @@
       <c r="B17" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="66"/>
-      <c r="D17" s="68"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="75"/>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
@@ -2173,7 +2173,7 @@
       <c r="C18" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="68"/>
+      <c r="D18" s="75"/>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
@@ -2209,7 +2209,7 @@
       <c r="C19" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="68"/>
+      <c r="D19" s="75"/>
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
@@ -2249,7 +2249,7 @@
       <c r="C20" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="69"/>
+      <c r="D20" s="76"/>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
@@ -9522,8 +9522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -9555,10 +9555,10 @@
       <c r="T1" s="1"/>
     </row>
     <row r="2" spans="2:20" ht="19.5" customHeight="1">
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="91"/>
+      <c r="C2" s="58"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -9578,8 +9578,8 @@
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="2:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="B3" s="92"/>
-      <c r="C3" s="93"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="60"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -9666,13 +9666,13 @@
       <c r="T6" s="1"/>
     </row>
     <row r="7" spans="2:20" ht="27.75" customHeight="1">
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="89" t="s">
+      <c r="C7" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="89" t="s">
+      <c r="D7" s="56" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="1"/>
@@ -9693,11 +9693,11 @@
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="2:20" ht="17.25" customHeight="1">
-      <c r="B8" s="94" t="s">
+      <c r="B8" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="95"/>
-      <c r="D8" s="76" t="s">
+      <c r="C8" s="94"/>
+      <c r="D8" s="80" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="1"/>
@@ -9718,13 +9718,13 @@
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="2:20" ht="17.25" customHeight="1">
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="83" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="77"/>
+      <c r="D9" s="81"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -9743,11 +9743,11 @@
       <c r="T9" s="1"/>
     </row>
     <row r="10" spans="2:20" ht="17.25" customHeight="1">
-      <c r="B10" s="80"/>
+      <c r="B10" s="84"/>
       <c r="C10" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="77"/>
+      <c r="D10" s="81"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -9766,11 +9766,11 @@
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="2:20" ht="17.25" customHeight="1">
-      <c r="B11" s="81"/>
+      <c r="B11" s="85"/>
       <c r="C11" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="77"/>
+      <c r="D11" s="81"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -9789,13 +9789,13 @@
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="2:20" ht="17.25" customHeight="1">
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="86" t="s">
         <v>46</v>
       </c>
       <c r="C12" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="77"/>
+      <c r="D12" s="81"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -9814,11 +9814,11 @@
       <c r="T12" s="1"/>
     </row>
     <row r="13" spans="2:20" ht="17.25" customHeight="1">
-      <c r="B13" s="83"/>
+      <c r="B13" s="87"/>
       <c r="C13" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="77"/>
+      <c r="D13" s="81"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -9837,11 +9837,11 @@
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="2:20" ht="17.25" customHeight="1">
-      <c r="B14" s="83"/>
+      <c r="B14" s="87"/>
       <c r="C14" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="77"/>
+      <c r="D14" s="81"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -9860,11 +9860,11 @@
       <c r="T14" s="1"/>
     </row>
     <row r="15" spans="2:20" ht="17.25" customHeight="1">
-      <c r="B15" s="83"/>
+      <c r="B15" s="87"/>
       <c r="C15" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="77"/>
+      <c r="D15" s="81"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -9883,11 +9883,11 @@
       <c r="T15" s="1"/>
     </row>
     <row r="16" spans="2:20" ht="17.25" customHeight="1">
-      <c r="B16" s="83"/>
+      <c r="B16" s="87"/>
       <c r="C16" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="77"/>
+      <c r="D16" s="81"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -9906,11 +9906,11 @@
       <c r="T16" s="1"/>
     </row>
     <row r="17" spans="2:20" ht="17.25" customHeight="1">
-      <c r="B17" s="84"/>
+      <c r="B17" s="88"/>
       <c r="C17" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="77"/>
+      <c r="D17" s="81"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -9929,13 +9929,13 @@
       <c r="T17" s="1"/>
     </row>
     <row r="18" spans="2:20" ht="17.25" customHeight="1">
-      <c r="B18" s="82" t="s">
+      <c r="B18" s="86" t="s">
         <v>61</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="77"/>
+      <c r="D18" s="81"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -9954,11 +9954,11 @@
       <c r="T18" s="1"/>
     </row>
     <row r="19" spans="2:20" ht="17.25" customHeight="1">
-      <c r="B19" s="83"/>
+      <c r="B19" s="87"/>
       <c r="C19" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="77"/>
+      <c r="D19" s="81"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -9977,11 +9977,11 @@
       <c r="T19" s="1"/>
     </row>
     <row r="20" spans="2:20" ht="17.25" customHeight="1">
-      <c r="B20" s="83"/>
+      <c r="B20" s="87"/>
       <c r="C20" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="77"/>
+      <c r="D20" s="81"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -10000,11 +10000,11 @@
       <c r="T20" s="1"/>
     </row>
     <row r="21" spans="2:20" ht="17.25" customHeight="1">
-      <c r="B21" s="83"/>
+      <c r="B21" s="87"/>
       <c r="C21" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="77"/>
+      <c r="D21" s="81"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -10023,11 +10023,11 @@
       <c r="T21" s="1"/>
     </row>
     <row r="22" spans="2:20" ht="17.25" customHeight="1">
-      <c r="B22" s="83"/>
+      <c r="B22" s="87"/>
       <c r="C22" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="77"/>
+      <c r="D22" s="81"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -10046,11 +10046,11 @@
       <c r="T22" s="1"/>
     </row>
     <row r="23" spans="2:20" ht="17.25" customHeight="1">
-      <c r="B23" s="84"/>
+      <c r="B23" s="88"/>
       <c r="C23" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="77"/>
+      <c r="D23" s="81"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -10069,13 +10069,13 @@
       <c r="T23" s="1"/>
     </row>
     <row r="24" spans="2:20" ht="17.25" customHeight="1">
-      <c r="B24" s="85" t="s">
+      <c r="B24" s="89" t="s">
         <v>65</v>
       </c>
       <c r="C24" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="77"/>
+      <c r="D24" s="81"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -10094,11 +10094,11 @@
       <c r="T24" s="1"/>
     </row>
     <row r="25" spans="2:20" ht="17.25" customHeight="1">
-      <c r="B25" s="86"/>
+      <c r="B25" s="90"/>
       <c r="C25" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="77"/>
+      <c r="D25" s="81"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -10117,11 +10117,11 @@
       <c r="T25" s="1"/>
     </row>
     <row r="26" spans="2:20" ht="17.25" customHeight="1">
-      <c r="B26" s="86"/>
+      <c r="B26" s="90"/>
       <c r="C26" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="77"/>
+      <c r="D26" s="81"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -10140,11 +10140,11 @@
       <c r="T26" s="1"/>
     </row>
     <row r="27" spans="2:20" ht="17.25" customHeight="1">
-      <c r="B27" s="87"/>
+      <c r="B27" s="91"/>
       <c r="C27" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="77"/>
+      <c r="D27" s="81"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -10163,13 +10163,13 @@
       <c r="T27" s="1"/>
     </row>
     <row r="28" spans="2:20" ht="17.25" customHeight="1">
-      <c r="B28" s="82" t="s">
+      <c r="B28" s="86" t="s">
         <v>44</v>
       </c>
       <c r="C28" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="D28" s="77"/>
+      <c r="D28" s="81"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -10188,11 +10188,11 @@
       <c r="T28" s="1"/>
     </row>
     <row r="29" spans="2:20" ht="17.25" customHeight="1">
-      <c r="B29" s="83"/>
+      <c r="B29" s="87"/>
       <c r="C29" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="D29" s="77"/>
+      <c r="D29" s="81"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -10211,11 +10211,11 @@
       <c r="T29" s="1"/>
     </row>
     <row r="30" spans="2:20" ht="17.25" customHeight="1">
-      <c r="B30" s="83"/>
+      <c r="B30" s="87"/>
       <c r="C30" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="77"/>
+      <c r="D30" s="81"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -10234,11 +10234,11 @@
       <c r="T30" s="1"/>
     </row>
     <row r="31" spans="2:20" ht="17.25" customHeight="1">
-      <c r="B31" s="83"/>
+      <c r="B31" s="87"/>
       <c r="C31" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="D31" s="77"/>
+      <c r="D31" s="81"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -10257,11 +10257,11 @@
       <c r="T31" s="1"/>
     </row>
     <row r="32" spans="2:20" ht="17.25" customHeight="1">
-      <c r="B32" s="83"/>
+      <c r="B32" s="87"/>
       <c r="C32" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="77"/>
+      <c r="D32" s="81"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -10280,11 +10280,11 @@
       <c r="T32" s="1"/>
     </row>
     <row r="33" spans="2:20" ht="17.25" customHeight="1">
-      <c r="B33" s="84"/>
+      <c r="B33" s="88"/>
       <c r="C33" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="D33" s="77"/>
+      <c r="D33" s="81"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -10303,13 +10303,13 @@
       <c r="T33" s="1"/>
     </row>
     <row r="34" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B34" s="80" t="s">
+      <c r="B34" s="84" t="s">
         <v>66</v>
       </c>
       <c r="C34" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D34" s="77"/>
+      <c r="D34" s="81"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -10328,11 +10328,11 @@
       <c r="T34" s="1"/>
     </row>
     <row r="35" spans="2:20" ht="17.25" customHeight="1">
-      <c r="B35" s="80"/>
+      <c r="B35" s="84"/>
       <c r="C35" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D35" s="77"/>
+      <c r="D35" s="81"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -10351,11 +10351,11 @@
       <c r="T35" s="1"/>
     </row>
     <row r="36" spans="2:20" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B36" s="88"/>
+      <c r="B36" s="92"/>
       <c r="C36" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="D36" s="78"/>
+      <c r="D36" s="82"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -10410,13 +10410,13 @@
       <c r="T38" s="1"/>
     </row>
     <row r="39" spans="2:20" ht="27.75" customHeight="1">
-      <c r="B39" s="89" t="s">
+      <c r="B39" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="89" t="s">
+      <c r="C39" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="89" t="s">
+      <c r="D39" s="56" t="s">
         <v>12</v>
       </c>
       <c r="E39" s="1"/>
@@ -10437,13 +10437,13 @@
       <c r="T39" s="1"/>
     </row>
     <row r="40" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B40" s="73" t="s">
+      <c r="B40" s="95" t="s">
         <v>54</v>
       </c>
       <c r="C40" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="D40" s="73" t="s">
+      <c r="D40" s="95" t="s">
         <v>31</v>
       </c>
       <c r="E40" s="1"/>
@@ -10464,11 +10464,11 @@
       <c r="T40" s="1"/>
     </row>
     <row r="41" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B41" s="74"/>
+      <c r="B41" s="96"/>
       <c r="C41" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="74"/>
+      <c r="D41" s="96"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -10493,7 +10493,7 @@
       <c r="C42" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="D42" s="74"/>
+      <c r="D42" s="96"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -10512,13 +10512,13 @@
       <c r="T42" s="1"/>
     </row>
     <row r="43" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B43" s="74" t="s">
+      <c r="B43" s="96" t="s">
         <v>49</v>
       </c>
       <c r="C43" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="74"/>
+      <c r="D43" s="96"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -10537,11 +10537,11 @@
       <c r="T43" s="1"/>
     </row>
     <row r="44" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B44" s="74"/>
+      <c r="B44" s="96"/>
       <c r="C44" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="D44" s="74"/>
+      <c r="D44" s="96"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -10560,11 +10560,11 @@
       <c r="T44" s="1"/>
     </row>
     <row r="45" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B45" s="74"/>
+      <c r="B45" s="96"/>
       <c r="C45" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="D45" s="74"/>
+      <c r="D45" s="96"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="J45" s="1"/>
@@ -10580,11 +10580,11 @@
       <c r="T45" s="1"/>
     </row>
     <row r="46" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B46" s="74"/>
+      <c r="B46" s="96"/>
       <c r="C46" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="D46" s="74"/>
+      <c r="D46" s="96"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="J46" s="1"/>
@@ -10600,13 +10600,13 @@
       <c r="T46" s="1"/>
     </row>
     <row r="47" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B47" s="75" t="s">
+      <c r="B47" s="98" t="s">
         <v>72</v>
       </c>
       <c r="C47" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="D47" s="74"/>
+      <c r="D47" s="96"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="J47" s="1"/>
@@ -10622,11 +10622,11 @@
       <c r="T47" s="1"/>
     </row>
     <row r="48" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B48" s="75"/>
+      <c r="B48" s="98"/>
       <c r="C48" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="D48" s="74"/>
+      <c r="D48" s="96"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="J48" s="1"/>
@@ -10642,11 +10642,11 @@
       <c r="T48" s="1"/>
     </row>
     <row r="49" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B49" s="75"/>
+      <c r="B49" s="98"/>
       <c r="C49" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="D49" s="74"/>
+      <c r="D49" s="96"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="J49" s="1"/>
@@ -10662,13 +10662,13 @@
       <c r="T49" s="1"/>
     </row>
     <row r="50" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B50" s="74" t="s">
+      <c r="B50" s="96" t="s">
         <v>55</v>
       </c>
       <c r="C50" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="D50" s="74"/>
+      <c r="D50" s="96"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="J50" s="1"/>
@@ -10684,11 +10684,11 @@
       <c r="T50" s="1"/>
     </row>
     <row r="51" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B51" s="74"/>
+      <c r="B51" s="96"/>
       <c r="C51" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="D51" s="74"/>
+      <c r="D51" s="96"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="J51" s="1"/>
@@ -10704,11 +10704,11 @@
       <c r="T51" s="1"/>
     </row>
     <row r="52" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B52" s="74"/>
+      <c r="B52" s="96"/>
       <c r="C52" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="D52" s="74"/>
+      <c r="D52" s="96"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="J52" s="1"/>
@@ -10724,13 +10724,13 @@
       <c r="T52" s="1"/>
     </row>
     <row r="53" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B53" s="96" t="s">
+      <c r="B53" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="C53" s="97" t="s">
+      <c r="C53" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="D53" s="98"/>
+      <c r="D53" s="97"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="J53" s="1"/>
@@ -15636,6 +15636,11 @@
     <row r="1013" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="D40:D53"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B50:B52"/>
     <mergeCell ref="D8:D36"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="B12:B17"/>
@@ -15644,11 +15649,6 @@
     <mergeCell ref="B28:B33"/>
     <mergeCell ref="B34:B36"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D40:D53"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B50:B52"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -15663,7 +15663,9 @@
   </sheetPr>
   <dimension ref="B2:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
